--- a/PLA-Planilha de Avaliação .xlsx
+++ b/PLA-Planilha de Avaliação .xlsx
@@ -930,7 +930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1170,6 +1170,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1775,7 +1778,7 @@
   <dimension ref="A1:R142"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2382,10 +2385,10 @@
         <v>100</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="38"/>
+      <c r="E27" s="79"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -2739,7 +2742,7 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
     </row>
-    <row r="44" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="67" t="s">
         <v>80</v>
       </c>
@@ -4785,9 +4788,10 @@
     <hyperlink ref="D13" r:id="rId4"/>
     <hyperlink ref="D14" r:id="rId5"/>
     <hyperlink ref="D20" r:id="rId6"/>
+    <hyperlink ref="D27" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/PLA-Planilha de Avaliação .xlsx
+++ b/PLA-Planilha de Avaliação .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17235" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17235" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instruções para preenchimento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="104">
   <si>
     <t>INSTRUÇÕES</t>
   </si>
@@ -540,14 +540,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFF99"/>
+        <fgColor theme="0"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1066,9 +1066,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1106,48 +1103,48 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1172,6 +1169,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1777,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="41"/>
-      <c r="D5" s="81"/>
+      <c r="D5" s="80"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
@@ -1922,11 +1922,11 @@
       <c r="B6" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="82" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="E6" s="79"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -1948,8 +1948,8 @@
       <c r="B7" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="83" t="s">
+      <c r="C7" s="79"/>
+      <c r="D7" s="82" t="s">
         <v>98</v>
       </c>
       <c r="E7" s="25"/>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="41"/>
-      <c r="D12" s="81"/>
+      <c r="D12" s="80"/>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
@@ -2072,17 +2072,17 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="83" t="s">
         <v>99</v>
       </c>
       <c r="B13" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="82" t="s">
+      <c r="C13" s="79"/>
+      <c r="D13" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="79"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -2098,14 +2098,14 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="83" t="s">
         <v>101</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="82" t="s">
+      <c r="C14" s="79"/>
+      <c r="D14" s="81" t="s">
         <v>98</v>
       </c>
       <c r="E14" s="25"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
-      <c r="D19" s="81"/>
+      <c r="D19" s="80"/>
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
@@ -2234,11 +2234,11 @@
       <c r="B20" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="82" t="s">
+      <c r="C20" s="79"/>
+      <c r="D20" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="79"/>
+      <c r="E20" s="78"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
@@ -2256,8 +2256,8 @@
     <row r="21" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="85"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="84"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
@@ -2385,10 +2385,10 @@
         <v>100</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="86" t="s">
+      <c r="D27" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="79"/>
+      <c r="E27" s="78"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -2535,11 +2535,10 @@
         <v>60</v>
       </c>
       <c r="C34" s="25"/>
-      <c r="D34" s="26" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1TxlGDIUf96mTtncwmoUifoawKayBmM-XL1cQxXnAO_I&amp;authuser=1","x")</f>
-        <v>x</v>
-      </c>
-      <c r="E34" s="47"/>
+      <c r="D34" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="86"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
@@ -2635,16 +2634,16 @@
       <c r="R38" s="1"/>
     </row>
     <row r="39" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="48"/>
-      <c r="B39" s="49" t="s">
+      <c r="A39" s="47"/>
+      <c r="B39" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="52"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="51"/>
       <c r="I39" s="7"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2657,14 +2656,14 @@
       <c r="R39" s="1"/>
     </row>
     <row r="40" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="53"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="53"/>
       <c r="I40" s="7"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2677,16 +2676,16 @@
       <c r="R40" s="1"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="58"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="57"/>
       <c r="I41" s="7"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2699,16 +2698,16 @@
       <c r="R41" s="1"/>
     </row>
     <row r="42" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="62"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="61"/>
       <c r="I42" s="7"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2721,16 +2720,16 @@
       <c r="R42" s="1"/>
     </row>
     <row r="43" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
       <c r="I43" s="7"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2743,16 +2742,16 @@
       <c r="R43" s="1"/>
     </row>
     <row r="44" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="67" t="s">
+      <c r="A44" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="68"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
       <c r="I44" s="7"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2887,16 +2886,16 @@
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="71" t="s">
+      <c r="A51" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="73"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
       <c r="I51" s="7"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -2909,16 +2908,16 @@
       <c r="R51" s="1"/>
     </row>
     <row r="52" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="74" t="s">
+      <c r="A52" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="B52" s="75"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
       <c r="I52" s="7"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -3053,16 +3052,16 @@
       <c r="R58" s="1"/>
     </row>
     <row r="59" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="74" t="s">
+      <c r="A59" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="77"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
       <c r="I59" s="7"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -3197,16 +3196,16 @@
       <c r="R65" s="1"/>
     </row>
     <row r="66" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="74" t="s">
+      <c r="A66" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="78"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="78"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="70"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="69"/>
+      <c r="H66" s="69"/>
       <c r="I66" s="7"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3341,16 +3340,16 @@
       <c r="R72" s="1"/>
     </row>
     <row r="73" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="74" t="s">
+      <c r="A73" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="B73" s="78"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="78"/>
-      <c r="E73" s="78"/>
-      <c r="F73" s="78"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="69"/>
       <c r="I73" s="7"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -3485,16 +3484,16 @@
       <c r="R79" s="1"/>
     </row>
     <row r="80" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="74" t="s">
+      <c r="A80" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="B80" s="78"/>
-      <c r="C80" s="78"/>
-      <c r="D80" s="78"/>
-      <c r="E80" s="78"/>
-      <c r="F80" s="78"/>
-      <c r="G80" s="70"/>
-      <c r="H80" s="70"/>
+      <c r="B80" s="77"/>
+      <c r="C80" s="77"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="69"/>
       <c r="I80" s="7"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -3629,16 +3628,16 @@
       <c r="R86" s="1"/>
     </row>
     <row r="87" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="74" t="s">
+      <c r="A87" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="78"/>
-      <c r="C87" s="78"/>
-      <c r="D87" s="78"/>
-      <c r="E87" s="78"/>
-      <c r="F87" s="78"/>
-      <c r="G87" s="70"/>
-      <c r="H87" s="70"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="69"/>
+      <c r="H87" s="69"/>
       <c r="I87" s="7"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -3773,16 +3772,16 @@
       <c r="R93" s="1"/>
     </row>
     <row r="94" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="74" t="s">
+      <c r="A94" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="B94" s="78"/>
-      <c r="C94" s="78"/>
-      <c r="D94" s="78"/>
-      <c r="E94" s="78"/>
-      <c r="F94" s="78"/>
-      <c r="G94" s="70"/>
-      <c r="H94" s="70"/>
+      <c r="B94" s="77"/>
+      <c r="C94" s="77"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="69"/>
+      <c r="H94" s="69"/>
       <c r="I94" s="7"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -3917,16 +3916,16 @@
       <c r="R100" s="1"/>
     </row>
     <row r="101" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="74" t="s">
+      <c r="A101" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="B101" s="78"/>
-      <c r="C101" s="78"/>
-      <c r="D101" s="78"/>
-      <c r="E101" s="78"/>
-      <c r="F101" s="78"/>
-      <c r="G101" s="70"/>
-      <c r="H101" s="70"/>
+      <c r="B101" s="77"/>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="69"/>
+      <c r="H101" s="69"/>
       <c r="I101" s="7"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -4061,16 +4060,16 @@
       <c r="R107" s="1"/>
     </row>
     <row r="108" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="74" t="s">
+      <c r="A108" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="B108" s="78"/>
-      <c r="C108" s="78"/>
-      <c r="D108" s="78"/>
-      <c r="E108" s="78"/>
-      <c r="F108" s="78"/>
-      <c r="G108" s="70"/>
-      <c r="H108" s="70"/>
+      <c r="B108" s="77"/>
+      <c r="C108" s="77"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="69"/>
+      <c r="H108" s="69"/>
       <c r="I108" s="7"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -4205,16 +4204,16 @@
       <c r="R114" s="1"/>
     </row>
     <row r="115" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="74" t="s">
+      <c r="A115" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="B115" s="78"/>
-      <c r="C115" s="78"/>
-      <c r="D115" s="78"/>
-      <c r="E115" s="78"/>
-      <c r="F115" s="78"/>
-      <c r="G115" s="70"/>
-      <c r="H115" s="70"/>
+      <c r="B115" s="77"/>
+      <c r="C115" s="77"/>
+      <c r="D115" s="77"/>
+      <c r="E115" s="77"/>
+      <c r="F115" s="77"/>
+      <c r="G115" s="69"/>
+      <c r="H115" s="69"/>
       <c r="I115" s="7"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -4349,16 +4348,16 @@
       <c r="R121" s="1"/>
     </row>
     <row r="122" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="74" t="s">
+      <c r="A122" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="B122" s="78"/>
-      <c r="C122" s="78"/>
-      <c r="D122" s="78"/>
-      <c r="E122" s="78"/>
-      <c r="F122" s="78"/>
-      <c r="G122" s="70"/>
-      <c r="H122" s="70"/>
+      <c r="B122" s="77"/>
+      <c r="C122" s="77"/>
+      <c r="D122" s="77"/>
+      <c r="E122" s="77"/>
+      <c r="F122" s="77"/>
+      <c r="G122" s="69"/>
+      <c r="H122" s="69"/>
       <c r="I122" s="7"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
@@ -4493,16 +4492,16 @@
       <c r="R128" s="1"/>
     </row>
     <row r="129" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="74" t="s">
+      <c r="A129" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="B129" s="78"/>
-      <c r="C129" s="78"/>
-      <c r="D129" s="78"/>
-      <c r="E129" s="78"/>
-      <c r="F129" s="78"/>
-      <c r="G129" s="70"/>
-      <c r="H129" s="70"/>
+      <c r="B129" s="77"/>
+      <c r="C129" s="77"/>
+      <c r="D129" s="77"/>
+      <c r="E129" s="77"/>
+      <c r="F129" s="77"/>
+      <c r="G129" s="69"/>
+      <c r="H129" s="69"/>
       <c r="I129" s="7"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
@@ -4637,16 +4636,16 @@
       <c r="R135" s="1"/>
     </row>
     <row r="136" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="74" t="s">
+      <c r="A136" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="B136" s="78"/>
-      <c r="C136" s="78"/>
-      <c r="D136" s="78"/>
-      <c r="E136" s="78"/>
-      <c r="F136" s="78"/>
-      <c r="G136" s="70"/>
-      <c r="H136" s="70"/>
+      <c r="B136" s="77"/>
+      <c r="C136" s="77"/>
+      <c r="D136" s="77"/>
+      <c r="E136" s="77"/>
+      <c r="F136" s="77"/>
+      <c r="G136" s="69"/>
+      <c r="H136" s="69"/>
       <c r="I136" s="7"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -4782,13 +4781,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D34" r:id="rId1" display="https://drive.google.com/open?id=1TxlGDIUf96mTtncwmoUifoawKayBmM-XL1cQxXnAO_I&amp;authuser=1"/>
-    <hyperlink ref="D6" r:id="rId2"/>
-    <hyperlink ref="D7" r:id="rId3"/>
-    <hyperlink ref="D13" r:id="rId4"/>
-    <hyperlink ref="D14" r:id="rId5"/>
-    <hyperlink ref="D20" r:id="rId6"/>
-    <hyperlink ref="D27" r:id="rId7"/>
+    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D13" r:id="rId3"/>
+    <hyperlink ref="D14" r:id="rId4"/>
+    <hyperlink ref="D20" r:id="rId5"/>
+    <hyperlink ref="D27" r:id="rId6"/>
+    <hyperlink ref="D34" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
@@ -4799,7 +4798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R324"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4891,7 +4890,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
@@ -4913,7 +4912,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>16</v>
       </c>
@@ -4935,7 +4934,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>17</v>
       </c>
@@ -5215,7 +5214,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>29</v>
       </c>
@@ -9485,14 +9484,14 @@
       <c r="R221" s="1"/>
     </row>
     <row r="222" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="53"/>
-      <c r="B222" s="54"/>
-      <c r="C222" s="54"/>
-      <c r="D222" s="54"/>
-      <c r="E222" s="54"/>
-      <c r="F222" s="54"/>
-      <c r="G222" s="54"/>
-      <c r="H222" s="54"/>
+      <c r="A222" s="52"/>
+      <c r="B222" s="53"/>
+      <c r="C222" s="53"/>
+      <c r="D222" s="53"/>
+      <c r="E222" s="53"/>
+      <c r="F222" s="53"/>
+      <c r="G222" s="53"/>
+      <c r="H222" s="53"/>
       <c r="I222" s="7"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
@@ -9505,16 +9504,16 @@
       <c r="R222" s="1"/>
     </row>
     <row r="223" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="55" t="s">
+      <c r="A223" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B223" s="56"/>
-      <c r="C223" s="56"/>
-      <c r="D223" s="56"/>
-      <c r="E223" s="56"/>
-      <c r="F223" s="56"/>
-      <c r="G223" s="57"/>
-      <c r="H223" s="58"/>
+      <c r="B223" s="55"/>
+      <c r="C223" s="55"/>
+      <c r="D223" s="55"/>
+      <c r="E223" s="55"/>
+      <c r="F223" s="55"/>
+      <c r="G223" s="56"/>
+      <c r="H223" s="57"/>
       <c r="I223" s="7"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
@@ -9527,16 +9526,16 @@
       <c r="R223" s="1"/>
     </row>
     <row r="224" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="59" t="s">
+      <c r="A224" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B224" s="60"/>
-      <c r="C224" s="60"/>
-      <c r="D224" s="60"/>
-      <c r="E224" s="60"/>
-      <c r="F224" s="60"/>
-      <c r="G224" s="61"/>
-      <c r="H224" s="62"/>
+      <c r="B224" s="59"/>
+      <c r="C224" s="59"/>
+      <c r="D224" s="59"/>
+      <c r="E224" s="59"/>
+      <c r="F224" s="59"/>
+      <c r="G224" s="60"/>
+      <c r="H224" s="61"/>
       <c r="I224" s="7"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
@@ -9549,16 +9548,16 @@
       <c r="R224" s="1"/>
     </row>
     <row r="225" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="63" t="s">
+      <c r="A225" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B225" s="64"/>
-      <c r="C225" s="65"/>
-      <c r="D225" s="65"/>
-      <c r="E225" s="65"/>
-      <c r="F225" s="65"/>
-      <c r="G225" s="66"/>
-      <c r="H225" s="66"/>
+      <c r="B225" s="63"/>
+      <c r="C225" s="64"/>
+      <c r="D225" s="64"/>
+      <c r="E225" s="64"/>
+      <c r="F225" s="64"/>
+      <c r="G225" s="65"/>
+      <c r="H225" s="65"/>
       <c r="I225" s="7"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
@@ -9571,16 +9570,16 @@
       <c r="R225" s="1"/>
     </row>
     <row r="226" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="67" t="s">
+      <c r="A226" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B226" s="68"/>
-      <c r="C226" s="69"/>
-      <c r="D226" s="69"/>
-      <c r="E226" s="69"/>
-      <c r="F226" s="69"/>
-      <c r="G226" s="70"/>
-      <c r="H226" s="70"/>
+      <c r="B226" s="67"/>
+      <c r="C226" s="68"/>
+      <c r="D226" s="68"/>
+      <c r="E226" s="68"/>
+      <c r="F226" s="68"/>
+      <c r="G226" s="69"/>
+      <c r="H226" s="69"/>
       <c r="I226" s="7"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
@@ -9715,16 +9714,16 @@
       <c r="R232" s="1"/>
     </row>
     <row r="233" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A233" s="71" t="s">
+      <c r="A233" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="B233" s="72"/>
-      <c r="C233" s="73"/>
-      <c r="D233" s="73"/>
-      <c r="E233" s="73"/>
-      <c r="F233" s="73"/>
-      <c r="G233" s="70"/>
-      <c r="H233" s="70"/>
+      <c r="B233" s="71"/>
+      <c r="C233" s="72"/>
+      <c r="D233" s="72"/>
+      <c r="E233" s="72"/>
+      <c r="F233" s="72"/>
+      <c r="G233" s="69"/>
+      <c r="H233" s="69"/>
       <c r="I233" s="7"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
@@ -9737,16 +9736,16 @@
       <c r="R233" s="1"/>
     </row>
     <row r="234" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="74" t="s">
+      <c r="A234" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="B234" s="75"/>
-      <c r="C234" s="76"/>
-      <c r="D234" s="76"/>
-      <c r="E234" s="76"/>
-      <c r="F234" s="76"/>
-      <c r="G234" s="70"/>
-      <c r="H234" s="70"/>
+      <c r="B234" s="74"/>
+      <c r="C234" s="75"/>
+      <c r="D234" s="75"/>
+      <c r="E234" s="75"/>
+      <c r="F234" s="75"/>
+      <c r="G234" s="69"/>
+      <c r="H234" s="69"/>
       <c r="I234" s="7"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
@@ -9881,16 +9880,16 @@
       <c r="R240" s="1"/>
     </row>
     <row r="241" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="74" t="s">
+      <c r="A241" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="B241" s="77"/>
-      <c r="C241" s="78"/>
-      <c r="D241" s="78"/>
-      <c r="E241" s="78"/>
-      <c r="F241" s="78"/>
-      <c r="G241" s="70"/>
-      <c r="H241" s="70"/>
+      <c r="B241" s="76"/>
+      <c r="C241" s="77"/>
+      <c r="D241" s="77"/>
+      <c r="E241" s="77"/>
+      <c r="F241" s="77"/>
+      <c r="G241" s="69"/>
+      <c r="H241" s="69"/>
       <c r="I241" s="7"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
@@ -10025,16 +10024,16 @@
       <c r="R247" s="1"/>
     </row>
     <row r="248" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="74" t="s">
+      <c r="A248" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="B248" s="78"/>
-      <c r="C248" s="78"/>
-      <c r="D248" s="78"/>
-      <c r="E248" s="78"/>
-      <c r="F248" s="78"/>
-      <c r="G248" s="70"/>
-      <c r="H248" s="70"/>
+      <c r="B248" s="77"/>
+      <c r="C248" s="77"/>
+      <c r="D248" s="77"/>
+      <c r="E248" s="77"/>
+      <c r="F248" s="77"/>
+      <c r="G248" s="69"/>
+      <c r="H248" s="69"/>
       <c r="I248" s="7"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
@@ -10169,16 +10168,16 @@
       <c r="R254" s="1"/>
     </row>
     <row r="255" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="74" t="s">
+      <c r="A255" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="B255" s="78"/>
-      <c r="C255" s="78"/>
-      <c r="D255" s="78"/>
-      <c r="E255" s="78"/>
-      <c r="F255" s="78"/>
-      <c r="G255" s="70"/>
-      <c r="H255" s="70"/>
+      <c r="B255" s="77"/>
+      <c r="C255" s="77"/>
+      <c r="D255" s="77"/>
+      <c r="E255" s="77"/>
+      <c r="F255" s="77"/>
+      <c r="G255" s="69"/>
+      <c r="H255" s="69"/>
       <c r="I255" s="7"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
@@ -10313,16 +10312,16 @@
       <c r="R261" s="1"/>
     </row>
     <row r="262" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="74" t="s">
+      <c r="A262" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="B262" s="78"/>
-      <c r="C262" s="78"/>
-      <c r="D262" s="78"/>
-      <c r="E262" s="78"/>
-      <c r="F262" s="78"/>
-      <c r="G262" s="70"/>
-      <c r="H262" s="70"/>
+      <c r="B262" s="77"/>
+      <c r="C262" s="77"/>
+      <c r="D262" s="77"/>
+      <c r="E262" s="77"/>
+      <c r="F262" s="77"/>
+      <c r="G262" s="69"/>
+      <c r="H262" s="69"/>
       <c r="I262" s="7"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
@@ -10457,16 +10456,16 @@
       <c r="R268" s="1"/>
     </row>
     <row r="269" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="74" t="s">
+      <c r="A269" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="B269" s="78"/>
-      <c r="C269" s="78"/>
-      <c r="D269" s="78"/>
-      <c r="E269" s="78"/>
-      <c r="F269" s="78"/>
-      <c r="G269" s="70"/>
-      <c r="H269" s="70"/>
+      <c r="B269" s="77"/>
+      <c r="C269" s="77"/>
+      <c r="D269" s="77"/>
+      <c r="E269" s="77"/>
+      <c r="F269" s="77"/>
+      <c r="G269" s="69"/>
+      <c r="H269" s="69"/>
       <c r="I269" s="7"/>
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
@@ -10601,16 +10600,16 @@
       <c r="R275" s="1"/>
     </row>
     <row r="276" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="74" t="s">
+      <c r="A276" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="B276" s="78"/>
-      <c r="C276" s="78"/>
-      <c r="D276" s="78"/>
-      <c r="E276" s="78"/>
-      <c r="F276" s="78"/>
-      <c r="G276" s="70"/>
-      <c r="H276" s="70"/>
+      <c r="B276" s="77"/>
+      <c r="C276" s="77"/>
+      <c r="D276" s="77"/>
+      <c r="E276" s="77"/>
+      <c r="F276" s="77"/>
+      <c r="G276" s="69"/>
+      <c r="H276" s="69"/>
       <c r="I276" s="7"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
@@ -10745,16 +10744,16 @@
       <c r="R282" s="1"/>
     </row>
     <row r="283" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="74" t="s">
+      <c r="A283" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="B283" s="78"/>
-      <c r="C283" s="78"/>
-      <c r="D283" s="78"/>
-      <c r="E283" s="78"/>
-      <c r="F283" s="78"/>
-      <c r="G283" s="70"/>
-      <c r="H283" s="70"/>
+      <c r="B283" s="77"/>
+      <c r="C283" s="77"/>
+      <c r="D283" s="77"/>
+      <c r="E283" s="77"/>
+      <c r="F283" s="77"/>
+      <c r="G283" s="69"/>
+      <c r="H283" s="69"/>
       <c r="I283" s="7"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
@@ -10889,16 +10888,16 @@
       <c r="R289" s="1"/>
     </row>
     <row r="290" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="74" t="s">
+      <c r="A290" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="B290" s="78"/>
-      <c r="C290" s="78"/>
-      <c r="D290" s="78"/>
-      <c r="E290" s="78"/>
-      <c r="F290" s="78"/>
-      <c r="G290" s="70"/>
-      <c r="H290" s="70"/>
+      <c r="B290" s="77"/>
+      <c r="C290" s="77"/>
+      <c r="D290" s="77"/>
+      <c r="E290" s="77"/>
+      <c r="F290" s="77"/>
+      <c r="G290" s="69"/>
+      <c r="H290" s="69"/>
       <c r="I290" s="7"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
@@ -11033,16 +11032,16 @@
       <c r="R296" s="1"/>
     </row>
     <row r="297" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="74" t="s">
+      <c r="A297" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="B297" s="78"/>
-      <c r="C297" s="78"/>
-      <c r="D297" s="78"/>
-      <c r="E297" s="78"/>
-      <c r="F297" s="78"/>
-      <c r="G297" s="70"/>
-      <c r="H297" s="70"/>
+      <c r="B297" s="77"/>
+      <c r="C297" s="77"/>
+      <c r="D297" s="77"/>
+      <c r="E297" s="77"/>
+      <c r="F297" s="77"/>
+      <c r="G297" s="69"/>
+      <c r="H297" s="69"/>
       <c r="I297" s="7"/>
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
@@ -11177,16 +11176,16 @@
       <c r="R303" s="1"/>
     </row>
     <row r="304" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="74" t="s">
+      <c r="A304" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="B304" s="78"/>
-      <c r="C304" s="78"/>
-      <c r="D304" s="78"/>
-      <c r="E304" s="78"/>
-      <c r="F304" s="78"/>
-      <c r="G304" s="70"/>
-      <c r="H304" s="70"/>
+      <c r="B304" s="77"/>
+      <c r="C304" s="77"/>
+      <c r="D304" s="77"/>
+      <c r="E304" s="77"/>
+      <c r="F304" s="77"/>
+      <c r="G304" s="69"/>
+      <c r="H304" s="69"/>
       <c r="I304" s="7"/>
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
@@ -11321,16 +11320,16 @@
       <c r="R310" s="1"/>
     </row>
     <row r="311" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="74" t="s">
+      <c r="A311" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="B311" s="78"/>
-      <c r="C311" s="78"/>
-      <c r="D311" s="78"/>
-      <c r="E311" s="78"/>
-      <c r="F311" s="78"/>
-      <c r="G311" s="70"/>
-      <c r="H311" s="70"/>
+      <c r="B311" s="77"/>
+      <c r="C311" s="77"/>
+      <c r="D311" s="77"/>
+      <c r="E311" s="77"/>
+      <c r="F311" s="77"/>
+      <c r="G311" s="69"/>
+      <c r="H311" s="69"/>
       <c r="I311" s="7"/>
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
@@ -11465,16 +11464,16 @@
       <c r="R317" s="1"/>
     </row>
     <row r="318" spans="1:18" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="74" t="s">
+      <c r="A318" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="B318" s="78"/>
-      <c r="C318" s="78"/>
-      <c r="D318" s="78"/>
-      <c r="E318" s="78"/>
-      <c r="F318" s="78"/>
-      <c r="G318" s="70"/>
-      <c r="H318" s="70"/>
+      <c r="B318" s="77"/>
+      <c r="C318" s="77"/>
+      <c r="D318" s="77"/>
+      <c r="E318" s="77"/>
+      <c r="F318" s="77"/>
+      <c r="G318" s="69"/>
+      <c r="H318" s="69"/>
       <c r="I318" s="7"/>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>

--- a/PLA-Planilha de Avaliação .xlsx
+++ b/PLA-Planilha de Avaliação .xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="104">
   <si>
     <t>INSTRUÇÕES</t>
   </si>
@@ -73,9 +73,6 @@
   <si>
     <t>GPR 1. O escopo do trabalho para o projeto é definido.
 As evidências apresentadas para este resultado permitem assegurar que o escopo do projeto foi definido?</t>
-  </si>
-  <si>
-    <t>Plano de Projeto Seção 4</t>
   </si>
   <si>
     <t>Plano de Projeto</t>
@@ -382,6 +379,9 @@
   </si>
   <si>
     <t>CheckList Planos</t>
+  </si>
+  <si>
+    <t>Plano de Projeto Seção 5</t>
   </si>
 </sst>
 </file>
@@ -930,7 +930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1004,9 +1004,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1530,7 +1527,7 @@
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="10"/>
@@ -1546,8 +1543,8 @@
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="34" t="s">
-        <v>22</v>
+      <c r="B6" s="33" t="s">
+        <v>21</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -1562,8 +1559,8 @@
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="B7" s="34" t="s">
-        <v>23</v>
+      <c r="B7" s="33" t="s">
+        <v>22</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1578,8 +1575,8 @@
     </row>
     <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
-      <c r="B8" s="34" t="s">
-        <v>24</v>
+      <c r="B8" s="33" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1594,8 +1591,8 @@
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="B9" s="34" t="s">
-        <v>25</v>
+      <c r="B9" s="33" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -1610,8 +1607,8 @@
     </row>
     <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
-      <c r="B10" s="34" t="s">
-        <v>26</v>
+      <c r="B10" s="33" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1626,8 +1623,8 @@
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="B11" s="34" t="s">
-        <v>27</v>
+      <c r="B11" s="33" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1642,8 +1639,8 @@
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
-      <c r="B12" s="36" t="s">
-        <v>28</v>
+      <c r="B12" s="35" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1672,7 +1669,7 @@
     </row>
     <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="37"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1686,7 +1683,7 @@
     </row>
     <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="37"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1700,7 +1697,7 @@
     </row>
     <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="37"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1714,7 +1711,7 @@
     </row>
     <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="37"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1728,7 +1725,7 @@
     </row>
     <row r="18" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="37"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1742,7 +1739,7 @@
     </row>
     <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="37"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1873,15 +1870,15 @@
     </row>
     <row r="4" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
+        <v>30</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="7"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1895,15 +1892,15 @@
     </row>
     <row r="5" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
+        <v>33</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="7"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1917,16 +1914,16 @@
     </row>
     <row r="6" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="81" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="78"/>
+        <v>94</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="78"/>
+      <c r="D6" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="77"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -1942,15 +1939,15 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="C7" s="78"/>
+      <c r="D7" s="81" t="s">
         <v>97</v>
-      </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="82" t="s">
-        <v>98</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
@@ -1968,7 +1965,7 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -1988,7 +1985,7 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -2008,7 +2005,7 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -2028,16 +2025,16 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="7"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2051,15 +2048,15 @@
     </row>
     <row r="12" spans="1:18" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="7"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2072,17 +2069,17 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="79"/>
-      <c r="D13" s="81" t="s">
+      <c r="A13" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="78"/>
+      <c r="B13" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="78"/>
+      <c r="D13" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="77"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -2098,15 +2095,15 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="83" t="s">
-        <v>101</v>
+      <c r="A14" s="82" t="s">
+        <v>100</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="81" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="C14" s="78"/>
+      <c r="D14" s="80" t="s">
+        <v>97</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
@@ -2124,7 +2121,7 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -2144,7 +2141,7 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -2164,7 +2161,7 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -2184,16 +2181,16 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
       <c r="I18" s="7"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2207,15 +2204,15 @@
     </row>
     <row r="19" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
+        <v>50</v>
+      </c>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="7"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2229,16 +2226,16 @@
     </row>
     <row r="20" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="81" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="77"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
@@ -2256,8 +2253,8 @@
     <row r="21" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="84"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="83"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
@@ -2274,7 +2271,7 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -2294,7 +2291,7 @@
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -2314,7 +2311,7 @@
       <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -2334,16 +2331,16 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
       <c r="I25" s="7"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2357,15 +2354,15 @@
     </row>
     <row r="26" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+        <v>56</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="7"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2379,16 +2376,16 @@
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="78"/>
+      <c r="D27" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="77"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -2404,7 +2401,7 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -2424,7 +2421,7 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -2444,7 +2441,7 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -2464,7 +2461,7 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -2484,16 +2481,16 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="32"/>
       <c r="I32" s="7"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2507,15 +2504,15 @@
     </row>
     <row r="33" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
+        <v>58</v>
+      </c>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
       <c r="I33" s="7"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2529,16 +2526,16 @@
     </row>
     <row r="34" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>60</v>
+        <v>48</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>59</v>
       </c>
       <c r="C34" s="25"/>
-      <c r="D34" s="85" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="86"/>
+      <c r="D34" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="85"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
@@ -2555,7 +2552,7 @@
     </row>
     <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
-      <c r="B35" s="45"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
@@ -2574,7 +2571,7 @@
       <c r="R35" s="1"/>
     </row>
     <row r="36" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -2594,7 +2591,7 @@
       <c r="R36" s="1"/>
     </row>
     <row r="37" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -2614,7 +2611,7 @@
       <c r="R37" s="1"/>
     </row>
     <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -2634,16 +2631,16 @@
       <c r="R38" s="1"/>
     </row>
     <row r="39" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
-      <c r="B39" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="51"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
       <c r="I39" s="7"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2656,14 +2653,14 @@
       <c r="R39" s="1"/>
     </row>
     <row r="40" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="52"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
       <c r="I40" s="7"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2676,16 +2673,16 @@
       <c r="R40" s="1"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="57"/>
+      <c r="A41" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="56"/>
       <c r="I41" s="7"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2698,16 +2695,16 @@
       <c r="R41" s="1"/>
     </row>
     <row r="42" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="58" t="s">
+      <c r="A42" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="61"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="60"/>
       <c r="I42" s="7"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2720,16 +2717,16 @@
       <c r="R42" s="1"/>
     </row>
     <row r="43" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
+      <c r="A43" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="62"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
       <c r="I43" s="7"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2742,16 +2739,16 @@
       <c r="R43" s="1"/>
     </row>
     <row r="44" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="67"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
+      <c r="A44" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="66"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
       <c r="I44" s="7"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2764,7 +2761,7 @@
       <c r="R44" s="1"/>
     </row>
     <row r="45" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
+      <c r="A45" s="27"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -2784,7 +2781,7 @@
       <c r="R45" s="1"/>
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
+      <c r="A46" s="27"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -2804,7 +2801,7 @@
       <c r="R46" s="1"/>
     </row>
     <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
+      <c r="A47" s="27"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -2824,7 +2821,7 @@
       <c r="R47" s="1"/>
     </row>
     <row r="48" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
+      <c r="A48" s="27"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -2844,7 +2841,7 @@
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
+      <c r="A49" s="27"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -2864,16 +2861,16 @@
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
-      <c r="B50" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="33"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="32"/>
       <c r="I50" s="7"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -2886,16 +2883,16 @@
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="71"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
+      <c r="A51" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="70"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
       <c r="I51" s="7"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -2908,16 +2905,16 @@
       <c r="R51" s="1"/>
     </row>
     <row r="52" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="74"/>
-      <c r="C52" s="75"/>
-      <c r="D52" s="75"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
+      <c r="A52" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="73"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
       <c r="I52" s="7"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -2930,7 +2927,7 @@
       <c r="R52" s="1"/>
     </row>
     <row r="53" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="28"/>
+      <c r="A53" s="27"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -2950,7 +2947,7 @@
       <c r="R53" s="1"/>
     </row>
     <row r="54" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="28"/>
+      <c r="A54" s="27"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -2970,7 +2967,7 @@
       <c r="R54" s="1"/>
     </row>
     <row r="55" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="28"/>
+      <c r="A55" s="27"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -2990,7 +2987,7 @@
       <c r="R55" s="1"/>
     </row>
     <row r="56" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="28"/>
+      <c r="A56" s="27"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -3010,7 +3007,7 @@
       <c r="R56" s="1"/>
     </row>
     <row r="57" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="28"/>
+      <c r="A57" s="27"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -3030,16 +3027,16 @@
       <c r="R57" s="1"/>
     </row>
     <row r="58" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="28"/>
-      <c r="B58" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="33"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="32"/>
       <c r="I58" s="7"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3052,16 +3049,16 @@
       <c r="R58" s="1"/>
     </row>
     <row r="59" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="B59" s="76"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
+      <c r="A59" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="75"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
       <c r="I59" s="7"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -3074,7 +3071,7 @@
       <c r="R59" s="1"/>
     </row>
     <row r="60" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -3094,7 +3091,7 @@
       <c r="R60" s="1"/>
     </row>
     <row r="61" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -3114,7 +3111,7 @@
       <c r="R61" s="1"/>
     </row>
     <row r="62" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="28"/>
+      <c r="A62" s="27"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -3134,7 +3131,7 @@
       <c r="R62" s="1"/>
     </row>
     <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="28"/>
+      <c r="A63" s="27"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -3154,7 +3151,7 @@
       <c r="R63" s="1"/>
     </row>
     <row r="64" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="28"/>
+      <c r="A64" s="27"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -3174,16 +3171,16 @@
       <c r="R64" s="1"/>
     </row>
     <row r="65" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="28"/>
-      <c r="B65" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="33"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="32"/>
       <c r="I65" s="7"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -3196,16 +3193,16 @@
       <c r="R65" s="1"/>
     </row>
     <row r="66" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="B66" s="77"/>
-      <c r="C66" s="77"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="69"/>
-      <c r="H66" s="69"/>
+      <c r="A66" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="76"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="68"/>
       <c r="I66" s="7"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3218,7 +3215,7 @@
       <c r="R66" s="1"/>
     </row>
     <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="28"/>
+      <c r="A67" s="27"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -3238,7 +3235,7 @@
       <c r="R67" s="1"/>
     </row>
     <row r="68" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="28"/>
+      <c r="A68" s="27"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -3258,7 +3255,7 @@
       <c r="R68" s="1"/>
     </row>
     <row r="69" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="28"/>
+      <c r="A69" s="27"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -3278,7 +3275,7 @@
       <c r="R69" s="1"/>
     </row>
     <row r="70" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="28"/>
+      <c r="A70" s="27"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -3298,7 +3295,7 @@
       <c r="R70" s="1"/>
     </row>
     <row r="71" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="28"/>
+      <c r="A71" s="27"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -3318,16 +3315,16 @@
       <c r="R71" s="1"/>
     </row>
     <row r="72" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="28"/>
-      <c r="B72" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="33"/>
+      <c r="A72" s="27"/>
+      <c r="B72" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="32"/>
       <c r="I72" s="7"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -3340,16 +3337,16 @@
       <c r="R72" s="1"/>
     </row>
     <row r="73" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="B73" s="77"/>
-      <c r="C73" s="77"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="69"/>
-      <c r="H73" s="69"/>
+      <c r="A73" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="76"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="76"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="76"/>
+      <c r="G73" s="68"/>
+      <c r="H73" s="68"/>
       <c r="I73" s="7"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -3362,7 +3359,7 @@
       <c r="R73" s="1"/>
     </row>
     <row r="74" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="28"/>
+      <c r="A74" s="27"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -3382,7 +3379,7 @@
       <c r="R74" s="1"/>
     </row>
     <row r="75" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="28"/>
+      <c r="A75" s="27"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -3402,7 +3399,7 @@
       <c r="R75" s="1"/>
     </row>
     <row r="76" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="28"/>
+      <c r="A76" s="27"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -3422,7 +3419,7 @@
       <c r="R76" s="1"/>
     </row>
     <row r="77" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="28"/>
+      <c r="A77" s="27"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -3442,7 +3439,7 @@
       <c r="R77" s="1"/>
     </row>
     <row r="78" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="28"/>
+      <c r="A78" s="27"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -3462,16 +3459,16 @@
       <c r="R78" s="1"/>
     </row>
     <row r="79" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="28"/>
-      <c r="B79" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="33"/>
+      <c r="A79" s="27"/>
+      <c r="B79" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="32"/>
       <c r="I79" s="7"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -3484,16 +3481,16 @@
       <c r="R79" s="1"/>
     </row>
     <row r="80" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="B80" s="77"/>
-      <c r="C80" s="77"/>
-      <c r="D80" s="77"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="77"/>
-      <c r="G80" s="69"/>
-      <c r="H80" s="69"/>
+      <c r="A80" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" s="76"/>
+      <c r="C80" s="76"/>
+      <c r="D80" s="76"/>
+      <c r="E80" s="76"/>
+      <c r="F80" s="76"/>
+      <c r="G80" s="68"/>
+      <c r="H80" s="68"/>
       <c r="I80" s="7"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -3506,7 +3503,7 @@
       <c r="R80" s="1"/>
     </row>
     <row r="81" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="28"/>
+      <c r="A81" s="27"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -3526,7 +3523,7 @@
       <c r="R81" s="1"/>
     </row>
     <row r="82" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="28"/>
+      <c r="A82" s="27"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -3546,7 +3543,7 @@
       <c r="R82" s="1"/>
     </row>
     <row r="83" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="28"/>
+      <c r="A83" s="27"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
       <c r="D83" s="25"/>
@@ -3566,7 +3563,7 @@
       <c r="R83" s="1"/>
     </row>
     <row r="84" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="28"/>
+      <c r="A84" s="27"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
       <c r="D84" s="25"/>
@@ -3586,7 +3583,7 @@
       <c r="R84" s="1"/>
     </row>
     <row r="85" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="28"/>
+      <c r="A85" s="27"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
       <c r="D85" s="25"/>
@@ -3606,16 +3603,16 @@
       <c r="R85" s="1"/>
     </row>
     <row r="86" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="28"/>
-      <c r="B86" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="33"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="32"/>
       <c r="I86" s="7"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -3628,16 +3625,16 @@
       <c r="R86" s="1"/>
     </row>
     <row r="87" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" s="77"/>
-      <c r="C87" s="77"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="77"/>
-      <c r="G87" s="69"/>
-      <c r="H87" s="69"/>
+      <c r="A87" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="76"/>
+      <c r="C87" s="76"/>
+      <c r="D87" s="76"/>
+      <c r="E87" s="76"/>
+      <c r="F87" s="76"/>
+      <c r="G87" s="68"/>
+      <c r="H87" s="68"/>
       <c r="I87" s="7"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -3650,7 +3647,7 @@
       <c r="R87" s="1"/>
     </row>
     <row r="88" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="28"/>
+      <c r="A88" s="27"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
       <c r="D88" s="25"/>
@@ -3670,7 +3667,7 @@
       <c r="R88" s="1"/>
     </row>
     <row r="89" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="28"/>
+      <c r="A89" s="27"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
       <c r="D89" s="25"/>
@@ -3690,7 +3687,7 @@
       <c r="R89" s="1"/>
     </row>
     <row r="90" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="28"/>
+      <c r="A90" s="27"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
       <c r="D90" s="25"/>
@@ -3710,7 +3707,7 @@
       <c r="R90" s="1"/>
     </row>
     <row r="91" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="28"/>
+      <c r="A91" s="27"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
       <c r="D91" s="25"/>
@@ -3730,7 +3727,7 @@
       <c r="R91" s="1"/>
     </row>
     <row r="92" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="28"/>
+      <c r="A92" s="27"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
       <c r="D92" s="25"/>
@@ -3750,16 +3747,16 @@
       <c r="R92" s="1"/>
     </row>
     <row r="93" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="28"/>
-      <c r="B93" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="33"/>
+      <c r="A93" s="27"/>
+      <c r="B93" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="32"/>
       <c r="I93" s="7"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -3772,16 +3769,16 @@
       <c r="R93" s="1"/>
     </row>
     <row r="94" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="B94" s="77"/>
-      <c r="C94" s="77"/>
-      <c r="D94" s="77"/>
-      <c r="E94" s="77"/>
-      <c r="F94" s="77"/>
-      <c r="G94" s="69"/>
-      <c r="H94" s="69"/>
+      <c r="A94" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B94" s="76"/>
+      <c r="C94" s="76"/>
+      <c r="D94" s="76"/>
+      <c r="E94" s="76"/>
+      <c r="F94" s="76"/>
+      <c r="G94" s="68"/>
+      <c r="H94" s="68"/>
       <c r="I94" s="7"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -3794,7 +3791,7 @@
       <c r="R94" s="1"/>
     </row>
     <row r="95" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="28"/>
+      <c r="A95" s="27"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
       <c r="D95" s="25"/>
@@ -3814,7 +3811,7 @@
       <c r="R95" s="1"/>
     </row>
     <row r="96" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="28"/>
+      <c r="A96" s="27"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
       <c r="D96" s="25"/>
@@ -3834,7 +3831,7 @@
       <c r="R96" s="1"/>
     </row>
     <row r="97" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="28"/>
+      <c r="A97" s="27"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
       <c r="D97" s="25"/>
@@ -3854,7 +3851,7 @@
       <c r="R97" s="1"/>
     </row>
     <row r="98" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="28"/>
+      <c r="A98" s="27"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
       <c r="D98" s="25"/>
@@ -3874,7 +3871,7 @@
       <c r="R98" s="1"/>
     </row>
     <row r="99" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="28"/>
+      <c r="A99" s="27"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
       <c r="D99" s="25"/>
@@ -3894,16 +3891,16 @@
       <c r="R99" s="1"/>
     </row>
     <row r="100" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="28"/>
-      <c r="B100" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="31"/>
-      <c r="G100" s="32"/>
-      <c r="H100" s="33"/>
+      <c r="A100" s="27"/>
+      <c r="B100" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="32"/>
       <c r="I100" s="7"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -3916,16 +3913,16 @@
       <c r="R100" s="1"/>
     </row>
     <row r="101" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="B101" s="77"/>
-      <c r="C101" s="77"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="77"/>
-      <c r="G101" s="69"/>
-      <c r="H101" s="69"/>
+      <c r="A101" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101" s="76"/>
+      <c r="C101" s="76"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="76"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="68"/>
+      <c r="H101" s="68"/>
       <c r="I101" s="7"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -3938,7 +3935,7 @@
       <c r="R101" s="1"/>
     </row>
     <row r="102" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="28"/>
+      <c r="A102" s="27"/>
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
       <c r="D102" s="25"/>
@@ -3958,7 +3955,7 @@
       <c r="R102" s="1"/>
     </row>
     <row r="103" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="28"/>
+      <c r="A103" s="27"/>
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>
       <c r="D103" s="25"/>
@@ -3978,7 +3975,7 @@
       <c r="R103" s="1"/>
     </row>
     <row r="104" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="28"/>
+      <c r="A104" s="27"/>
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
       <c r="D104" s="25"/>
@@ -3998,7 +3995,7 @@
       <c r="R104" s="1"/>
     </row>
     <row r="105" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="28"/>
+      <c r="A105" s="27"/>
       <c r="B105" s="25"/>
       <c r="C105" s="25"/>
       <c r="D105" s="25"/>
@@ -4018,7 +4015,7 @@
       <c r="R105" s="1"/>
     </row>
     <row r="106" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="28"/>
+      <c r="A106" s="27"/>
       <c r="B106" s="25"/>
       <c r="C106" s="25"/>
       <c r="D106" s="25"/>
@@ -4038,16 +4035,16 @@
       <c r="R106" s="1"/>
     </row>
     <row r="107" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="28"/>
-      <c r="B107" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="33"/>
+      <c r="A107" s="27"/>
+      <c r="B107" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="32"/>
       <c r="I107" s="7"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -4060,16 +4057,16 @@
       <c r="R107" s="1"/>
     </row>
     <row r="108" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="B108" s="77"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77"/>
-      <c r="G108" s="69"/>
-      <c r="H108" s="69"/>
+      <c r="A108" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B108" s="76"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="68"/>
+      <c r="H108" s="68"/>
       <c r="I108" s="7"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -4082,7 +4079,7 @@
       <c r="R108" s="1"/>
     </row>
     <row r="109" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="28"/>
+      <c r="A109" s="27"/>
       <c r="B109" s="25"/>
       <c r="C109" s="25"/>
       <c r="D109" s="25"/>
@@ -4102,7 +4099,7 @@
       <c r="R109" s="1"/>
     </row>
     <row r="110" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="28"/>
+      <c r="A110" s="27"/>
       <c r="B110" s="25"/>
       <c r="C110" s="25"/>
       <c r="D110" s="25"/>
@@ -4122,7 +4119,7 @@
       <c r="R110" s="1"/>
     </row>
     <row r="111" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="28"/>
+      <c r="A111" s="27"/>
       <c r="B111" s="25"/>
       <c r="C111" s="25"/>
       <c r="D111" s="25"/>
@@ -4142,7 +4139,7 @@
       <c r="R111" s="1"/>
     </row>
     <row r="112" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="28"/>
+      <c r="A112" s="27"/>
       <c r="B112" s="25"/>
       <c r="C112" s="25"/>
       <c r="D112" s="25"/>
@@ -4162,7 +4159,7 @@
       <c r="R112" s="1"/>
     </row>
     <row r="113" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="28"/>
+      <c r="A113" s="27"/>
       <c r="B113" s="25"/>
       <c r="C113" s="25"/>
       <c r="D113" s="25"/>
@@ -4182,16 +4179,16 @@
       <c r="R113" s="1"/>
     </row>
     <row r="114" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="28"/>
-      <c r="B114" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C114" s="31"/>
-      <c r="D114" s="31"/>
-      <c r="E114" s="31"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="32"/>
-      <c r="H114" s="33"/>
+      <c r="A114" s="27"/>
+      <c r="B114" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="32"/>
       <c r="I114" s="7"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -4204,16 +4201,16 @@
       <c r="R114" s="1"/>
     </row>
     <row r="115" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="B115" s="77"/>
-      <c r="C115" s="77"/>
-      <c r="D115" s="77"/>
-      <c r="E115" s="77"/>
-      <c r="F115" s="77"/>
-      <c r="G115" s="69"/>
-      <c r="H115" s="69"/>
+      <c r="A115" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B115" s="76"/>
+      <c r="C115" s="76"/>
+      <c r="D115" s="76"/>
+      <c r="E115" s="76"/>
+      <c r="F115" s="76"/>
+      <c r="G115" s="68"/>
+      <c r="H115" s="68"/>
       <c r="I115" s="7"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -4226,7 +4223,7 @@
       <c r="R115" s="1"/>
     </row>
     <row r="116" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="28"/>
+      <c r="A116" s="27"/>
       <c r="B116" s="25"/>
       <c r="C116" s="25"/>
       <c r="D116" s="25"/>
@@ -4246,7 +4243,7 @@
       <c r="R116" s="1"/>
     </row>
     <row r="117" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="28"/>
+      <c r="A117" s="27"/>
       <c r="B117" s="25"/>
       <c r="C117" s="25"/>
       <c r="D117" s="25"/>
@@ -4266,7 +4263,7 @@
       <c r="R117" s="1"/>
     </row>
     <row r="118" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="28"/>
+      <c r="A118" s="27"/>
       <c r="B118" s="25"/>
       <c r="C118" s="25"/>
       <c r="D118" s="25"/>
@@ -4286,7 +4283,7 @@
       <c r="R118" s="1"/>
     </row>
     <row r="119" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="28"/>
+      <c r="A119" s="27"/>
       <c r="B119" s="25"/>
       <c r="C119" s="25"/>
       <c r="D119" s="25"/>
@@ -4306,7 +4303,7 @@
       <c r="R119" s="1"/>
     </row>
     <row r="120" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="28"/>
+      <c r="A120" s="27"/>
       <c r="B120" s="25"/>
       <c r="C120" s="25"/>
       <c r="D120" s="25"/>
@@ -4326,16 +4323,16 @@
       <c r="R120" s="1"/>
     </row>
     <row r="121" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="28"/>
-      <c r="B121" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C121" s="31"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="32"/>
-      <c r="H121" s="33"/>
+      <c r="A121" s="27"/>
+      <c r="B121" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="32"/>
       <c r="I121" s="7"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
@@ -4348,16 +4345,16 @@
       <c r="R121" s="1"/>
     </row>
     <row r="122" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="B122" s="77"/>
-      <c r="C122" s="77"/>
-      <c r="D122" s="77"/>
-      <c r="E122" s="77"/>
-      <c r="F122" s="77"/>
-      <c r="G122" s="69"/>
-      <c r="H122" s="69"/>
+      <c r="A122" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B122" s="76"/>
+      <c r="C122" s="76"/>
+      <c r="D122" s="76"/>
+      <c r="E122" s="76"/>
+      <c r="F122" s="76"/>
+      <c r="G122" s="68"/>
+      <c r="H122" s="68"/>
       <c r="I122" s="7"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
@@ -4370,7 +4367,7 @@
       <c r="R122" s="1"/>
     </row>
     <row r="123" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="28"/>
+      <c r="A123" s="27"/>
       <c r="B123" s="25"/>
       <c r="C123" s="25"/>
       <c r="D123" s="25"/>
@@ -4390,7 +4387,7 @@
       <c r="R123" s="1"/>
     </row>
     <row r="124" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="28"/>
+      <c r="A124" s="27"/>
       <c r="B124" s="25"/>
       <c r="C124" s="25"/>
       <c r="D124" s="25"/>
@@ -4410,7 +4407,7 @@
       <c r="R124" s="1"/>
     </row>
     <row r="125" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="28"/>
+      <c r="A125" s="27"/>
       <c r="B125" s="25"/>
       <c r="C125" s="25"/>
       <c r="D125" s="25"/>
@@ -4430,7 +4427,7 @@
       <c r="R125" s="1"/>
     </row>
     <row r="126" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="28"/>
+      <c r="A126" s="27"/>
       <c r="B126" s="25"/>
       <c r="C126" s="25"/>
       <c r="D126" s="25"/>
@@ -4450,7 +4447,7 @@
       <c r="R126" s="1"/>
     </row>
     <row r="127" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="28"/>
+      <c r="A127" s="27"/>
       <c r="B127" s="25"/>
       <c r="C127" s="25"/>
       <c r="D127" s="25"/>
@@ -4470,16 +4467,16 @@
       <c r="R127" s="1"/>
     </row>
     <row r="128" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="28"/>
-      <c r="B128" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C128" s="31"/>
-      <c r="D128" s="31"/>
-      <c r="E128" s="31"/>
-      <c r="F128" s="31"/>
-      <c r="G128" s="32"/>
-      <c r="H128" s="33"/>
+      <c r="A128" s="27"/>
+      <c r="B128" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="30"/>
+      <c r="G128" s="31"/>
+      <c r="H128" s="32"/>
       <c r="I128" s="7"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
@@ -4492,16 +4489,16 @@
       <c r="R128" s="1"/>
     </row>
     <row r="129" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="B129" s="77"/>
-      <c r="C129" s="77"/>
-      <c r="D129" s="77"/>
-      <c r="E129" s="77"/>
-      <c r="F129" s="77"/>
-      <c r="G129" s="69"/>
-      <c r="H129" s="69"/>
+      <c r="A129" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="B129" s="76"/>
+      <c r="C129" s="76"/>
+      <c r="D129" s="76"/>
+      <c r="E129" s="76"/>
+      <c r="F129" s="76"/>
+      <c r="G129" s="68"/>
+      <c r="H129" s="68"/>
       <c r="I129" s="7"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
@@ -4514,7 +4511,7 @@
       <c r="R129" s="1"/>
     </row>
     <row r="130" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="28"/>
+      <c r="A130" s="27"/>
       <c r="B130" s="25"/>
       <c r="C130" s="25"/>
       <c r="D130" s="25"/>
@@ -4534,7 +4531,7 @@
       <c r="R130" s="1"/>
     </row>
     <row r="131" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="28"/>
+      <c r="A131" s="27"/>
       <c r="B131" s="25"/>
       <c r="C131" s="25"/>
       <c r="D131" s="25"/>
@@ -4554,7 +4551,7 @@
       <c r="R131" s="1"/>
     </row>
     <row r="132" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="28"/>
+      <c r="A132" s="27"/>
       <c r="B132" s="25"/>
       <c r="C132" s="25"/>
       <c r="D132" s="25"/>
@@ -4574,7 +4571,7 @@
       <c r="R132" s="1"/>
     </row>
     <row r="133" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="28"/>
+      <c r="A133" s="27"/>
       <c r="B133" s="25"/>
       <c r="C133" s="25"/>
       <c r="D133" s="25"/>
@@ -4594,7 +4591,7 @@
       <c r="R133" s="1"/>
     </row>
     <row r="134" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="28"/>
+      <c r="A134" s="27"/>
       <c r="B134" s="25"/>
       <c r="C134" s="25"/>
       <c r="D134" s="25"/>
@@ -4614,16 +4611,16 @@
       <c r="R134" s="1"/>
     </row>
     <row r="135" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="28"/>
-      <c r="B135" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C135" s="31"/>
-      <c r="D135" s="31"/>
-      <c r="E135" s="31"/>
-      <c r="F135" s="31"/>
-      <c r="G135" s="32"/>
-      <c r="H135" s="33"/>
+      <c r="A135" s="27"/>
+      <c r="B135" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" s="30"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="30"/>
+      <c r="G135" s="31"/>
+      <c r="H135" s="32"/>
       <c r="I135" s="7"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -4636,16 +4633,16 @@
       <c r="R135" s="1"/>
     </row>
     <row r="136" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="B136" s="77"/>
-      <c r="C136" s="77"/>
-      <c r="D136" s="77"/>
-      <c r="E136" s="77"/>
-      <c r="F136" s="77"/>
-      <c r="G136" s="69"/>
-      <c r="H136" s="69"/>
+      <c r="A136" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="B136" s="76"/>
+      <c r="C136" s="76"/>
+      <c r="D136" s="76"/>
+      <c r="E136" s="76"/>
+      <c r="F136" s="76"/>
+      <c r="G136" s="68"/>
+      <c r="H136" s="68"/>
       <c r="I136" s="7"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -4658,7 +4655,7 @@
       <c r="R136" s="1"/>
     </row>
     <row r="137" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="28"/>
+      <c r="A137" s="27"/>
       <c r="B137" s="25"/>
       <c r="C137" s="25"/>
       <c r="D137" s="25"/>
@@ -4678,7 +4675,7 @@
       <c r="R137" s="1"/>
     </row>
     <row r="138" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="28"/>
+      <c r="A138" s="27"/>
       <c r="B138" s="25"/>
       <c r="C138" s="25"/>
       <c r="D138" s="25"/>
@@ -4698,7 +4695,7 @@
       <c r="R138" s="1"/>
     </row>
     <row r="139" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="28"/>
+      <c r="A139" s="27"/>
       <c r="B139" s="25"/>
       <c r="C139" s="25"/>
       <c r="D139" s="25"/>
@@ -4718,7 +4715,7 @@
       <c r="R139" s="1"/>
     </row>
     <row r="140" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="28"/>
+      <c r="A140" s="27"/>
       <c r="B140" s="25"/>
       <c r="C140" s="25"/>
       <c r="D140" s="25"/>
@@ -4738,7 +4735,7 @@
       <c r="R140" s="1"/>
     </row>
     <row r="141" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="28"/>
+      <c r="A141" s="27"/>
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
       <c r="D141" s="25"/>
@@ -4758,16 +4755,16 @@
       <c r="R141" s="1"/>
     </row>
     <row r="142" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="28"/>
-      <c r="B142" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C142" s="31"/>
-      <c r="D142" s="31"/>
-      <c r="E142" s="31"/>
-      <c r="F142" s="31"/>
-      <c r="G142" s="32"/>
-      <c r="H142" s="33"/>
+      <c r="A142" s="27"/>
+      <c r="B142" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142" s="30"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="30"/>
+      <c r="G142" s="31"/>
+      <c r="H142" s="32"/>
       <c r="I142" s="7"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
@@ -4798,7 +4795,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R324"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4936,17 +4935,16 @@
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="26" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1/#heading=h.n5iz324zd76p","x")</f>
-        <v>x</v>
-      </c>
-      <c r="E6" s="27"/>
+      <c r="D6" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="77"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -4962,7 +4960,7 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -4982,7 +4980,7 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -5002,7 +5000,7 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -5022,7 +5020,7 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -5042,16 +5040,16 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="7"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -5065,7 +5063,7 @@
     </row>
     <row r="12" spans="1:18" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -5087,17 +5085,17 @@
     </row>
     <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1/#heading=h.pdmrbg6bicr7","x")</f>
         <v>x</v>
       </c>
-      <c r="E13" s="35"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -5113,7 +5111,7 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
@@ -5133,7 +5131,7 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -5153,7 +5151,7 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -5173,7 +5171,7 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -5193,16 +5191,16 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
       <c r="I18" s="7"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -5216,7 +5214,7 @@
     </row>
     <row r="19" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -5238,12 +5236,12 @@
     </row>
     <row r="20" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
-      <c r="E20" s="38"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
@@ -5259,7 +5257,7 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -5279,7 +5277,7 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -5299,7 +5297,7 @@
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -5319,7 +5317,7 @@
       <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -5339,16 +5337,16 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
       <c r="I25" s="7"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -5362,7 +5360,7 @@
     </row>
     <row r="26" spans="1:18" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -5384,17 +5382,17 @@
     </row>
     <row r="27" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="25"/>
       <c r="D27" s="26" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1vfETlzbkCwqKra6CKWoT61dP-rYr3j0QCKXAng5ih6A&amp;authuser=1","x")</f>
         <v>x</v>
       </c>
-      <c r="E27" s="38"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -5410,7 +5408,7 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -5430,7 +5428,7 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -5450,7 +5448,7 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -5470,7 +5468,7 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -5490,16 +5488,16 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="32"/>
       <c r="I32" s="7"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -5513,7 +5511,7 @@
     </row>
     <row r="33" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="22"/>
@@ -5535,7 +5533,7 @@
     </row>
     <row r="34" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -5556,7 +5554,7 @@
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -5576,7 +5574,7 @@
       <c r="R35" s="1"/>
     </row>
     <row r="36" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -5596,7 +5594,7 @@
       <c r="R36" s="1"/>
     </row>
     <row r="37" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -5616,7 +5614,7 @@
       <c r="R37" s="1"/>
     </row>
     <row r="38" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -5636,16 +5634,16 @@
       <c r="R38" s="1"/>
     </row>
     <row r="39" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="32"/>
       <c r="I39" s="7"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -5659,7 +5657,7 @@
     </row>
     <row r="40" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -5681,17 +5679,17 @@
     </row>
     <row r="41" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="26" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1dSfe8U3m82sh8eTreXsch_e-gteedhMAUBDve1W4JEI&amp;authuser=1","x")</f>
         <v>x</v>
       </c>
-      <c r="E41" s="38"/>
+      <c r="E41" s="37"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
@@ -5707,7 +5705,7 @@
       <c r="R41" s="1"/>
     </row>
     <row r="42" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -5727,7 +5725,7 @@
       <c r="R42" s="1"/>
     </row>
     <row r="43" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
+      <c r="A43" s="27"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -5747,7 +5745,7 @@
       <c r="R43" s="1"/>
     </row>
     <row r="44" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
+      <c r="A44" s="27"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -5767,7 +5765,7 @@
       <c r="R44" s="1"/>
     </row>
     <row r="45" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
+      <c r="A45" s="27"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -5787,16 +5785,16 @@
       <c r="R45" s="1"/>
     </row>
     <row r="46" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="29"/>
-      <c r="B46" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="32"/>
       <c r="I46" s="7"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -5810,7 +5808,7 @@
     </row>
     <row r="47" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -5832,17 +5830,17 @@
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="24" t="s">
         <v>40</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>41</v>
       </c>
       <c r="C48" s="25"/>
       <c r="D48" s="26" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1GynjhG2dFBfIGeXDx5XA0vWmVijelrFqO8jUd4g_pU0&amp;authuser=1","x")</f>
         <v>x</v>
       </c>
-      <c r="E48" s="35"/>
+      <c r="E48" s="34"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
@@ -5858,7 +5856,7 @@
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
+      <c r="A49" s="27"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -5878,7 +5876,7 @@
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
+      <c r="A50" s="27"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -5898,7 +5896,7 @@
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -5918,7 +5916,7 @@
       <c r="R51" s="1"/>
     </row>
     <row r="52" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="28"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -5938,16 +5936,16 @@
       <c r="R52" s="1"/>
     </row>
     <row r="53" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="29"/>
-      <c r="B53" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="33"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="32"/>
       <c r="I53" s="7"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -5959,9 +5957,9 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
     </row>
-    <row r="54" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
@@ -5983,17 +5981,17 @@
     </row>
     <row r="55" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C55" s="25"/>
       <c r="D55" s="26" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1/#heading=h.lz5z2m18x9hc","x")</f>
         <v>x</v>
       </c>
-      <c r="E55" s="38"/>
+      <c r="E55" s="37"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
@@ -6009,7 +6007,7 @@
       <c r="R55" s="1"/>
     </row>
     <row r="56" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="28"/>
+      <c r="A56" s="27"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -6029,7 +6027,7 @@
       <c r="R56" s="1"/>
     </row>
     <row r="57" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="28"/>
+      <c r="A57" s="27"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -6049,7 +6047,7 @@
       <c r="R57" s="1"/>
     </row>
     <row r="58" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="28"/>
+      <c r="A58" s="27"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -6069,7 +6067,7 @@
       <c r="R58" s="1"/>
     </row>
     <row r="59" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
+      <c r="A59" s="27"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -6089,16 +6087,16 @@
       <c r="R59" s="1"/>
     </row>
     <row r="60" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="29"/>
-      <c r="B60" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="33"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="32"/>
       <c r="I60" s="7"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -6110,9 +6108,9 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
     </row>
-    <row r="61" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="22"/>
@@ -6134,12 +6132,12 @@
     </row>
     <row r="62" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
-      <c r="E62" s="38"/>
+      <c r="E62" s="37"/>
       <c r="F62" s="25"/>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
@@ -6155,7 +6153,7 @@
       <c r="R62" s="1"/>
     </row>
     <row r="63" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="28"/>
+      <c r="A63" s="27"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -6175,7 +6173,7 @@
       <c r="R63" s="1"/>
     </row>
     <row r="64" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="28"/>
+      <c r="A64" s="27"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -6195,7 +6193,7 @@
       <c r="R64" s="1"/>
     </row>
     <row r="65" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="28"/>
+      <c r="A65" s="27"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -6215,7 +6213,7 @@
       <c r="R65" s="1"/>
     </row>
     <row r="66" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="28"/>
+      <c r="A66" s="27"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -6235,16 +6233,16 @@
       <c r="R66" s="1"/>
     </row>
     <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="29"/>
-      <c r="B67" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="33"/>
+      <c r="A67" s="28"/>
+      <c r="B67" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="32"/>
       <c r="I67" s="7"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -6256,9 +6254,9 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
     </row>
-    <row r="68" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="22"/>
@@ -6280,12 +6278,12 @@
     </row>
     <row r="69" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
-      <c r="E69" s="38"/>
+      <c r="E69" s="37"/>
       <c r="F69" s="25"/>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
@@ -6301,7 +6299,7 @@
       <c r="R69" s="1"/>
     </row>
     <row r="70" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="28"/>
+      <c r="A70" s="27"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -6321,7 +6319,7 @@
       <c r="R70" s="1"/>
     </row>
     <row r="71" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="28"/>
+      <c r="A71" s="27"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -6341,7 +6339,7 @@
       <c r="R71" s="1"/>
     </row>
     <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="28"/>
+      <c r="A72" s="27"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -6361,7 +6359,7 @@
       <c r="R72" s="1"/>
     </row>
     <row r="73" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="28"/>
+      <c r="A73" s="27"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -6381,16 +6379,16 @@
       <c r="R73" s="1"/>
     </row>
     <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="29"/>
-      <c r="B74" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="33"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="32"/>
       <c r="I74" s="7"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -6404,7 +6402,7 @@
     </row>
     <row r="75" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -6426,17 +6424,17 @@
     </row>
     <row r="76" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C76" s="25"/>
       <c r="D76" s="26" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1/#heading=h.tnnwjg1707az","x")</f>
         <v>x</v>
       </c>
-      <c r="E76" s="38"/>
+      <c r="E76" s="37"/>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
@@ -6452,7 +6450,7 @@
       <c r="R76" s="1"/>
     </row>
     <row r="77" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="28"/>
+      <c r="A77" s="27"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -6472,7 +6470,7 @@
       <c r="R77" s="1"/>
     </row>
     <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="28"/>
+      <c r="A78" s="27"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -6492,7 +6490,7 @@
       <c r="R78" s="1"/>
     </row>
     <row r="79" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="28"/>
+      <c r="A79" s="27"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -6512,7 +6510,7 @@
       <c r="R79" s="1"/>
     </row>
     <row r="80" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="28"/>
+      <c r="A80" s="27"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -6532,16 +6530,16 @@
       <c r="R80" s="1"/>
     </row>
     <row r="81" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="29"/>
-      <c r="B81" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="33"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="32"/>
       <c r="I81" s="7"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -6555,7 +6553,7 @@
     </row>
     <row r="82" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -6577,17 +6575,17 @@
     </row>
     <row r="83" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C83" s="25"/>
       <c r="D83" s="26" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1","x")</f>
         <v>x</v>
       </c>
-      <c r="E83" s="38"/>
+      <c r="E83" s="37"/>
       <c r="F83" s="25"/>
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
@@ -6603,7 +6601,7 @@
       <c r="R83" s="1"/>
     </row>
     <row r="84" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="28"/>
+      <c r="A84" s="27"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
       <c r="D84" s="25"/>
@@ -6623,7 +6621,7 @@
       <c r="R84" s="1"/>
     </row>
     <row r="85" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="28"/>
+      <c r="A85" s="27"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
       <c r="D85" s="25"/>
@@ -6643,7 +6641,7 @@
       <c r="R85" s="1"/>
     </row>
     <row r="86" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="28"/>
+      <c r="A86" s="27"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
       <c r="D86" s="25"/>
@@ -6663,7 +6661,7 @@
       <c r="R86" s="1"/>
     </row>
     <row r="87" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="28"/>
+      <c r="A87" s="27"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
       <c r="D87" s="25"/>
@@ -6683,16 +6681,16 @@
       <c r="R87" s="1"/>
     </row>
     <row r="88" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="29"/>
-      <c r="B88" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="33"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="32"/>
       <c r="I88" s="7"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -6706,7 +6704,7 @@
     </row>
     <row r="89" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="22"/>
@@ -6728,12 +6726,12 @@
     </row>
     <row r="90" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
       <c r="D90" s="25"/>
-      <c r="E90" s="38"/>
+      <c r="E90" s="37"/>
       <c r="F90" s="25"/>
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
@@ -6749,7 +6747,7 @@
       <c r="R90" s="1"/>
     </row>
     <row r="91" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="28"/>
+      <c r="A91" s="27"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
       <c r="D91" s="25"/>
@@ -6769,7 +6767,7 @@
       <c r="R91" s="1"/>
     </row>
     <row r="92" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="28"/>
+      <c r="A92" s="27"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
       <c r="D92" s="25"/>
@@ -6789,7 +6787,7 @@
       <c r="R92" s="1"/>
     </row>
     <row r="93" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="28"/>
+      <c r="A93" s="27"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
       <c r="D93" s="25"/>
@@ -6809,7 +6807,7 @@
       <c r="R93" s="1"/>
     </row>
     <row r="94" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="28"/>
+      <c r="A94" s="27"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
       <c r="D94" s="25"/>
@@ -6829,16 +6827,16 @@
       <c r="R94" s="1"/>
     </row>
     <row r="95" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="29"/>
-      <c r="B95" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="32"/>
-      <c r="H95" s="33"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="32"/>
       <c r="I95" s="7"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -6852,7 +6850,7 @@
     </row>
     <row r="96" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="22"/>
@@ -6874,12 +6872,12 @@
     </row>
     <row r="97" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="38"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="37"/>
       <c r="F97" s="25"/>
       <c r="G97" s="25"/>
       <c r="H97" s="25"/>
@@ -6895,7 +6893,7 @@
       <c r="R97" s="1"/>
     </row>
     <row r="98" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="28"/>
+      <c r="A98" s="27"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
       <c r="D98" s="25"/>
@@ -6915,7 +6913,7 @@
       <c r="R98" s="1"/>
     </row>
     <row r="99" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="28"/>
+      <c r="A99" s="27"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
       <c r="D99" s="25"/>
@@ -6935,7 +6933,7 @@
       <c r="R99" s="1"/>
     </row>
     <row r="100" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="28"/>
+      <c r="A100" s="27"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
       <c r="D100" s="25"/>
@@ -6955,7 +6953,7 @@
       <c r="R100" s="1"/>
     </row>
     <row r="101" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="28"/>
+      <c r="A101" s="27"/>
       <c r="B101" s="25"/>
       <c r="C101" s="25"/>
       <c r="D101" s="25"/>
@@ -6975,16 +6973,16 @@
       <c r="R101" s="1"/>
     </row>
     <row r="102" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="29"/>
-      <c r="B102" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="31"/>
-      <c r="F102" s="31"/>
-      <c r="G102" s="32"/>
-      <c r="H102" s="33"/>
+      <c r="A102" s="28"/>
+      <c r="B102" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="32"/>
       <c r="I102" s="7"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -6997,8 +6995,8 @@
       <c r="R102" s="1"/>
     </row>
     <row r="103" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="46" t="s">
-        <v>58</v>
+      <c r="A103" s="45" t="s">
+        <v>57</v>
       </c>
       <c r="B103" s="19"/>
       <c r="C103" s="22"/>
@@ -7020,17 +7018,17 @@
     </row>
     <row r="104" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C104" s="25"/>
       <c r="D104" s="26" t="str">
         <f>HYPERLINK("https://drive.google.com/open?id=1vfETlzbkCwqKra6CKWoT61dP-rYr3j0QCKXAng5ih6A&amp;authuser=1","x")</f>
         <v>x</v>
       </c>
-      <c r="E104" s="38"/>
+      <c r="E104" s="37"/>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
       <c r="H104" s="25"/>
@@ -7046,7 +7044,7 @@
       <c r="R104" s="1"/>
     </row>
     <row r="105" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="28"/>
+      <c r="A105" s="27"/>
       <c r="B105" s="25"/>
       <c r="C105" s="25"/>
       <c r="D105" s="25"/>
@@ -7066,7 +7064,7 @@
       <c r="R105" s="1"/>
     </row>
     <row r="106" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="28"/>
+      <c r="A106" s="27"/>
       <c r="B106" s="25"/>
       <c r="C106" s="25"/>
       <c r="D106" s="25"/>
@@ -7086,7 +7084,7 @@
       <c r="R106" s="1"/>
     </row>
     <row r="107" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="28"/>
+      <c r="A107" s="27"/>
       <c r="B107" s="25"/>
       <c r="C107" s="25"/>
       <c r="D107" s="25"/>
@@ -7106,7 +7104,7 @@
       <c r="R107" s="1"/>
     </row>
     <row r="108" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="28"/>
+      <c r="A108" s="27"/>
       <c r="B108" s="25"/>
       <c r="C108" s="25"/>
       <c r="D108" s="25"/>
@@ -7126,16 +7124,16 @@
       <c r="R108" s="1"/>
     </row>
     <row r="109" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="29"/>
-      <c r="B109" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="31"/>
-      <c r="F109" s="31"/>
-      <c r="G109" s="32"/>
-      <c r="H109" s="33"/>
+      <c r="A109" s="28"/>
+      <c r="B109" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="31"/>
+      <c r="H109" s="32"/>
       <c r="I109" s="7"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -7148,8 +7146,8 @@
       <c r="R109" s="1"/>
     </row>
     <row r="110" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="46" t="s">
-        <v>62</v>
+      <c r="A110" s="45" t="s">
+        <v>61</v>
       </c>
       <c r="B110" s="19"/>
       <c r="C110" s="22"/>
@@ -7171,12 +7169,12 @@
     </row>
     <row r="111" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B111" s="25"/>
       <c r="C111" s="25"/>
       <c r="D111" s="25"/>
-      <c r="E111" s="38"/>
+      <c r="E111" s="37"/>
       <c r="F111" s="25"/>
       <c r="G111" s="25"/>
       <c r="H111" s="25"/>
@@ -7192,7 +7190,7 @@
       <c r="R111" s="1"/>
     </row>
     <row r="112" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="28"/>
+      <c r="A112" s="27"/>
       <c r="B112" s="25"/>
       <c r="C112" s="25"/>
       <c r="D112" s="25"/>
@@ -7212,7 +7210,7 @@
       <c r="R112" s="1"/>
     </row>
     <row r="113" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="28"/>
+      <c r="A113" s="27"/>
       <c r="B113" s="25"/>
       <c r="C113" s="25"/>
       <c r="D113" s="25"/>
@@ -7232,7 +7230,7 @@
       <c r="R113" s="1"/>
     </row>
     <row r="114" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="28"/>
+      <c r="A114" s="27"/>
       <c r="B114" s="25"/>
       <c r="C114" s="25"/>
       <c r="D114" s="25"/>
@@ -7252,7 +7250,7 @@
       <c r="R114" s="1"/>
     </row>
     <row r="115" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="28"/>
+      <c r="A115" s="27"/>
       <c r="B115" s="25"/>
       <c r="C115" s="25"/>
       <c r="D115" s="25"/>
@@ -7272,16 +7270,16 @@
       <c r="R115" s="1"/>
     </row>
     <row r="116" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="29"/>
-      <c r="B116" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C116" s="31"/>
-      <c r="D116" s="31"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="33"/>
+      <c r="A116" s="28"/>
+      <c r="B116" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="32"/>
       <c r="I116" s="7"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -7294,8 +7292,8 @@
       <c r="R116" s="1"/>
     </row>
     <row r="117" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="46" t="s">
-        <v>63</v>
+      <c r="A117" s="45" t="s">
+        <v>62</v>
       </c>
       <c r="B117" s="19"/>
       <c r="C117" s="22"/>
@@ -7317,12 +7315,12 @@
     </row>
     <row r="118" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B118" s="25"/>
       <c r="C118" s="25"/>
       <c r="D118" s="25"/>
-      <c r="E118" s="38"/>
+      <c r="E118" s="37"/>
       <c r="F118" s="25"/>
       <c r="G118" s="25"/>
       <c r="H118" s="25"/>
@@ -7338,7 +7336,7 @@
       <c r="R118" s="1"/>
     </row>
     <row r="119" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="28"/>
+      <c r="A119" s="27"/>
       <c r="B119" s="25"/>
       <c r="C119" s="25"/>
       <c r="D119" s="25"/>
@@ -7358,7 +7356,7 @@
       <c r="R119" s="1"/>
     </row>
     <row r="120" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="28"/>
+      <c r="A120" s="27"/>
       <c r="B120" s="25"/>
       <c r="C120" s="25"/>
       <c r="D120" s="25"/>
@@ -7378,7 +7376,7 @@
       <c r="R120" s="1"/>
     </row>
     <row r="121" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="28"/>
+      <c r="A121" s="27"/>
       <c r="B121" s="25"/>
       <c r="C121" s="25"/>
       <c r="D121" s="25"/>
@@ -7398,7 +7396,7 @@
       <c r="R121" s="1"/>
     </row>
     <row r="122" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="28"/>
+      <c r="A122" s="27"/>
       <c r="B122" s="25"/>
       <c r="C122" s="25"/>
       <c r="D122" s="25"/>
@@ -7418,16 +7416,16 @@
       <c r="R122" s="1"/>
     </row>
     <row r="123" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="29"/>
-      <c r="B123" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C123" s="31"/>
-      <c r="D123" s="31"/>
-      <c r="E123" s="31"/>
-      <c r="F123" s="31"/>
-      <c r="G123" s="32"/>
-      <c r="H123" s="33"/>
+      <c r="A123" s="28"/>
+      <c r="B123" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="32"/>
       <c r="I123" s="7"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
@@ -7440,8 +7438,8 @@
       <c r="R123" s="1"/>
     </row>
     <row r="124" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="46" t="s">
-        <v>64</v>
+      <c r="A124" s="45" t="s">
+        <v>63</v>
       </c>
       <c r="B124" s="19"/>
       <c r="C124" s="22"/>
@@ -7463,12 +7461,12 @@
     </row>
     <row r="125" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B125" s="25"/>
       <c r="C125" s="25"/>
       <c r="D125" s="25"/>
-      <c r="E125" s="38"/>
+      <c r="E125" s="37"/>
       <c r="F125" s="25"/>
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
@@ -7484,7 +7482,7 @@
       <c r="R125" s="1"/>
     </row>
     <row r="126" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="28"/>
+      <c r="A126" s="27"/>
       <c r="B126" s="25"/>
       <c r="C126" s="25"/>
       <c r="D126" s="25"/>
@@ -7504,7 +7502,7 @@
       <c r="R126" s="1"/>
     </row>
     <row r="127" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="28"/>
+      <c r="A127" s="27"/>
       <c r="B127" s="25"/>
       <c r="C127" s="25"/>
       <c r="D127" s="25"/>
@@ -7524,7 +7522,7 @@
       <c r="R127" s="1"/>
     </row>
     <row r="128" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="28"/>
+      <c r="A128" s="27"/>
       <c r="B128" s="25"/>
       <c r="C128" s="25"/>
       <c r="D128" s="25"/>
@@ -7544,7 +7542,7 @@
       <c r="R128" s="1"/>
     </row>
     <row r="129" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="28"/>
+      <c r="A129" s="27"/>
       <c r="B129" s="25"/>
       <c r="C129" s="25"/>
       <c r="D129" s="25"/>
@@ -7564,16 +7562,16 @@
       <c r="R129" s="1"/>
     </row>
     <row r="130" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="29"/>
-      <c r="B130" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C130" s="31"/>
-      <c r="D130" s="31"/>
-      <c r="E130" s="31"/>
-      <c r="F130" s="31"/>
-      <c r="G130" s="32"/>
-      <c r="H130" s="33"/>
+      <c r="A130" s="28"/>
+      <c r="B130" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" s="30"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="30"/>
+      <c r="G130" s="31"/>
+      <c r="H130" s="32"/>
       <c r="I130" s="7"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
@@ -7586,8 +7584,8 @@
       <c r="R130" s="1"/>
     </row>
     <row r="131" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="46" t="s">
-        <v>65</v>
+      <c r="A131" s="45" t="s">
+        <v>64</v>
       </c>
       <c r="B131" s="19"/>
       <c r="C131" s="22"/>
@@ -7609,12 +7607,12 @@
     </row>
     <row r="132" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B132" s="25"/>
       <c r="C132" s="25"/>
       <c r="D132" s="25"/>
-      <c r="E132" s="38"/>
+      <c r="E132" s="37"/>
       <c r="F132" s="25"/>
       <c r="G132" s="25"/>
       <c r="H132" s="25"/>
@@ -7630,7 +7628,7 @@
       <c r="R132" s="1"/>
     </row>
     <row r="133" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="28"/>
+      <c r="A133" s="27"/>
       <c r="B133" s="25"/>
       <c r="C133" s="25"/>
       <c r="D133" s="25"/>
@@ -7650,7 +7648,7 @@
       <c r="R133" s="1"/>
     </row>
     <row r="134" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="28"/>
+      <c r="A134" s="27"/>
       <c r="B134" s="25"/>
       <c r="C134" s="25"/>
       <c r="D134" s="25"/>
@@ -7670,7 +7668,7 @@
       <c r="R134" s="1"/>
     </row>
     <row r="135" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="28"/>
+      <c r="A135" s="27"/>
       <c r="B135" s="25"/>
       <c r="C135" s="25"/>
       <c r="D135" s="25"/>
@@ -7690,7 +7688,7 @@
       <c r="R135" s="1"/>
     </row>
     <row r="136" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="28"/>
+      <c r="A136" s="27"/>
       <c r="B136" s="25"/>
       <c r="C136" s="25"/>
       <c r="D136" s="25"/>
@@ -7710,16 +7708,16 @@
       <c r="R136" s="1"/>
     </row>
     <row r="137" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="29"/>
-      <c r="B137" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C137" s="31"/>
-      <c r="D137" s="31"/>
-      <c r="E137" s="31"/>
-      <c r="F137" s="31"/>
-      <c r="G137" s="32"/>
-      <c r="H137" s="33"/>
+      <c r="A137" s="28"/>
+      <c r="B137" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="31"/>
+      <c r="H137" s="32"/>
       <c r="I137" s="7"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
@@ -7733,7 +7731,7 @@
     </row>
     <row r="138" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B138" s="19"/>
       <c r="C138" s="22"/>
@@ -7755,12 +7753,12 @@
     </row>
     <row r="139" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B139" s="25"/>
       <c r="C139" s="25"/>
       <c r="D139" s="25"/>
-      <c r="E139" s="38"/>
+      <c r="E139" s="37"/>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
       <c r="H139" s="25"/>
@@ -7776,7 +7774,7 @@
       <c r="R139" s="1"/>
     </row>
     <row r="140" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="28"/>
+      <c r="A140" s="27"/>
       <c r="B140" s="25"/>
       <c r="C140" s="25"/>
       <c r="D140" s="25"/>
@@ -7796,7 +7794,7 @@
       <c r="R140" s="1"/>
     </row>
     <row r="141" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="28"/>
+      <c r="A141" s="27"/>
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
       <c r="D141" s="25"/>
@@ -7816,7 +7814,7 @@
       <c r="R141" s="1"/>
     </row>
     <row r="142" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="28"/>
+      <c r="A142" s="27"/>
       <c r="B142" s="25"/>
       <c r="C142" s="25"/>
       <c r="D142" s="25"/>
@@ -7836,7 +7834,7 @@
       <c r="R142" s="1"/>
     </row>
     <row r="143" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="28"/>
+      <c r="A143" s="27"/>
       <c r="B143" s="25"/>
       <c r="C143" s="25"/>
       <c r="D143" s="25"/>
@@ -7856,16 +7854,16 @@
       <c r="R143" s="1"/>
     </row>
     <row r="144" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="29"/>
-      <c r="B144" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C144" s="31"/>
-      <c r="D144" s="31"/>
-      <c r="E144" s="31"/>
-      <c r="F144" s="31"/>
-      <c r="G144" s="32"/>
-      <c r="H144" s="33"/>
+      <c r="A144" s="28"/>
+      <c r="B144" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" s="30"/>
+      <c r="D144" s="30"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="30"/>
+      <c r="G144" s="31"/>
+      <c r="H144" s="32"/>
       <c r="I144" s="7"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
@@ -7879,7 +7877,7 @@
     </row>
     <row r="145" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B145" s="19"/>
       <c r="C145" s="22"/>
@@ -7901,12 +7899,12 @@
     </row>
     <row r="146" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B146" s="25"/>
       <c r="C146" s="25"/>
       <c r="D146" s="25"/>
-      <c r="E146" s="38"/>
+      <c r="E146" s="37"/>
       <c r="F146" s="25"/>
       <c r="G146" s="25"/>
       <c r="H146" s="25"/>
@@ -7922,7 +7920,7 @@
       <c r="R146" s="1"/>
     </row>
     <row r="147" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="28"/>
+      <c r="A147" s="27"/>
       <c r="B147" s="25"/>
       <c r="C147" s="25"/>
       <c r="D147" s="25"/>
@@ -7942,7 +7940,7 @@
       <c r="R147" s="1"/>
     </row>
     <row r="148" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="28"/>
+      <c r="A148" s="27"/>
       <c r="B148" s="25"/>
       <c r="C148" s="25"/>
       <c r="D148" s="25"/>
@@ -7962,7 +7960,7 @@
       <c r="R148" s="1"/>
     </row>
     <row r="149" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="28"/>
+      <c r="A149" s="27"/>
       <c r="B149" s="25"/>
       <c r="C149" s="25"/>
       <c r="D149" s="25"/>
@@ -7982,7 +7980,7 @@
       <c r="R149" s="1"/>
     </row>
     <row r="150" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="28"/>
+      <c r="A150" s="27"/>
       <c r="B150" s="25"/>
       <c r="C150" s="25"/>
       <c r="D150" s="25"/>
@@ -8002,16 +8000,16 @@
       <c r="R150" s="1"/>
     </row>
     <row r="151" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="29"/>
-      <c r="B151" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C151" s="31"/>
-      <c r="D151" s="31"/>
-      <c r="E151" s="31"/>
-      <c r="F151" s="31"/>
-      <c r="G151" s="32"/>
-      <c r="H151" s="33"/>
+      <c r="A151" s="28"/>
+      <c r="B151" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" s="30"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="30"/>
+      <c r="F151" s="30"/>
+      <c r="G151" s="31"/>
+      <c r="H151" s="32"/>
       <c r="I151" s="7"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
@@ -8025,7 +8023,7 @@
     </row>
     <row r="152" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B152" s="19"/>
       <c r="C152" s="22"/>
@@ -8047,7 +8045,7 @@
     </row>
     <row r="153" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B153" s="25"/>
       <c r="C153" s="25"/>
@@ -8068,7 +8066,7 @@
       <c r="R153" s="1"/>
     </row>
     <row r="154" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="28"/>
+      <c r="A154" s="27"/>
       <c r="B154" s="25"/>
       <c r="C154" s="25"/>
       <c r="D154" s="25"/>
@@ -8088,7 +8086,7 @@
       <c r="R154" s="1"/>
     </row>
     <row r="155" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="28"/>
+      <c r="A155" s="27"/>
       <c r="B155" s="25"/>
       <c r="C155" s="25"/>
       <c r="D155" s="25"/>
@@ -8108,7 +8106,7 @@
       <c r="R155" s="1"/>
     </row>
     <row r="156" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="28"/>
+      <c r="A156" s="27"/>
       <c r="B156" s="25"/>
       <c r="C156" s="25"/>
       <c r="D156" s="25"/>
@@ -8128,7 +8126,7 @@
       <c r="R156" s="1"/>
     </row>
     <row r="157" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="28"/>
+      <c r="A157" s="27"/>
       <c r="B157" s="25"/>
       <c r="C157" s="25"/>
       <c r="D157" s="25"/>
@@ -8148,16 +8146,16 @@
       <c r="R157" s="1"/>
     </row>
     <row r="158" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="29"/>
-      <c r="B158" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C158" s="31"/>
-      <c r="D158" s="31"/>
-      <c r="E158" s="31"/>
-      <c r="F158" s="31"/>
-      <c r="G158" s="32"/>
-      <c r="H158" s="33"/>
+      <c r="A158" s="28"/>
+      <c r="B158" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" s="30"/>
+      <c r="D158" s="30"/>
+      <c r="E158" s="30"/>
+      <c r="F158" s="30"/>
+      <c r="G158" s="31"/>
+      <c r="H158" s="32"/>
       <c r="I158" s="7"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
@@ -8171,7 +8169,7 @@
     </row>
     <row r="159" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B159" s="19"/>
       <c r="C159" s="22"/>
@@ -8193,7 +8191,7 @@
     </row>
     <row r="160" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B160" s="25"/>
       <c r="C160" s="25"/>
@@ -8214,7 +8212,7 @@
       <c r="R160" s="1"/>
     </row>
     <row r="161" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="28"/>
+      <c r="A161" s="27"/>
       <c r="B161" s="25"/>
       <c r="C161" s="25"/>
       <c r="D161" s="25"/>
@@ -8234,7 +8232,7 @@
       <c r="R161" s="1"/>
     </row>
     <row r="162" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="28"/>
+      <c r="A162" s="27"/>
       <c r="B162" s="25"/>
       <c r="C162" s="25"/>
       <c r="D162" s="25"/>
@@ -8254,7 +8252,7 @@
       <c r="R162" s="1"/>
     </row>
     <row r="163" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="28"/>
+      <c r="A163" s="27"/>
       <c r="B163" s="25"/>
       <c r="C163" s="25"/>
       <c r="D163" s="25"/>
@@ -8274,7 +8272,7 @@
       <c r="R163" s="1"/>
     </row>
     <row r="164" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="28"/>
+      <c r="A164" s="27"/>
       <c r="B164" s="25"/>
       <c r="C164" s="25"/>
       <c r="D164" s="25"/>
@@ -8294,16 +8292,16 @@
       <c r="R164" s="1"/>
     </row>
     <row r="165" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="29"/>
-      <c r="B165" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C165" s="31"/>
-      <c r="D165" s="31"/>
-      <c r="E165" s="31"/>
-      <c r="F165" s="31"/>
-      <c r="G165" s="32"/>
-      <c r="H165" s="33"/>
+      <c r="A165" s="28"/>
+      <c r="B165" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" s="30"/>
+      <c r="D165" s="30"/>
+      <c r="E165" s="30"/>
+      <c r="F165" s="30"/>
+      <c r="G165" s="31"/>
+      <c r="H165" s="32"/>
       <c r="I165" s="7"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
@@ -8317,7 +8315,7 @@
     </row>
     <row r="166" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B166" s="19"/>
       <c r="C166" s="22"/>
@@ -8339,7 +8337,7 @@
     </row>
     <row r="167" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B167" s="25"/>
       <c r="C167" s="25"/>
@@ -8360,7 +8358,7 @@
       <c r="R167" s="1"/>
     </row>
     <row r="168" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="28"/>
+      <c r="A168" s="27"/>
       <c r="B168" s="25"/>
       <c r="C168" s="25"/>
       <c r="D168" s="25"/>
@@ -8380,7 +8378,7 @@
       <c r="R168" s="1"/>
     </row>
     <row r="169" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="28"/>
+      <c r="A169" s="27"/>
       <c r="B169" s="25"/>
       <c r="C169" s="25"/>
       <c r="D169" s="25"/>
@@ -8400,7 +8398,7 @@
       <c r="R169" s="1"/>
     </row>
     <row r="170" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="28"/>
+      <c r="A170" s="27"/>
       <c r="B170" s="25"/>
       <c r="C170" s="25"/>
       <c r="D170" s="25"/>
@@ -8420,7 +8418,7 @@
       <c r="R170" s="1"/>
     </row>
     <row r="171" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="28"/>
+      <c r="A171" s="27"/>
       <c r="B171" s="25"/>
       <c r="C171" s="25"/>
       <c r="D171" s="25"/>
@@ -8440,16 +8438,16 @@
       <c r="R171" s="1"/>
     </row>
     <row r="172" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="29"/>
-      <c r="B172" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C172" s="31"/>
-      <c r="D172" s="31"/>
-      <c r="E172" s="31"/>
-      <c r="F172" s="31"/>
-      <c r="G172" s="32"/>
-      <c r="H172" s="33"/>
+      <c r="A172" s="28"/>
+      <c r="B172" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" s="30"/>
+      <c r="D172" s="30"/>
+      <c r="E172" s="30"/>
+      <c r="F172" s="30"/>
+      <c r="G172" s="31"/>
+      <c r="H172" s="32"/>
       <c r="I172" s="7"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
@@ -8463,7 +8461,7 @@
     </row>
     <row r="173" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B173" s="19"/>
       <c r="C173" s="22"/>
@@ -8485,7 +8483,7 @@
     </row>
     <row r="174" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B174" s="25"/>
       <c r="C174" s="25"/>
@@ -8506,7 +8504,7 @@
       <c r="R174" s="1"/>
     </row>
     <row r="175" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="28"/>
+      <c r="A175" s="27"/>
       <c r="B175" s="25"/>
       <c r="C175" s="25"/>
       <c r="D175" s="25"/>
@@ -8526,7 +8524,7 @@
       <c r="R175" s="1"/>
     </row>
     <row r="176" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="28"/>
+      <c r="A176" s="27"/>
       <c r="B176" s="25"/>
       <c r="C176" s="25"/>
       <c r="D176" s="25"/>
@@ -8546,7 +8544,7 @@
       <c r="R176" s="1"/>
     </row>
     <row r="177" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="28"/>
+      <c r="A177" s="27"/>
       <c r="B177" s="25"/>
       <c r="C177" s="25"/>
       <c r="D177" s="25"/>
@@ -8566,7 +8564,7 @@
       <c r="R177" s="1"/>
     </row>
     <row r="178" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="28"/>
+      <c r="A178" s="27"/>
       <c r="B178" s="25"/>
       <c r="C178" s="25"/>
       <c r="D178" s="25"/>
@@ -8586,16 +8584,16 @@
       <c r="R178" s="1"/>
     </row>
     <row r="179" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="29"/>
-      <c r="B179" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C179" s="31"/>
-      <c r="D179" s="31"/>
-      <c r="E179" s="31"/>
-      <c r="F179" s="31"/>
-      <c r="G179" s="32"/>
-      <c r="H179" s="33"/>
+      <c r="A179" s="28"/>
+      <c r="B179" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" s="30"/>
+      <c r="D179" s="30"/>
+      <c r="E179" s="30"/>
+      <c r="F179" s="30"/>
+      <c r="G179" s="31"/>
+      <c r="H179" s="32"/>
       <c r="I179" s="7"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
@@ -8609,7 +8607,7 @@
     </row>
     <row r="180" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B180" s="19"/>
       <c r="C180" s="22"/>
@@ -8631,7 +8629,7 @@
     </row>
     <row r="181" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B181" s="25"/>
       <c r="C181" s="25"/>
@@ -8652,7 +8650,7 @@
       <c r="R181" s="1"/>
     </row>
     <row r="182" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="28"/>
+      <c r="A182" s="27"/>
       <c r="B182" s="25"/>
       <c r="C182" s="25"/>
       <c r="D182" s="25"/>
@@ -8672,7 +8670,7 @@
       <c r="R182" s="1"/>
     </row>
     <row r="183" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="28"/>
+      <c r="A183" s="27"/>
       <c r="B183" s="25"/>
       <c r="C183" s="25"/>
       <c r="D183" s="25"/>
@@ -8692,7 +8690,7 @@
       <c r="R183" s="1"/>
     </row>
     <row r="184" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="28"/>
+      <c r="A184" s="27"/>
       <c r="B184" s="25"/>
       <c r="C184" s="25"/>
       <c r="D184" s="25"/>
@@ -8712,7 +8710,7 @@
       <c r="R184" s="1"/>
     </row>
     <row r="185" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="28"/>
+      <c r="A185" s="27"/>
       <c r="B185" s="25"/>
       <c r="C185" s="25"/>
       <c r="D185" s="25"/>
@@ -8732,16 +8730,16 @@
       <c r="R185" s="1"/>
     </row>
     <row r="186" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="29"/>
-      <c r="B186" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C186" s="31"/>
-      <c r="D186" s="31"/>
-      <c r="E186" s="31"/>
-      <c r="F186" s="31"/>
-      <c r="G186" s="32"/>
-      <c r="H186" s="33"/>
+      <c r="A186" s="28"/>
+      <c r="B186" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186" s="30"/>
+      <c r="D186" s="30"/>
+      <c r="E186" s="30"/>
+      <c r="F186" s="30"/>
+      <c r="G186" s="31"/>
+      <c r="H186" s="32"/>
       <c r="I186" s="7"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
@@ -8755,7 +8753,7 @@
     </row>
     <row r="187" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B187" s="19"/>
       <c r="C187" s="22"/>
@@ -8777,7 +8775,7 @@
     </row>
     <row r="188" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B188" s="25"/>
       <c r="C188" s="25"/>
@@ -8798,7 +8796,7 @@
       <c r="R188" s="1"/>
     </row>
     <row r="189" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="28"/>
+      <c r="A189" s="27"/>
       <c r="B189" s="25"/>
       <c r="C189" s="25"/>
       <c r="D189" s="25"/>
@@ -8818,7 +8816,7 @@
       <c r="R189" s="1"/>
     </row>
     <row r="190" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="28"/>
+      <c r="A190" s="27"/>
       <c r="B190" s="25"/>
       <c r="C190" s="25"/>
       <c r="D190" s="25"/>
@@ -8838,7 +8836,7 @@
       <c r="R190" s="1"/>
     </row>
     <row r="191" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="28"/>
+      <c r="A191" s="27"/>
       <c r="B191" s="25"/>
       <c r="C191" s="25"/>
       <c r="D191" s="25"/>
@@ -8858,7 +8856,7 @@
       <c r="R191" s="1"/>
     </row>
     <row r="192" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="28"/>
+      <c r="A192" s="27"/>
       <c r="B192" s="25"/>
       <c r="C192" s="25"/>
       <c r="D192" s="25"/>
@@ -8878,16 +8876,16 @@
       <c r="R192" s="1"/>
     </row>
     <row r="193" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="29"/>
-      <c r="B193" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C193" s="31"/>
-      <c r="D193" s="31"/>
-      <c r="E193" s="31"/>
-      <c r="F193" s="31"/>
-      <c r="G193" s="32"/>
-      <c r="H193" s="33"/>
+      <c r="A193" s="28"/>
+      <c r="B193" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193" s="30"/>
+      <c r="D193" s="30"/>
+      <c r="E193" s="30"/>
+      <c r="F193" s="30"/>
+      <c r="G193" s="31"/>
+      <c r="H193" s="32"/>
       <c r="I193" s="7"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
@@ -8901,7 +8899,7 @@
     </row>
     <row r="194" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B194" s="19"/>
       <c r="C194" s="22"/>
@@ -8923,7 +8921,7 @@
     </row>
     <row r="195" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B195" s="25"/>
       <c r="C195" s="25"/>
@@ -8944,7 +8942,7 @@
       <c r="R195" s="1"/>
     </row>
     <row r="196" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="28"/>
+      <c r="A196" s="27"/>
       <c r="B196" s="25"/>
       <c r="C196" s="25"/>
       <c r="D196" s="25"/>
@@ -8964,7 +8962,7 @@
       <c r="R196" s="1"/>
     </row>
     <row r="197" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="28"/>
+      <c r="A197" s="27"/>
       <c r="B197" s="25"/>
       <c r="C197" s="25"/>
       <c r="D197" s="25"/>
@@ -8984,7 +8982,7 @@
       <c r="R197" s="1"/>
     </row>
     <row r="198" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="28"/>
+      <c r="A198" s="27"/>
       <c r="B198" s="25"/>
       <c r="C198" s="25"/>
       <c r="D198" s="25"/>
@@ -9004,7 +9002,7 @@
       <c r="R198" s="1"/>
     </row>
     <row r="199" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="28"/>
+      <c r="A199" s="27"/>
       <c r="B199" s="25"/>
       <c r="C199" s="25"/>
       <c r="D199" s="25"/>
@@ -9024,16 +9022,16 @@
       <c r="R199" s="1"/>
     </row>
     <row r="200" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="29"/>
-      <c r="B200" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C200" s="31"/>
-      <c r="D200" s="31"/>
-      <c r="E200" s="31"/>
-      <c r="F200" s="31"/>
-      <c r="G200" s="32"/>
-      <c r="H200" s="33"/>
+      <c r="A200" s="28"/>
+      <c r="B200" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C200" s="30"/>
+      <c r="D200" s="30"/>
+      <c r="E200" s="30"/>
+      <c r="F200" s="30"/>
+      <c r="G200" s="31"/>
+      <c r="H200" s="32"/>
       <c r="I200" s="7"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
@@ -9047,7 +9045,7 @@
     </row>
     <row r="201" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B201" s="19"/>
       <c r="C201" s="22"/>
@@ -9069,7 +9067,7 @@
     </row>
     <row r="202" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B202" s="25"/>
       <c r="C202" s="25"/>
@@ -9090,7 +9088,7 @@
       <c r="R202" s="1"/>
     </row>
     <row r="203" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="28"/>
+      <c r="A203" s="27"/>
       <c r="B203" s="25"/>
       <c r="C203" s="25"/>
       <c r="D203" s="25"/>
@@ -9110,7 +9108,7 @@
       <c r="R203" s="1"/>
     </row>
     <row r="204" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="28"/>
+      <c r="A204" s="27"/>
       <c r="B204" s="25"/>
       <c r="C204" s="25"/>
       <c r="D204" s="25"/>
@@ -9130,7 +9128,7 @@
       <c r="R204" s="1"/>
     </row>
     <row r="205" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="28"/>
+      <c r="A205" s="27"/>
       <c r="B205" s="25"/>
       <c r="C205" s="25"/>
       <c r="D205" s="25"/>
@@ -9150,7 +9148,7 @@
       <c r="R205" s="1"/>
     </row>
     <row r="206" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="28"/>
+      <c r="A206" s="27"/>
       <c r="B206" s="25"/>
       <c r="C206" s="25"/>
       <c r="D206" s="25"/>
@@ -9170,16 +9168,16 @@
       <c r="R206" s="1"/>
     </row>
     <row r="207" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="29"/>
-      <c r="B207" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C207" s="31"/>
-      <c r="D207" s="31"/>
-      <c r="E207" s="31"/>
-      <c r="F207" s="31"/>
-      <c r="G207" s="32"/>
-      <c r="H207" s="33"/>
+      <c r="A207" s="28"/>
+      <c r="B207" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C207" s="30"/>
+      <c r="D207" s="30"/>
+      <c r="E207" s="30"/>
+      <c r="F207" s="30"/>
+      <c r="G207" s="31"/>
+      <c r="H207" s="32"/>
       <c r="I207" s="7"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
@@ -9193,7 +9191,7 @@
     </row>
     <row r="208" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B208" s="19"/>
       <c r="C208" s="22"/>
@@ -9215,7 +9213,7 @@
     </row>
     <row r="209" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B209" s="25"/>
       <c r="C209" s="25"/>
@@ -9236,7 +9234,7 @@
       <c r="R209" s="1"/>
     </row>
     <row r="210" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="28"/>
+      <c r="A210" s="27"/>
       <c r="B210" s="25"/>
       <c r="C210" s="25"/>
       <c r="D210" s="25"/>
@@ -9256,7 +9254,7 @@
       <c r="R210" s="1"/>
     </row>
     <row r="211" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="28"/>
+      <c r="A211" s="27"/>
       <c r="B211" s="25"/>
       <c r="C211" s="25"/>
       <c r="D211" s="25"/>
@@ -9276,7 +9274,7 @@
       <c r="R211" s="1"/>
     </row>
     <row r="212" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="28"/>
+      <c r="A212" s="27"/>
       <c r="B212" s="25"/>
       <c r="C212" s="25"/>
       <c r="D212" s="25"/>
@@ -9296,7 +9294,7 @@
       <c r="R212" s="1"/>
     </row>
     <row r="213" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="28"/>
+      <c r="A213" s="27"/>
       <c r="B213" s="25"/>
       <c r="C213" s="25"/>
       <c r="D213" s="25"/>
@@ -9316,16 +9314,16 @@
       <c r="R213" s="1"/>
     </row>
     <row r="214" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="29"/>
-      <c r="B214" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C214" s="31"/>
-      <c r="D214" s="31"/>
-      <c r="E214" s="31"/>
-      <c r="F214" s="31"/>
-      <c r="G214" s="32"/>
-      <c r="H214" s="33"/>
+      <c r="A214" s="28"/>
+      <c r="B214" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C214" s="30"/>
+      <c r="D214" s="30"/>
+      <c r="E214" s="30"/>
+      <c r="F214" s="30"/>
+      <c r="G214" s="31"/>
+      <c r="H214" s="32"/>
       <c r="I214" s="7"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
@@ -9339,7 +9337,7 @@
     </row>
     <row r="215" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B215" s="19"/>
       <c r="C215" s="22"/>
@@ -9361,7 +9359,7 @@
     </row>
     <row r="216" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B216" s="25"/>
       <c r="C216" s="25"/>
@@ -9382,7 +9380,7 @@
       <c r="R216" s="1"/>
     </row>
     <row r="217" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="28"/>
+      <c r="A217" s="27"/>
       <c r="B217" s="25"/>
       <c r="C217" s="25"/>
       <c r="D217" s="25"/>
@@ -9402,7 +9400,7 @@
       <c r="R217" s="1"/>
     </row>
     <row r="218" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="28"/>
+      <c r="A218" s="27"/>
       <c r="B218" s="25"/>
       <c r="C218" s="25"/>
       <c r="D218" s="25"/>
@@ -9422,7 +9420,7 @@
       <c r="R218" s="1"/>
     </row>
     <row r="219" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="28"/>
+      <c r="A219" s="27"/>
       <c r="B219" s="25"/>
       <c r="C219" s="25"/>
       <c r="D219" s="25"/>
@@ -9442,7 +9440,7 @@
       <c r="R219" s="1"/>
     </row>
     <row r="220" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="28"/>
+      <c r="A220" s="27"/>
       <c r="B220" s="25"/>
       <c r="C220" s="25"/>
       <c r="D220" s="25"/>
@@ -9462,16 +9460,16 @@
       <c r="R220" s="1"/>
     </row>
     <row r="221" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="29"/>
-      <c r="B221" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C221" s="31"/>
-      <c r="D221" s="31"/>
-      <c r="E221" s="31"/>
-      <c r="F221" s="31"/>
-      <c r="G221" s="32"/>
-      <c r="H221" s="33"/>
+      <c r="A221" s="28"/>
+      <c r="B221" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C221" s="30"/>
+      <c r="D221" s="30"/>
+      <c r="E221" s="30"/>
+      <c r="F221" s="30"/>
+      <c r="G221" s="31"/>
+      <c r="H221" s="32"/>
       <c r="I221" s="7"/>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
@@ -9484,14 +9482,14 @@
       <c r="R221" s="1"/>
     </row>
     <row r="222" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="52"/>
-      <c r="B222" s="53"/>
-      <c r="C222" s="53"/>
-      <c r="D222" s="53"/>
-      <c r="E222" s="53"/>
-      <c r="F222" s="53"/>
-      <c r="G222" s="53"/>
-      <c r="H222" s="53"/>
+      <c r="A222" s="51"/>
+      <c r="B222" s="52"/>
+      <c r="C222" s="52"/>
+      <c r="D222" s="52"/>
+      <c r="E222" s="52"/>
+      <c r="F222" s="52"/>
+      <c r="G222" s="52"/>
+      <c r="H222" s="52"/>
       <c r="I222" s="7"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
@@ -9504,16 +9502,16 @@
       <c r="R222" s="1"/>
     </row>
     <row r="223" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B223" s="55"/>
-      <c r="C223" s="55"/>
-      <c r="D223" s="55"/>
-      <c r="E223" s="55"/>
-      <c r="F223" s="55"/>
-      <c r="G223" s="56"/>
-      <c r="H223" s="57"/>
+      <c r="A223" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B223" s="54"/>
+      <c r="C223" s="54"/>
+      <c r="D223" s="54"/>
+      <c r="E223" s="54"/>
+      <c r="F223" s="54"/>
+      <c r="G223" s="55"/>
+      <c r="H223" s="56"/>
       <c r="I223" s="7"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
@@ -9526,16 +9524,16 @@
       <c r="R223" s="1"/>
     </row>
     <row r="224" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="58" t="s">
+      <c r="A224" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B224" s="59"/>
-      <c r="C224" s="59"/>
-      <c r="D224" s="59"/>
-      <c r="E224" s="59"/>
-      <c r="F224" s="59"/>
-      <c r="G224" s="60"/>
-      <c r="H224" s="61"/>
+      <c r="B224" s="58"/>
+      <c r="C224" s="58"/>
+      <c r="D224" s="58"/>
+      <c r="E224" s="58"/>
+      <c r="F224" s="58"/>
+      <c r="G224" s="59"/>
+      <c r="H224" s="60"/>
       <c r="I224" s="7"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
@@ -9548,16 +9546,16 @@
       <c r="R224" s="1"/>
     </row>
     <row r="225" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="B225" s="63"/>
-      <c r="C225" s="64"/>
-      <c r="D225" s="64"/>
-      <c r="E225" s="64"/>
-      <c r="F225" s="64"/>
-      <c r="G225" s="65"/>
-      <c r="H225" s="65"/>
+      <c r="A225" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B225" s="62"/>
+      <c r="C225" s="63"/>
+      <c r="D225" s="63"/>
+      <c r="E225" s="63"/>
+      <c r="F225" s="63"/>
+      <c r="G225" s="64"/>
+      <c r="H225" s="64"/>
       <c r="I225" s="7"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
@@ -9570,16 +9568,16 @@
       <c r="R225" s="1"/>
     </row>
     <row r="226" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B226" s="67"/>
-      <c r="C226" s="68"/>
-      <c r="D226" s="68"/>
-      <c r="E226" s="68"/>
-      <c r="F226" s="68"/>
-      <c r="G226" s="69"/>
-      <c r="H226" s="69"/>
+      <c r="A226" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B226" s="66"/>
+      <c r="C226" s="67"/>
+      <c r="D226" s="67"/>
+      <c r="E226" s="67"/>
+      <c r="F226" s="67"/>
+      <c r="G226" s="68"/>
+      <c r="H226" s="68"/>
       <c r="I226" s="7"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
@@ -9592,7 +9590,7 @@
       <c r="R226" s="1"/>
     </row>
     <row r="227" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="28"/>
+      <c r="A227" s="27"/>
       <c r="B227" s="25"/>
       <c r="C227" s="25"/>
       <c r="D227" s="25"/>
@@ -9612,7 +9610,7 @@
       <c r="R227" s="1"/>
     </row>
     <row r="228" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="28"/>
+      <c r="A228" s="27"/>
       <c r="B228" s="25"/>
       <c r="C228" s="25"/>
       <c r="D228" s="25"/>
@@ -9632,7 +9630,7 @@
       <c r="R228" s="1"/>
     </row>
     <row r="229" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="28"/>
+      <c r="A229" s="27"/>
       <c r="B229" s="25"/>
       <c r="C229" s="25"/>
       <c r="D229" s="25"/>
@@ -9652,7 +9650,7 @@
       <c r="R229" s="1"/>
     </row>
     <row r="230" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="28"/>
+      <c r="A230" s="27"/>
       <c r="B230" s="25"/>
       <c r="C230" s="25"/>
       <c r="D230" s="25"/>
@@ -9672,7 +9670,7 @@
       <c r="R230" s="1"/>
     </row>
     <row r="231" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="28"/>
+      <c r="A231" s="27"/>
       <c r="B231" s="25"/>
       <c r="C231" s="25"/>
       <c r="D231" s="25"/>
@@ -9692,16 +9690,16 @@
       <c r="R231" s="1"/>
     </row>
     <row r="232" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="28"/>
-      <c r="B232" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C232" s="31"/>
-      <c r="D232" s="31"/>
-      <c r="E232" s="31"/>
-      <c r="F232" s="31"/>
-      <c r="G232" s="32"/>
-      <c r="H232" s="33"/>
+      <c r="A232" s="27"/>
+      <c r="B232" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C232" s="30"/>
+      <c r="D232" s="30"/>
+      <c r="E232" s="30"/>
+      <c r="F232" s="30"/>
+      <c r="G232" s="31"/>
+      <c r="H232" s="32"/>
       <c r="I232" s="7"/>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
@@ -9714,16 +9712,16 @@
       <c r="R232" s="1"/>
     </row>
     <row r="233" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A233" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="B233" s="71"/>
-      <c r="C233" s="72"/>
-      <c r="D233" s="72"/>
-      <c r="E233" s="72"/>
-      <c r="F233" s="72"/>
-      <c r="G233" s="69"/>
-      <c r="H233" s="69"/>
+      <c r="A233" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B233" s="70"/>
+      <c r="C233" s="71"/>
+      <c r="D233" s="71"/>
+      <c r="E233" s="71"/>
+      <c r="F233" s="71"/>
+      <c r="G233" s="68"/>
+      <c r="H233" s="68"/>
       <c r="I233" s="7"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
@@ -9736,16 +9734,16 @@
       <c r="R233" s="1"/>
     </row>
     <row r="234" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="B234" s="74"/>
-      <c r="C234" s="75"/>
-      <c r="D234" s="75"/>
-      <c r="E234" s="75"/>
-      <c r="F234" s="75"/>
-      <c r="G234" s="69"/>
-      <c r="H234" s="69"/>
+      <c r="A234" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B234" s="73"/>
+      <c r="C234" s="74"/>
+      <c r="D234" s="74"/>
+      <c r="E234" s="74"/>
+      <c r="F234" s="74"/>
+      <c r="G234" s="68"/>
+      <c r="H234" s="68"/>
       <c r="I234" s="7"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
@@ -9758,7 +9756,7 @@
       <c r="R234" s="1"/>
     </row>
     <row r="235" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="28"/>
+      <c r="A235" s="27"/>
       <c r="B235" s="25"/>
       <c r="C235" s="25"/>
       <c r="D235" s="25"/>
@@ -9778,7 +9776,7 @@
       <c r="R235" s="1"/>
     </row>
     <row r="236" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="28"/>
+      <c r="A236" s="27"/>
       <c r="B236" s="25"/>
       <c r="C236" s="25"/>
       <c r="D236" s="25"/>
@@ -9798,7 +9796,7 @@
       <c r="R236" s="1"/>
     </row>
     <row r="237" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="28"/>
+      <c r="A237" s="27"/>
       <c r="B237" s="25"/>
       <c r="C237" s="25"/>
       <c r="D237" s="25"/>
@@ -9818,7 +9816,7 @@
       <c r="R237" s="1"/>
     </row>
     <row r="238" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="28"/>
+      <c r="A238" s="27"/>
       <c r="B238" s="25"/>
       <c r="C238" s="25"/>
       <c r="D238" s="25"/>
@@ -9838,7 +9836,7 @@
       <c r="R238" s="1"/>
     </row>
     <row r="239" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="28"/>
+      <c r="A239" s="27"/>
       <c r="B239" s="25"/>
       <c r="C239" s="25"/>
       <c r="D239" s="25"/>
@@ -9858,16 +9856,16 @@
       <c r="R239" s="1"/>
     </row>
     <row r="240" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="28"/>
-      <c r="B240" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C240" s="31"/>
-      <c r="D240" s="31"/>
-      <c r="E240" s="31"/>
-      <c r="F240" s="31"/>
-      <c r="G240" s="32"/>
-      <c r="H240" s="33"/>
+      <c r="A240" s="27"/>
+      <c r="B240" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C240" s="30"/>
+      <c r="D240" s="30"/>
+      <c r="E240" s="30"/>
+      <c r="F240" s="30"/>
+      <c r="G240" s="31"/>
+      <c r="H240" s="32"/>
       <c r="I240" s="7"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
@@ -9880,16 +9878,16 @@
       <c r="R240" s="1"/>
     </row>
     <row r="241" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="B241" s="76"/>
-      <c r="C241" s="77"/>
-      <c r="D241" s="77"/>
-      <c r="E241" s="77"/>
-      <c r="F241" s="77"/>
-      <c r="G241" s="69"/>
-      <c r="H241" s="69"/>
+      <c r="A241" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B241" s="75"/>
+      <c r="C241" s="76"/>
+      <c r="D241" s="76"/>
+      <c r="E241" s="76"/>
+      <c r="F241" s="76"/>
+      <c r="G241" s="68"/>
+      <c r="H241" s="68"/>
       <c r="I241" s="7"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
@@ -9902,7 +9900,7 @@
       <c r="R241" s="1"/>
     </row>
     <row r="242" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="28"/>
+      <c r="A242" s="27"/>
       <c r="B242" s="25"/>
       <c r="C242" s="25"/>
       <c r="D242" s="25"/>
@@ -9922,7 +9920,7 @@
       <c r="R242" s="1"/>
     </row>
     <row r="243" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="28"/>
+      <c r="A243" s="27"/>
       <c r="B243" s="25"/>
       <c r="C243" s="25"/>
       <c r="D243" s="25"/>
@@ -9942,7 +9940,7 @@
       <c r="R243" s="1"/>
     </row>
     <row r="244" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="28"/>
+      <c r="A244" s="27"/>
       <c r="B244" s="25"/>
       <c r="C244" s="25"/>
       <c r="D244" s="25"/>
@@ -9962,7 +9960,7 @@
       <c r="R244" s="1"/>
     </row>
     <row r="245" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="28"/>
+      <c r="A245" s="27"/>
       <c r="B245" s="25"/>
       <c r="C245" s="25"/>
       <c r="D245" s="25"/>
@@ -9982,7 +9980,7 @@
       <c r="R245" s="1"/>
     </row>
     <row r="246" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="28"/>
+      <c r="A246" s="27"/>
       <c r="B246" s="25"/>
       <c r="C246" s="25"/>
       <c r="D246" s="25"/>
@@ -10002,16 +10000,16 @@
       <c r="R246" s="1"/>
     </row>
     <row r="247" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="28"/>
-      <c r="B247" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C247" s="31"/>
-      <c r="D247" s="31"/>
-      <c r="E247" s="31"/>
-      <c r="F247" s="31"/>
-      <c r="G247" s="32"/>
-      <c r="H247" s="33"/>
+      <c r="A247" s="27"/>
+      <c r="B247" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C247" s="30"/>
+      <c r="D247" s="30"/>
+      <c r="E247" s="30"/>
+      <c r="F247" s="30"/>
+      <c r="G247" s="31"/>
+      <c r="H247" s="32"/>
       <c r="I247" s="7"/>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
@@ -10024,16 +10022,16 @@
       <c r="R247" s="1"/>
     </row>
     <row r="248" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="B248" s="77"/>
-      <c r="C248" s="77"/>
-      <c r="D248" s="77"/>
-      <c r="E248" s="77"/>
-      <c r="F248" s="77"/>
-      <c r="G248" s="69"/>
-      <c r="H248" s="69"/>
+      <c r="A248" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="B248" s="76"/>
+      <c r="C248" s="76"/>
+      <c r="D248" s="76"/>
+      <c r="E248" s="76"/>
+      <c r="F248" s="76"/>
+      <c r="G248" s="68"/>
+      <c r="H248" s="68"/>
       <c r="I248" s="7"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
@@ -10046,7 +10044,7 @@
       <c r="R248" s="1"/>
     </row>
     <row r="249" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="28"/>
+      <c r="A249" s="27"/>
       <c r="B249" s="25"/>
       <c r="C249" s="25"/>
       <c r="D249" s="25"/>
@@ -10066,7 +10064,7 @@
       <c r="R249" s="1"/>
     </row>
     <row r="250" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="28"/>
+      <c r="A250" s="27"/>
       <c r="B250" s="25"/>
       <c r="C250" s="25"/>
       <c r="D250" s="25"/>
@@ -10086,7 +10084,7 @@
       <c r="R250" s="1"/>
     </row>
     <row r="251" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="28"/>
+      <c r="A251" s="27"/>
       <c r="B251" s="25"/>
       <c r="C251" s="25"/>
       <c r="D251" s="25"/>
@@ -10106,7 +10104,7 @@
       <c r="R251" s="1"/>
     </row>
     <row r="252" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="28"/>
+      <c r="A252" s="27"/>
       <c r="B252" s="25"/>
       <c r="C252" s="25"/>
       <c r="D252" s="25"/>
@@ -10126,7 +10124,7 @@
       <c r="R252" s="1"/>
     </row>
     <row r="253" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="28"/>
+      <c r="A253" s="27"/>
       <c r="B253" s="25"/>
       <c r="C253" s="25"/>
       <c r="D253" s="25"/>
@@ -10146,16 +10144,16 @@
       <c r="R253" s="1"/>
     </row>
     <row r="254" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="28"/>
-      <c r="B254" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C254" s="31"/>
-      <c r="D254" s="31"/>
-      <c r="E254" s="31"/>
-      <c r="F254" s="31"/>
-      <c r="G254" s="32"/>
-      <c r="H254" s="33"/>
+      <c r="A254" s="27"/>
+      <c r="B254" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C254" s="30"/>
+      <c r="D254" s="30"/>
+      <c r="E254" s="30"/>
+      <c r="F254" s="30"/>
+      <c r="G254" s="31"/>
+      <c r="H254" s="32"/>
       <c r="I254" s="7"/>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
@@ -10168,16 +10166,16 @@
       <c r="R254" s="1"/>
     </row>
     <row r="255" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="B255" s="77"/>
-      <c r="C255" s="77"/>
-      <c r="D255" s="77"/>
-      <c r="E255" s="77"/>
-      <c r="F255" s="77"/>
-      <c r="G255" s="69"/>
-      <c r="H255" s="69"/>
+      <c r="A255" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B255" s="76"/>
+      <c r="C255" s="76"/>
+      <c r="D255" s="76"/>
+      <c r="E255" s="76"/>
+      <c r="F255" s="76"/>
+      <c r="G255" s="68"/>
+      <c r="H255" s="68"/>
       <c r="I255" s="7"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
@@ -10190,7 +10188,7 @@
       <c r="R255" s="1"/>
     </row>
     <row r="256" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="28"/>
+      <c r="A256" s="27"/>
       <c r="B256" s="25"/>
       <c r="C256" s="25"/>
       <c r="D256" s="25"/>
@@ -10210,7 +10208,7 @@
       <c r="R256" s="1"/>
     </row>
     <row r="257" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="28"/>
+      <c r="A257" s="27"/>
       <c r="B257" s="25"/>
       <c r="C257" s="25"/>
       <c r="D257" s="25"/>
@@ -10230,7 +10228,7 @@
       <c r="R257" s="1"/>
     </row>
     <row r="258" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="28"/>
+      <c r="A258" s="27"/>
       <c r="B258" s="25"/>
       <c r="C258" s="25"/>
       <c r="D258" s="25"/>
@@ -10250,7 +10248,7 @@
       <c r="R258" s="1"/>
     </row>
     <row r="259" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="28"/>
+      <c r="A259" s="27"/>
       <c r="B259" s="25"/>
       <c r="C259" s="25"/>
       <c r="D259" s="25"/>
@@ -10270,7 +10268,7 @@
       <c r="R259" s="1"/>
     </row>
     <row r="260" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="28"/>
+      <c r="A260" s="27"/>
       <c r="B260" s="25"/>
       <c r="C260" s="25"/>
       <c r="D260" s="25"/>
@@ -10290,16 +10288,16 @@
       <c r="R260" s="1"/>
     </row>
     <row r="261" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="28"/>
-      <c r="B261" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C261" s="31"/>
-      <c r="D261" s="31"/>
-      <c r="E261" s="31"/>
-      <c r="F261" s="31"/>
-      <c r="G261" s="32"/>
-      <c r="H261" s="33"/>
+      <c r="A261" s="27"/>
+      <c r="B261" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C261" s="30"/>
+      <c r="D261" s="30"/>
+      <c r="E261" s="30"/>
+      <c r="F261" s="30"/>
+      <c r="G261" s="31"/>
+      <c r="H261" s="32"/>
       <c r="I261" s="7"/>
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
@@ -10312,16 +10310,16 @@
       <c r="R261" s="1"/>
     </row>
     <row r="262" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="B262" s="77"/>
-      <c r="C262" s="77"/>
-      <c r="D262" s="77"/>
-      <c r="E262" s="77"/>
-      <c r="F262" s="77"/>
-      <c r="G262" s="69"/>
-      <c r="H262" s="69"/>
+      <c r="A262" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B262" s="76"/>
+      <c r="C262" s="76"/>
+      <c r="D262" s="76"/>
+      <c r="E262" s="76"/>
+      <c r="F262" s="76"/>
+      <c r="G262" s="68"/>
+      <c r="H262" s="68"/>
       <c r="I262" s="7"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
@@ -10334,7 +10332,7 @@
       <c r="R262" s="1"/>
     </row>
     <row r="263" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="28"/>
+      <c r="A263" s="27"/>
       <c r="B263" s="25"/>
       <c r="C263" s="25"/>
       <c r="D263" s="25"/>
@@ -10354,7 +10352,7 @@
       <c r="R263" s="1"/>
     </row>
     <row r="264" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="28"/>
+      <c r="A264" s="27"/>
       <c r="B264" s="25"/>
       <c r="C264" s="25"/>
       <c r="D264" s="25"/>
@@ -10374,7 +10372,7 @@
       <c r="R264" s="1"/>
     </row>
     <row r="265" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="28"/>
+      <c r="A265" s="27"/>
       <c r="B265" s="25"/>
       <c r="C265" s="25"/>
       <c r="D265" s="25"/>
@@ -10394,7 +10392,7 @@
       <c r="R265" s="1"/>
     </row>
     <row r="266" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="28"/>
+      <c r="A266" s="27"/>
       <c r="B266" s="25"/>
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
@@ -10414,7 +10412,7 @@
       <c r="R266" s="1"/>
     </row>
     <row r="267" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="28"/>
+      <c r="A267" s="27"/>
       <c r="B267" s="25"/>
       <c r="C267" s="25"/>
       <c r="D267" s="25"/>
@@ -10434,16 +10432,16 @@
       <c r="R267" s="1"/>
     </row>
     <row r="268" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="28"/>
-      <c r="B268" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C268" s="31"/>
-      <c r="D268" s="31"/>
-      <c r="E268" s="31"/>
-      <c r="F268" s="31"/>
-      <c r="G268" s="32"/>
-      <c r="H268" s="33"/>
+      <c r="A268" s="27"/>
+      <c r="B268" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C268" s="30"/>
+      <c r="D268" s="30"/>
+      <c r="E268" s="30"/>
+      <c r="F268" s="30"/>
+      <c r="G268" s="31"/>
+      <c r="H268" s="32"/>
       <c r="I268" s="7"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
@@ -10456,16 +10454,16 @@
       <c r="R268" s="1"/>
     </row>
     <row r="269" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="B269" s="77"/>
-      <c r="C269" s="77"/>
-      <c r="D269" s="77"/>
-      <c r="E269" s="77"/>
-      <c r="F269" s="77"/>
-      <c r="G269" s="69"/>
-      <c r="H269" s="69"/>
+      <c r="A269" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="B269" s="76"/>
+      <c r="C269" s="76"/>
+      <c r="D269" s="76"/>
+      <c r="E269" s="76"/>
+      <c r="F269" s="76"/>
+      <c r="G269" s="68"/>
+      <c r="H269" s="68"/>
       <c r="I269" s="7"/>
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
@@ -10478,7 +10476,7 @@
       <c r="R269" s="1"/>
     </row>
     <row r="270" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="28"/>
+      <c r="A270" s="27"/>
       <c r="B270" s="25"/>
       <c r="C270" s="25"/>
       <c r="D270" s="25"/>
@@ -10498,7 +10496,7 @@
       <c r="R270" s="1"/>
     </row>
     <row r="271" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="28"/>
+      <c r="A271" s="27"/>
       <c r="B271" s="25"/>
       <c r="C271" s="25"/>
       <c r="D271" s="25"/>
@@ -10518,7 +10516,7 @@
       <c r="R271" s="1"/>
     </row>
     <row r="272" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="28"/>
+      <c r="A272" s="27"/>
       <c r="B272" s="25"/>
       <c r="C272" s="25"/>
       <c r="D272" s="25"/>
@@ -10538,7 +10536,7 @@
       <c r="R272" s="1"/>
     </row>
     <row r="273" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="28"/>
+      <c r="A273" s="27"/>
       <c r="B273" s="25"/>
       <c r="C273" s="25"/>
       <c r="D273" s="25"/>
@@ -10558,7 +10556,7 @@
       <c r="R273" s="1"/>
     </row>
     <row r="274" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="28"/>
+      <c r="A274" s="27"/>
       <c r="B274" s="25"/>
       <c r="C274" s="25"/>
       <c r="D274" s="25"/>
@@ -10578,16 +10576,16 @@
       <c r="R274" s="1"/>
     </row>
     <row r="275" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="28"/>
-      <c r="B275" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C275" s="31"/>
-      <c r="D275" s="31"/>
-      <c r="E275" s="31"/>
-      <c r="F275" s="31"/>
-      <c r="G275" s="32"/>
-      <c r="H275" s="33"/>
+      <c r="A275" s="27"/>
+      <c r="B275" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C275" s="30"/>
+      <c r="D275" s="30"/>
+      <c r="E275" s="30"/>
+      <c r="F275" s="30"/>
+      <c r="G275" s="31"/>
+      <c r="H275" s="32"/>
       <c r="I275" s="7"/>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
@@ -10600,16 +10598,16 @@
       <c r="R275" s="1"/>
     </row>
     <row r="276" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="B276" s="77"/>
-      <c r="C276" s="77"/>
-      <c r="D276" s="77"/>
-      <c r="E276" s="77"/>
-      <c r="F276" s="77"/>
-      <c r="G276" s="69"/>
-      <c r="H276" s="69"/>
+      <c r="A276" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="B276" s="76"/>
+      <c r="C276" s="76"/>
+      <c r="D276" s="76"/>
+      <c r="E276" s="76"/>
+      <c r="F276" s="76"/>
+      <c r="G276" s="68"/>
+      <c r="H276" s="68"/>
       <c r="I276" s="7"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
@@ -10622,7 +10620,7 @@
       <c r="R276" s="1"/>
     </row>
     <row r="277" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="28"/>
+      <c r="A277" s="27"/>
       <c r="B277" s="25"/>
       <c r="C277" s="25"/>
       <c r="D277" s="25"/>
@@ -10642,7 +10640,7 @@
       <c r="R277" s="1"/>
     </row>
     <row r="278" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="28"/>
+      <c r="A278" s="27"/>
       <c r="B278" s="25"/>
       <c r="C278" s="25"/>
       <c r="D278" s="25"/>
@@ -10662,7 +10660,7 @@
       <c r="R278" s="1"/>
     </row>
     <row r="279" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="28"/>
+      <c r="A279" s="27"/>
       <c r="B279" s="25"/>
       <c r="C279" s="25"/>
       <c r="D279" s="25"/>
@@ -10682,7 +10680,7 @@
       <c r="R279" s="1"/>
     </row>
     <row r="280" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="28"/>
+      <c r="A280" s="27"/>
       <c r="B280" s="25"/>
       <c r="C280" s="25"/>
       <c r="D280" s="25"/>
@@ -10702,7 +10700,7 @@
       <c r="R280" s="1"/>
     </row>
     <row r="281" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="28"/>
+      <c r="A281" s="27"/>
       <c r="B281" s="25"/>
       <c r="C281" s="25"/>
       <c r="D281" s="25"/>
@@ -10722,16 +10720,16 @@
       <c r="R281" s="1"/>
     </row>
     <row r="282" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="28"/>
-      <c r="B282" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C282" s="31"/>
-      <c r="D282" s="31"/>
-      <c r="E282" s="31"/>
-      <c r="F282" s="31"/>
-      <c r="G282" s="32"/>
-      <c r="H282" s="33"/>
+      <c r="A282" s="27"/>
+      <c r="B282" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C282" s="30"/>
+      <c r="D282" s="30"/>
+      <c r="E282" s="30"/>
+      <c r="F282" s="30"/>
+      <c r="G282" s="31"/>
+      <c r="H282" s="32"/>
       <c r="I282" s="7"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
@@ -10744,16 +10742,16 @@
       <c r="R282" s="1"/>
     </row>
     <row r="283" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="B283" s="77"/>
-      <c r="C283" s="77"/>
-      <c r="D283" s="77"/>
-      <c r="E283" s="77"/>
-      <c r="F283" s="77"/>
-      <c r="G283" s="69"/>
-      <c r="H283" s="69"/>
+      <c r="A283" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="B283" s="76"/>
+      <c r="C283" s="76"/>
+      <c r="D283" s="76"/>
+      <c r="E283" s="76"/>
+      <c r="F283" s="76"/>
+      <c r="G283" s="68"/>
+      <c r="H283" s="68"/>
       <c r="I283" s="7"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
@@ -10766,7 +10764,7 @@
       <c r="R283" s="1"/>
     </row>
     <row r="284" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="28"/>
+      <c r="A284" s="27"/>
       <c r="B284" s="25"/>
       <c r="C284" s="25"/>
       <c r="D284" s="25"/>
@@ -10786,7 +10784,7 @@
       <c r="R284" s="1"/>
     </row>
     <row r="285" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="28"/>
+      <c r="A285" s="27"/>
       <c r="B285" s="25"/>
       <c r="C285" s="25"/>
       <c r="D285" s="25"/>
@@ -10806,7 +10804,7 @@
       <c r="R285" s="1"/>
     </row>
     <row r="286" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="28"/>
+      <c r="A286" s="27"/>
       <c r="B286" s="25"/>
       <c r="C286" s="25"/>
       <c r="D286" s="25"/>
@@ -10826,7 +10824,7 @@
       <c r="R286" s="1"/>
     </row>
     <row r="287" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="28"/>
+      <c r="A287" s="27"/>
       <c r="B287" s="25"/>
       <c r="C287" s="25"/>
       <c r="D287" s="25"/>
@@ -10846,7 +10844,7 @@
       <c r="R287" s="1"/>
     </row>
     <row r="288" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="28"/>
+      <c r="A288" s="27"/>
       <c r="B288" s="25"/>
       <c r="C288" s="25"/>
       <c r="D288" s="25"/>
@@ -10866,16 +10864,16 @@
       <c r="R288" s="1"/>
     </row>
     <row r="289" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="28"/>
-      <c r="B289" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C289" s="31"/>
-      <c r="D289" s="31"/>
-      <c r="E289" s="31"/>
-      <c r="F289" s="31"/>
-      <c r="G289" s="32"/>
-      <c r="H289" s="33"/>
+      <c r="A289" s="27"/>
+      <c r="B289" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C289" s="30"/>
+      <c r="D289" s="30"/>
+      <c r="E289" s="30"/>
+      <c r="F289" s="30"/>
+      <c r="G289" s="31"/>
+      <c r="H289" s="32"/>
       <c r="I289" s="7"/>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
@@ -10888,16 +10886,16 @@
       <c r="R289" s="1"/>
     </row>
     <row r="290" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="B290" s="77"/>
-      <c r="C290" s="77"/>
-      <c r="D290" s="77"/>
-      <c r="E290" s="77"/>
-      <c r="F290" s="77"/>
-      <c r="G290" s="69"/>
-      <c r="H290" s="69"/>
+      <c r="A290" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B290" s="76"/>
+      <c r="C290" s="76"/>
+      <c r="D290" s="76"/>
+      <c r="E290" s="76"/>
+      <c r="F290" s="76"/>
+      <c r="G290" s="68"/>
+      <c r="H290" s="68"/>
       <c r="I290" s="7"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
@@ -10910,7 +10908,7 @@
       <c r="R290" s="1"/>
     </row>
     <row r="291" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="28"/>
+      <c r="A291" s="27"/>
       <c r="B291" s="25"/>
       <c r="C291" s="25"/>
       <c r="D291" s="25"/>
@@ -10930,7 +10928,7 @@
       <c r="R291" s="1"/>
     </row>
     <row r="292" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="28"/>
+      <c r="A292" s="27"/>
       <c r="B292" s="25"/>
       <c r="C292" s="25"/>
       <c r="D292" s="25"/>
@@ -10950,7 +10948,7 @@
       <c r="R292" s="1"/>
     </row>
     <row r="293" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="28"/>
+      <c r="A293" s="27"/>
       <c r="B293" s="25"/>
       <c r="C293" s="25"/>
       <c r="D293" s="25"/>
@@ -10970,7 +10968,7 @@
       <c r="R293" s="1"/>
     </row>
     <row r="294" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="28"/>
+      <c r="A294" s="27"/>
       <c r="B294" s="25"/>
       <c r="C294" s="25"/>
       <c r="D294" s="25"/>
@@ -10990,7 +10988,7 @@
       <c r="R294" s="1"/>
     </row>
     <row r="295" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="28"/>
+      <c r="A295" s="27"/>
       <c r="B295" s="25"/>
       <c r="C295" s="25"/>
       <c r="D295" s="25"/>
@@ -11010,16 +11008,16 @@
       <c r="R295" s="1"/>
     </row>
     <row r="296" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="28"/>
-      <c r="B296" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C296" s="31"/>
-      <c r="D296" s="31"/>
-      <c r="E296" s="31"/>
-      <c r="F296" s="31"/>
-      <c r="G296" s="32"/>
-      <c r="H296" s="33"/>
+      <c r="A296" s="27"/>
+      <c r="B296" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C296" s="30"/>
+      <c r="D296" s="30"/>
+      <c r="E296" s="30"/>
+      <c r="F296" s="30"/>
+      <c r="G296" s="31"/>
+      <c r="H296" s="32"/>
       <c r="I296" s="7"/>
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
@@ -11032,16 +11030,16 @@
       <c r="R296" s="1"/>
     </row>
     <row r="297" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="B297" s="77"/>
-      <c r="C297" s="77"/>
-      <c r="D297" s="77"/>
-      <c r="E297" s="77"/>
-      <c r="F297" s="77"/>
-      <c r="G297" s="69"/>
-      <c r="H297" s="69"/>
+      <c r="A297" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B297" s="76"/>
+      <c r="C297" s="76"/>
+      <c r="D297" s="76"/>
+      <c r="E297" s="76"/>
+      <c r="F297" s="76"/>
+      <c r="G297" s="68"/>
+      <c r="H297" s="68"/>
       <c r="I297" s="7"/>
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
@@ -11054,7 +11052,7 @@
       <c r="R297" s="1"/>
     </row>
     <row r="298" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="28"/>
+      <c r="A298" s="27"/>
       <c r="B298" s="25"/>
       <c r="C298" s="25"/>
       <c r="D298" s="25"/>
@@ -11074,7 +11072,7 @@
       <c r="R298" s="1"/>
     </row>
     <row r="299" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="28"/>
+      <c r="A299" s="27"/>
       <c r="B299" s="25"/>
       <c r="C299" s="25"/>
       <c r="D299" s="25"/>
@@ -11094,7 +11092,7 @@
       <c r="R299" s="1"/>
     </row>
     <row r="300" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="28"/>
+      <c r="A300" s="27"/>
       <c r="B300" s="25"/>
       <c r="C300" s="25"/>
       <c r="D300" s="25"/>
@@ -11114,7 +11112,7 @@
       <c r="R300" s="1"/>
     </row>
     <row r="301" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="28"/>
+      <c r="A301" s="27"/>
       <c r="B301" s="25"/>
       <c r="C301" s="25"/>
       <c r="D301" s="25"/>
@@ -11134,7 +11132,7 @@
       <c r="R301" s="1"/>
     </row>
     <row r="302" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="28"/>
+      <c r="A302" s="27"/>
       <c r="B302" s="25"/>
       <c r="C302" s="25"/>
       <c r="D302" s="25"/>
@@ -11154,16 +11152,16 @@
       <c r="R302" s="1"/>
     </row>
     <row r="303" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="28"/>
-      <c r="B303" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C303" s="31"/>
-      <c r="D303" s="31"/>
-      <c r="E303" s="31"/>
-      <c r="F303" s="31"/>
-      <c r="G303" s="32"/>
-      <c r="H303" s="33"/>
+      <c r="A303" s="27"/>
+      <c r="B303" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C303" s="30"/>
+      <c r="D303" s="30"/>
+      <c r="E303" s="30"/>
+      <c r="F303" s="30"/>
+      <c r="G303" s="31"/>
+      <c r="H303" s="32"/>
       <c r="I303" s="7"/>
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
@@ -11176,16 +11174,16 @@
       <c r="R303" s="1"/>
     </row>
     <row r="304" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="B304" s="77"/>
-      <c r="C304" s="77"/>
-      <c r="D304" s="77"/>
-      <c r="E304" s="77"/>
-      <c r="F304" s="77"/>
-      <c r="G304" s="69"/>
-      <c r="H304" s="69"/>
+      <c r="A304" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B304" s="76"/>
+      <c r="C304" s="76"/>
+      <c r="D304" s="76"/>
+      <c r="E304" s="76"/>
+      <c r="F304" s="76"/>
+      <c r="G304" s="68"/>
+      <c r="H304" s="68"/>
       <c r="I304" s="7"/>
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
@@ -11198,7 +11196,7 @@
       <c r="R304" s="1"/>
     </row>
     <row r="305" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="28"/>
+      <c r="A305" s="27"/>
       <c r="B305" s="25"/>
       <c r="C305" s="25"/>
       <c r="D305" s="25"/>
@@ -11218,7 +11216,7 @@
       <c r="R305" s="1"/>
     </row>
     <row r="306" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="28"/>
+      <c r="A306" s="27"/>
       <c r="B306" s="25"/>
       <c r="C306" s="25"/>
       <c r="D306" s="25"/>
@@ -11238,7 +11236,7 @@
       <c r="R306" s="1"/>
     </row>
     <row r="307" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="28"/>
+      <c r="A307" s="27"/>
       <c r="B307" s="25"/>
       <c r="C307" s="25"/>
       <c r="D307" s="25"/>
@@ -11258,7 +11256,7 @@
       <c r="R307" s="1"/>
     </row>
     <row r="308" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="28"/>
+      <c r="A308" s="27"/>
       <c r="B308" s="25"/>
       <c r="C308" s="25"/>
       <c r="D308" s="25"/>
@@ -11278,7 +11276,7 @@
       <c r="R308" s="1"/>
     </row>
     <row r="309" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="28"/>
+      <c r="A309" s="27"/>
       <c r="B309" s="25"/>
       <c r="C309" s="25"/>
       <c r="D309" s="25"/>
@@ -11298,16 +11296,16 @@
       <c r="R309" s="1"/>
     </row>
     <row r="310" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="28"/>
-      <c r="B310" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C310" s="31"/>
-      <c r="D310" s="31"/>
-      <c r="E310" s="31"/>
-      <c r="F310" s="31"/>
-      <c r="G310" s="32"/>
-      <c r="H310" s="33"/>
+      <c r="A310" s="27"/>
+      <c r="B310" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C310" s="30"/>
+      <c r="D310" s="30"/>
+      <c r="E310" s="30"/>
+      <c r="F310" s="30"/>
+      <c r="G310" s="31"/>
+      <c r="H310" s="32"/>
       <c r="I310" s="7"/>
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
@@ -11320,16 +11318,16 @@
       <c r="R310" s="1"/>
     </row>
     <row r="311" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="B311" s="77"/>
-      <c r="C311" s="77"/>
-      <c r="D311" s="77"/>
-      <c r="E311" s="77"/>
-      <c r="F311" s="77"/>
-      <c r="G311" s="69"/>
-      <c r="H311" s="69"/>
+      <c r="A311" s="72" t="s">
+        <v>92</v>
+      </c>
+      <c r="B311" s="76"/>
+      <c r="C311" s="76"/>
+      <c r="D311" s="76"/>
+      <c r="E311" s="76"/>
+      <c r="F311" s="76"/>
+      <c r="G311" s="68"/>
+      <c r="H311" s="68"/>
       <c r="I311" s="7"/>
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
@@ -11342,7 +11340,7 @@
       <c r="R311" s="1"/>
     </row>
     <row r="312" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="28"/>
+      <c r="A312" s="27"/>
       <c r="B312" s="25"/>
       <c r="C312" s="25"/>
       <c r="D312" s="25"/>
@@ -11362,7 +11360,7 @@
       <c r="R312" s="1"/>
     </row>
     <row r="313" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="28"/>
+      <c r="A313" s="27"/>
       <c r="B313" s="25"/>
       <c r="C313" s="25"/>
       <c r="D313" s="25"/>
@@ -11382,7 +11380,7 @@
       <c r="R313" s="1"/>
     </row>
     <row r="314" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="28"/>
+      <c r="A314" s="27"/>
       <c r="B314" s="25"/>
       <c r="C314" s="25"/>
       <c r="D314" s="25"/>
@@ -11402,7 +11400,7 @@
       <c r="R314" s="1"/>
     </row>
     <row r="315" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="28"/>
+      <c r="A315" s="27"/>
       <c r="B315" s="25"/>
       <c r="C315" s="25"/>
       <c r="D315" s="25"/>
@@ -11422,7 +11420,7 @@
       <c r="R315" s="1"/>
     </row>
     <row r="316" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="28"/>
+      <c r="A316" s="27"/>
       <c r="B316" s="25"/>
       <c r="C316" s="25"/>
       <c r="D316" s="25"/>
@@ -11442,16 +11440,16 @@
       <c r="R316" s="1"/>
     </row>
     <row r="317" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="28"/>
-      <c r="B317" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C317" s="31"/>
-      <c r="D317" s="31"/>
-      <c r="E317" s="31"/>
-      <c r="F317" s="31"/>
-      <c r="G317" s="32"/>
-      <c r="H317" s="33"/>
+      <c r="A317" s="27"/>
+      <c r="B317" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C317" s="30"/>
+      <c r="D317" s="30"/>
+      <c r="E317" s="30"/>
+      <c r="F317" s="30"/>
+      <c r="G317" s="31"/>
+      <c r="H317" s="32"/>
       <c r="I317" s="7"/>
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
@@ -11464,16 +11462,16 @@
       <c r="R317" s="1"/>
     </row>
     <row r="318" spans="1:18" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="B318" s="77"/>
-      <c r="C318" s="77"/>
-      <c r="D318" s="77"/>
-      <c r="E318" s="77"/>
-      <c r="F318" s="77"/>
-      <c r="G318" s="69"/>
-      <c r="H318" s="69"/>
+      <c r="A318" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="B318" s="76"/>
+      <c r="C318" s="76"/>
+      <c r="D318" s="76"/>
+      <c r="E318" s="76"/>
+      <c r="F318" s="76"/>
+      <c r="G318" s="68"/>
+      <c r="H318" s="68"/>
       <c r="I318" s="7"/>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
@@ -11486,7 +11484,7 @@
       <c r="R318" s="1"/>
     </row>
     <row r="319" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="28"/>
+      <c r="A319" s="27"/>
       <c r="B319" s="25"/>
       <c r="C319" s="25"/>
       <c r="D319" s="25"/>
@@ -11506,7 +11504,7 @@
       <c r="R319" s="1"/>
     </row>
     <row r="320" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="28"/>
+      <c r="A320" s="27"/>
       <c r="B320" s="25"/>
       <c r="C320" s="25"/>
       <c r="D320" s="25"/>
@@ -11526,7 +11524,7 @@
       <c r="R320" s="1"/>
     </row>
     <row r="321" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="28"/>
+      <c r="A321" s="27"/>
       <c r="B321" s="25"/>
       <c r="C321" s="25"/>
       <c r="D321" s="25"/>
@@ -11546,7 +11544,7 @@
       <c r="R321" s="1"/>
     </row>
     <row r="322" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="28"/>
+      <c r="A322" s="27"/>
       <c r="B322" s="25"/>
       <c r="C322" s="25"/>
       <c r="D322" s="25"/>
@@ -11566,7 +11564,7 @@
       <c r="R322" s="1"/>
     </row>
     <row r="323" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="28"/>
+      <c r="A323" s="27"/>
       <c r="B323" s="25"/>
       <c r="C323" s="25"/>
       <c r="D323" s="25"/>
@@ -11586,16 +11584,16 @@
       <c r="R323" s="1"/>
     </row>
     <row r="324" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="28"/>
-      <c r="B324" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C324" s="31"/>
-      <c r="D324" s="31"/>
-      <c r="E324" s="31"/>
-      <c r="F324" s="31"/>
-      <c r="G324" s="32"/>
-      <c r="H324" s="33"/>
+      <c r="A324" s="27"/>
+      <c r="B324" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C324" s="30"/>
+      <c r="D324" s="30"/>
+      <c r="E324" s="30"/>
+      <c r="F324" s="30"/>
+      <c r="G324" s="31"/>
+      <c r="H324" s="32"/>
       <c r="I324" s="7"/>
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
@@ -11609,15 +11607,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" location="heading=h.n5iz324zd76p" display="https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1/ - heading=h.n5iz324zd76p"/>
-    <hyperlink ref="D13" r:id="rId2" location="heading=h.pdmrbg6bicr7" display="https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1/ - heading=h.pdmrbg6bicr7"/>
-    <hyperlink ref="D27" r:id="rId3" display="https://drive.google.com/open?id=1vfETlzbkCwqKra6CKWoT61dP-rYr3j0QCKXAng5ih6A&amp;authuser=1"/>
-    <hyperlink ref="D41" r:id="rId4" display="https://drive.google.com/open?id=1dSfe8U3m82sh8eTreXsch_e-gteedhMAUBDve1W4JEI&amp;authuser=1"/>
-    <hyperlink ref="D48" r:id="rId5" display="https://drive.google.com/open?id=1GynjhG2dFBfIGeXDx5XA0vWmVijelrFqO8jUd4g_pU0&amp;authuser=1"/>
-    <hyperlink ref="D55" r:id="rId6" location="heading=h.lz5z2m18x9hc" display="https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1/ - heading=h.lz5z2m18x9hc"/>
-    <hyperlink ref="D76" r:id="rId7" location="heading=h.tnnwjg1707az" display="https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1/ - heading=h.tnnwjg1707az"/>
-    <hyperlink ref="D83" r:id="rId8" display="https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1"/>
-    <hyperlink ref="D104" r:id="rId9" display="https://drive.google.com/open?id=1vfETlzbkCwqKra6CKWoT61dP-rYr3j0QCKXAng5ih6A&amp;authuser=1"/>
+    <hyperlink ref="D13" r:id="rId1" location="heading=h.pdmrbg6bicr7" display="https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1/ - heading=h.pdmrbg6bicr7"/>
+    <hyperlink ref="D27" r:id="rId2" display="https://drive.google.com/open?id=1vfETlzbkCwqKra6CKWoT61dP-rYr3j0QCKXAng5ih6A&amp;authuser=1"/>
+    <hyperlink ref="D41" r:id="rId3" display="https://drive.google.com/open?id=1dSfe8U3m82sh8eTreXsch_e-gteedhMAUBDve1W4JEI&amp;authuser=1"/>
+    <hyperlink ref="D48" r:id="rId4" display="https://drive.google.com/open?id=1GynjhG2dFBfIGeXDx5XA0vWmVijelrFqO8jUd4g_pU0&amp;authuser=1"/>
+    <hyperlink ref="D55" r:id="rId5" location="heading=h.lz5z2m18x9hc" display="https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1/ - heading=h.lz5z2m18x9hc"/>
+    <hyperlink ref="D76" r:id="rId6" location="heading=h.tnnwjg1707az" display="https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1/ - heading=h.tnnwjg1707az"/>
+    <hyperlink ref="D83" r:id="rId7" display="https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1"/>
+    <hyperlink ref="D104" r:id="rId8" display="https://drive.google.com/open?id=1vfETlzbkCwqKra6CKWoT61dP-rYr3j0QCKXAng5ih6A&amp;authuser=1"/>
+    <hyperlink ref="D6" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PLA-Planilha de Avaliação .xlsx
+++ b/PLA-Planilha de Avaliação .xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="105">
   <si>
     <t>INSTRUÇÕES</t>
   </si>
@@ -383,12 +383,15 @@
   <si>
     <t>Plano de Projeto Seção 5</t>
   </si>
+  <si>
+    <t>Plano de Projeto Seção 7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -491,6 +494,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -930,7 +940,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1169,6 +1179,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4795,8 +4808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R324"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5091,11 +5104,10 @@
         <v>17</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="26" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1/#heading=h.pdmrbg6bicr7","x")</f>
-        <v>x</v>
-      </c>
-      <c r="E13" s="34"/>
+      <c r="D13" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="77"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -5235,13 +5247,17 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="25"/>
+      <c r="A20" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>17</v>
+      </c>
       <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="37"/>
+      <c r="D20" s="84" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="77"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
@@ -5358,7 +5374,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
         <v>31</v>
       </c>
@@ -5388,9 +5404,8 @@
         <v>32</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="26" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1vfETlzbkCwqKra6CKWoT61dP-rYr3j0QCKXAng5ih6A&amp;authuser=1","x")</f>
-        <v>x</v>
+      <c r="D27" s="86" t="s">
+        <v>97</v>
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="25"/>
@@ -11607,16 +11622,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D13" r:id="rId1" location="heading=h.pdmrbg6bicr7" display="https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1/ - heading=h.pdmrbg6bicr7"/>
-    <hyperlink ref="D27" r:id="rId2" display="https://drive.google.com/open?id=1vfETlzbkCwqKra6CKWoT61dP-rYr3j0QCKXAng5ih6A&amp;authuser=1"/>
-    <hyperlink ref="D41" r:id="rId3" display="https://drive.google.com/open?id=1dSfe8U3m82sh8eTreXsch_e-gteedhMAUBDve1W4JEI&amp;authuser=1"/>
-    <hyperlink ref="D48" r:id="rId4" display="https://drive.google.com/open?id=1GynjhG2dFBfIGeXDx5XA0vWmVijelrFqO8jUd4g_pU0&amp;authuser=1"/>
-    <hyperlink ref="D55" r:id="rId5" location="heading=h.lz5z2m18x9hc" display="https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1/ - heading=h.lz5z2m18x9hc"/>
-    <hyperlink ref="D76" r:id="rId6" location="heading=h.tnnwjg1707az" display="https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1/ - heading=h.tnnwjg1707az"/>
-    <hyperlink ref="D83" r:id="rId7" display="https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1"/>
-    <hyperlink ref="D104" r:id="rId8" display="https://drive.google.com/open?id=1vfETlzbkCwqKra6CKWoT61dP-rYr3j0QCKXAng5ih6A&amp;authuser=1"/>
-    <hyperlink ref="D6" r:id="rId9"/>
+    <hyperlink ref="D41" r:id="rId1" display="https://drive.google.com/open?id=1dSfe8U3m82sh8eTreXsch_e-gteedhMAUBDve1W4JEI&amp;authuser=1"/>
+    <hyperlink ref="D48" r:id="rId2" display="https://drive.google.com/open?id=1GynjhG2dFBfIGeXDx5XA0vWmVijelrFqO8jUd4g_pU0&amp;authuser=1"/>
+    <hyperlink ref="D55" r:id="rId3" location="heading=h.lz5z2m18x9hc" display="https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1/ - heading=h.lz5z2m18x9hc"/>
+    <hyperlink ref="D76" r:id="rId4" location="heading=h.tnnwjg1707az" display="https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1/ - heading=h.tnnwjg1707az"/>
+    <hyperlink ref="D83" r:id="rId5" display="https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1"/>
+    <hyperlink ref="D104" r:id="rId6" display="https://drive.google.com/open?id=1vfETlzbkCwqKra6CKWoT61dP-rYr3j0QCKXAng5ih6A&amp;authuser=1"/>
+    <hyperlink ref="D6" r:id="rId7"/>
+    <hyperlink ref="D13" r:id="rId8"/>
+    <hyperlink ref="D20" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
--- a/PLA-Planilha de Avaliação .xlsx
+++ b/PLA-Planilha de Avaliação .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17235" windowHeight="7830" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17235" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instruções para preenchimento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="107">
   <si>
     <t>INSTRUÇÕES</t>
   </si>
@@ -83,9 +83,6 @@
   <si>
     <t>GPR 2. As tarefas e os produtos de trabalho do projeto são dimensionados utilizando métodos apropriados.
 As evidências apresentadas para este resultado permitem assegurar que o tamanho e/ou a complexidade das tarefas e dos artefatos gerados no projeto foram estimados utilizando métodos adequados (ex: baseados na EAP ou estrutura equivalente, em técnicas de estimativa ou em dados históricos)?</t>
-  </si>
-  <si>
-    <t>Plano de Projeto Seção 9</t>
   </si>
   <si>
     <t>Coluna C - ORG: Utilizado pela empresa para assinalar um "x" quando a evidência objetiva corresponde a toda a organização.</t>
@@ -363,9 +360,6 @@
     <t>Aprovacao</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Aprovação Equipe</t>
   </si>
   <si>
@@ -385,6 +379,18 @@
   </si>
   <si>
     <t>Plano de Projeto Seção 7</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>obs: não foram detectadas inconsistencias</t>
+  </si>
+  <si>
+    <t>obs: não foram efetuadas mudanças nos requisitos</t>
+  </si>
+  <si>
+    <t>Plano de Projeto Seção 10</t>
   </si>
 </sst>
 </file>
@@ -447,18 +453,6 @@
     <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
@@ -501,6 +495,18 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -938,9 +944,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1058,16 +1064,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1097,61 +1097,61 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1163,26 +1163,35 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1557,7 +1566,7 @@
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -1573,7 +1582,7 @@
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1589,7 +1598,7 @@
     <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1605,7 +1614,7 @@
     <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -1621,7 +1630,7 @@
     <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -1637,7 +1646,7 @@
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1653,7 +1662,7 @@
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -1787,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R142"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1883,7 +1892,7 @@
     </row>
     <row r="4" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="39"/>
@@ -1905,11 +1914,11 @@
     </row>
     <row r="5" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="79"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
@@ -1927,16 +1936,16 @@
     </row>
     <row r="6" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="77"/>
+        <v>93</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="75"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -1953,14 +1962,14 @@
     </row>
     <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="81" t="s">
-        <v>97</v>
+      <c r="C7" s="76"/>
+      <c r="D7" s="79" t="s">
+        <v>103</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
@@ -2061,11 +2070,11 @@
     </row>
     <row r="12" spans="1:18" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="38"/>
       <c r="C12" s="40"/>
-      <c r="D12" s="79"/>
+      <c r="D12" s="77"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="40"/>
@@ -2082,17 +2091,17 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="77"/>
+      <c r="A13" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="76"/>
+      <c r="D13" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="75"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -2108,15 +2117,15 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="80" t="s">
+      <c r="A14" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="86" t="s">
         <v>97</v>
+      </c>
+      <c r="C14" s="76"/>
+      <c r="D14" s="78" t="s">
+        <v>103</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
@@ -2217,11 +2226,11 @@
     </row>
     <row r="19" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="40"/>
       <c r="C19" s="40"/>
-      <c r="D19" s="79"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="40"/>
@@ -2239,16 +2248,16 @@
     </row>
     <row r="20" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="77"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="75"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
@@ -2266,8 +2275,8 @@
     <row r="21" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="83"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="81"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
@@ -2367,7 +2376,7 @@
     </row>
     <row r="26" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
@@ -2389,16 +2398,16 @@
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="B27" s="86" t="s">
+        <v>97</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="77"/>
+      <c r="D27" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="75"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -2414,7 +2423,9 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
+      <c r="A28" s="87" t="s">
+        <v>104</v>
+      </c>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -2517,7 +2528,7 @@
     </row>
     <row r="33" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -2539,16 +2550,16 @@
     </row>
     <row r="34" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>59</v>
+        <v>47</v>
+      </c>
+      <c r="B34" s="85" t="s">
+        <v>58</v>
       </c>
       <c r="C34" s="25"/>
-      <c r="D34" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="85"/>
+      <c r="D34" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="83"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
@@ -2564,8 +2575,10 @@
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="44"/>
+      <c r="A35" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="42"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
@@ -2644,16 +2657,16 @@
       <c r="R38" s="1"/>
     </row>
     <row r="39" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="46"/>
-      <c r="B39" s="47" t="s">
+      <c r="A39" s="44"/>
+      <c r="B39" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="50"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="48"/>
       <c r="I39" s="7"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2666,14 +2679,14 @@
       <c r="R39" s="1"/>
     </row>
     <row r="40" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="51"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
       <c r="I40" s="7"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2686,16 +2699,16 @@
       <c r="R40" s="1"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="56"/>
+      <c r="A41" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="54"/>
       <c r="I41" s="7"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2708,16 +2721,16 @@
       <c r="R41" s="1"/>
     </row>
     <row r="42" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="60"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="56"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="58"/>
       <c r="I42" s="7"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2730,16 +2743,16 @@
       <c r="R42" s="1"/>
     </row>
     <row r="43" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="62"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
+      <c r="A43" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="60"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
       <c r="I43" s="7"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2752,16 +2765,16 @@
       <c r="R43" s="1"/>
     </row>
     <row r="44" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="66"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
+      <c r="A44" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="64"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
       <c r="I44" s="7"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2896,16 +2909,16 @@
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" s="70"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
+      <c r="A51" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="68"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66"/>
       <c r="I51" s="7"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -2918,16 +2931,16 @@
       <c r="R51" s="1"/>
     </row>
     <row r="52" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="73"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="74"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
+      <c r="A52" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="71"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="66"/>
       <c r="I52" s="7"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -3062,16 +3075,16 @@
       <c r="R58" s="1"/>
     </row>
     <row r="59" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="B59" s="75"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="76"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
+      <c r="A59" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="73"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
       <c r="I59" s="7"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -3206,16 +3219,16 @@
       <c r="R65" s="1"/>
     </row>
     <row r="66" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" s="76"/>
-      <c r="C66" s="76"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="76"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
+      <c r="A66" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="74"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="66"/>
       <c r="I66" s="7"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3350,16 +3363,16 @@
       <c r="R72" s="1"/>
     </row>
     <row r="73" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="B73" s="76"/>
-      <c r="C73" s="76"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="68"/>
-      <c r="H73" s="68"/>
+      <c r="A73" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="74"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
       <c r="I73" s="7"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -3494,16 +3507,16 @@
       <c r="R79" s="1"/>
     </row>
     <row r="80" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" s="76"/>
-      <c r="C80" s="76"/>
-      <c r="D80" s="76"/>
-      <c r="E80" s="76"/>
-      <c r="F80" s="76"/>
-      <c r="G80" s="68"/>
-      <c r="H80" s="68"/>
+      <c r="A80" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="74"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="66"/>
       <c r="I80" s="7"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -3638,16 +3651,16 @@
       <c r="R86" s="1"/>
     </row>
     <row r="87" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" s="76"/>
-      <c r="C87" s="76"/>
-      <c r="D87" s="76"/>
-      <c r="E87" s="76"/>
-      <c r="F87" s="76"/>
-      <c r="G87" s="68"/>
-      <c r="H87" s="68"/>
+      <c r="A87" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="74"/>
+      <c r="C87" s="74"/>
+      <c r="D87" s="74"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
       <c r="I87" s="7"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -3782,16 +3795,16 @@
       <c r="R93" s="1"/>
     </row>
     <row r="94" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="B94" s="76"/>
-      <c r="C94" s="76"/>
-      <c r="D94" s="76"/>
-      <c r="E94" s="76"/>
-      <c r="F94" s="76"/>
-      <c r="G94" s="68"/>
-      <c r="H94" s="68"/>
+      <c r="A94" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" s="74"/>
+      <c r="C94" s="74"/>
+      <c r="D94" s="74"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="74"/>
+      <c r="G94" s="66"/>
+      <c r="H94" s="66"/>
       <c r="I94" s="7"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -3926,16 +3939,16 @@
       <c r="R100" s="1"/>
     </row>
     <row r="101" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="B101" s="76"/>
-      <c r="C101" s="76"/>
-      <c r="D101" s="76"/>
-      <c r="E101" s="76"/>
-      <c r="F101" s="76"/>
-      <c r="G101" s="68"/>
-      <c r="H101" s="68"/>
+      <c r="A101" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B101" s="74"/>
+      <c r="C101" s="74"/>
+      <c r="D101" s="74"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="74"/>
+      <c r="G101" s="66"/>
+      <c r="H101" s="66"/>
       <c r="I101" s="7"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -4070,16 +4083,16 @@
       <c r="R107" s="1"/>
     </row>
     <row r="108" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="B108" s="76"/>
-      <c r="C108" s="76"/>
-      <c r="D108" s="76"/>
-      <c r="E108" s="76"/>
-      <c r="F108" s="76"/>
-      <c r="G108" s="68"/>
-      <c r="H108" s="68"/>
+      <c r="A108" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B108" s="74"/>
+      <c r="C108" s="74"/>
+      <c r="D108" s="74"/>
+      <c r="E108" s="74"/>
+      <c r="F108" s="74"/>
+      <c r="G108" s="66"/>
+      <c r="H108" s="66"/>
       <c r="I108" s="7"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -4214,16 +4227,16 @@
       <c r="R114" s="1"/>
     </row>
     <row r="115" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="B115" s="76"/>
-      <c r="C115" s="76"/>
-      <c r="D115" s="76"/>
-      <c r="E115" s="76"/>
-      <c r="F115" s="76"/>
-      <c r="G115" s="68"/>
-      <c r="H115" s="68"/>
+      <c r="A115" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B115" s="74"/>
+      <c r="C115" s="74"/>
+      <c r="D115" s="74"/>
+      <c r="E115" s="74"/>
+      <c r="F115" s="74"/>
+      <c r="G115" s="66"/>
+      <c r="H115" s="66"/>
       <c r="I115" s="7"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -4358,16 +4371,16 @@
       <c r="R121" s="1"/>
     </row>
     <row r="122" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="B122" s="76"/>
-      <c r="C122" s="76"/>
-      <c r="D122" s="76"/>
-      <c r="E122" s="76"/>
-      <c r="F122" s="76"/>
-      <c r="G122" s="68"/>
-      <c r="H122" s="68"/>
+      <c r="A122" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B122" s="74"/>
+      <c r="C122" s="74"/>
+      <c r="D122" s="74"/>
+      <c r="E122" s="74"/>
+      <c r="F122" s="74"/>
+      <c r="G122" s="66"/>
+      <c r="H122" s="66"/>
       <c r="I122" s="7"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
@@ -4502,16 +4515,16 @@
       <c r="R128" s="1"/>
     </row>
     <row r="129" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="B129" s="76"/>
-      <c r="C129" s="76"/>
-      <c r="D129" s="76"/>
-      <c r="E129" s="76"/>
-      <c r="F129" s="76"/>
-      <c r="G129" s="68"/>
-      <c r="H129" s="68"/>
+      <c r="A129" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="B129" s="74"/>
+      <c r="C129" s="74"/>
+      <c r="D129" s="74"/>
+      <c r="E129" s="74"/>
+      <c r="F129" s="74"/>
+      <c r="G129" s="66"/>
+      <c r="H129" s="66"/>
       <c r="I129" s="7"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
@@ -4646,16 +4659,16 @@
       <c r="R135" s="1"/>
     </row>
     <row r="136" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="B136" s="76"/>
-      <c r="C136" s="76"/>
-      <c r="D136" s="76"/>
-      <c r="E136" s="76"/>
-      <c r="F136" s="76"/>
-      <c r="G136" s="68"/>
-      <c r="H136" s="68"/>
+      <c r="A136" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B136" s="74"/>
+      <c r="C136" s="74"/>
+      <c r="D136" s="74"/>
+      <c r="E136" s="74"/>
+      <c r="F136" s="74"/>
+      <c r="G136" s="66"/>
+      <c r="H136" s="66"/>
       <c r="I136" s="7"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -4808,8 +4821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R324"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4948,16 +4961,16 @@
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="77"/>
+      <c r="D6" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="75"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -5097,17 +5110,17 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>20</v>
+      <c r="A13" s="80" t="s">
+        <v>106</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="77"/>
+      <c r="D13" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="75"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -5226,7 +5239,7 @@
     </row>
     <row r="19" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -5248,16 +5261,16 @@
     </row>
     <row r="20" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="25"/>
-      <c r="D20" s="84" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="77"/>
+      <c r="D20" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="75"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
@@ -5376,7 +5389,7 @@
     </row>
     <row r="26" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -5398,14 +5411,14 @@
     </row>
     <row r="27" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="86" t="s">
-        <v>97</v>
+      <c r="D27" s="84" t="s">
+        <v>103</v>
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="25"/>
@@ -5526,7 +5539,7 @@
     </row>
     <row r="33" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="22"/>
@@ -5548,7 +5561,7 @@
     </row>
     <row r="34" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="25"/>
@@ -5672,7 +5685,7 @@
     </row>
     <row r="40" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -5694,10 +5707,10 @@
     </row>
     <row r="41" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="26" t="str">
@@ -5823,7 +5836,7 @@
     </row>
     <row r="47" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -5845,10 +5858,10 @@
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="24" t="s">
         <v>39</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>40</v>
       </c>
       <c r="C48" s="25"/>
       <c r="D48" s="26" t="str">
@@ -5974,7 +5987,7 @@
     </row>
     <row r="54" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
@@ -5996,7 +6009,7 @@
     </row>
     <row r="55" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" s="24" t="s">
         <v>17</v>
@@ -6125,7 +6138,7 @@
     </row>
     <row r="61" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="22"/>
@@ -6147,7 +6160,7 @@
     </row>
     <row r="62" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
@@ -6271,7 +6284,7 @@
     </row>
     <row r="68" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="22"/>
@@ -6293,7 +6306,7 @@
     </row>
     <row r="69" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
@@ -6417,7 +6430,7 @@
     </row>
     <row r="75" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -6439,7 +6452,7 @@
     </row>
     <row r="76" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B76" s="24" t="s">
         <v>17</v>
@@ -6568,7 +6581,7 @@
     </row>
     <row r="82" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -6719,7 +6732,7 @@
     </row>
     <row r="89" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="22"/>
@@ -6741,7 +6754,7 @@
     </row>
     <row r="90" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
@@ -6865,7 +6878,7 @@
     </row>
     <row r="96" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="22"/>
@@ -6887,11 +6900,11 @@
     </row>
     <row r="97" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
-      <c r="D97" s="43"/>
+      <c r="D97" s="41"/>
       <c r="E97" s="37"/>
       <c r="F97" s="25"/>
       <c r="G97" s="25"/>
@@ -7010,8 +7023,8 @@
       <c r="R102" s="1"/>
     </row>
     <row r="103" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="45" t="s">
-        <v>57</v>
+      <c r="A103" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="B103" s="19"/>
       <c r="C103" s="22"/>
@@ -7033,10 +7046,10 @@
     </row>
     <row r="104" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C104" s="25"/>
       <c r="D104" s="26" t="str">
@@ -7161,8 +7174,8 @@
       <c r="R109" s="1"/>
     </row>
     <row r="110" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="45" t="s">
-        <v>61</v>
+      <c r="A110" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="B110" s="19"/>
       <c r="C110" s="22"/>
@@ -7184,7 +7197,7 @@
     </row>
     <row r="111" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B111" s="25"/>
       <c r="C111" s="25"/>
@@ -7307,8 +7320,8 @@
       <c r="R116" s="1"/>
     </row>
     <row r="117" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="45" t="s">
-        <v>62</v>
+      <c r="A117" s="43" t="s">
+        <v>61</v>
       </c>
       <c r="B117" s="19"/>
       <c r="C117" s="22"/>
@@ -7330,7 +7343,7 @@
     </row>
     <row r="118" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B118" s="25"/>
       <c r="C118" s="25"/>
@@ -7453,8 +7466,8 @@
       <c r="R123" s="1"/>
     </row>
     <row r="124" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="45" t="s">
-        <v>63</v>
+      <c r="A124" s="43" t="s">
+        <v>62</v>
       </c>
       <c r="B124" s="19"/>
       <c r="C124" s="22"/>
@@ -7476,7 +7489,7 @@
     </row>
     <row r="125" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B125" s="25"/>
       <c r="C125" s="25"/>
@@ -7599,8 +7612,8 @@
       <c r="R130" s="1"/>
     </row>
     <row r="131" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="45" t="s">
-        <v>64</v>
+      <c r="A131" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="B131" s="19"/>
       <c r="C131" s="22"/>
@@ -7622,7 +7635,7 @@
     </row>
     <row r="132" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B132" s="25"/>
       <c r="C132" s="25"/>
@@ -7746,7 +7759,7 @@
     </row>
     <row r="138" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B138" s="19"/>
       <c r="C138" s="22"/>
@@ -7768,7 +7781,7 @@
     </row>
     <row r="139" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B139" s="25"/>
       <c r="C139" s="25"/>
@@ -7892,7 +7905,7 @@
     </row>
     <row r="145" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B145" s="19"/>
       <c r="C145" s="22"/>
@@ -7914,7 +7927,7 @@
     </row>
     <row r="146" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B146" s="25"/>
       <c r="C146" s="25"/>
@@ -8038,7 +8051,7 @@
     </row>
     <row r="152" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B152" s="19"/>
       <c r="C152" s="22"/>
@@ -8060,7 +8073,7 @@
     </row>
     <row r="153" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B153" s="25"/>
       <c r="C153" s="25"/>
@@ -8184,7 +8197,7 @@
     </row>
     <row r="159" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B159" s="19"/>
       <c r="C159" s="22"/>
@@ -8206,7 +8219,7 @@
     </row>
     <row r="160" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B160" s="25"/>
       <c r="C160" s="25"/>
@@ -8330,7 +8343,7 @@
     </row>
     <row r="166" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B166" s="19"/>
       <c r="C166" s="22"/>
@@ -8352,7 +8365,7 @@
     </row>
     <row r="167" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B167" s="25"/>
       <c r="C167" s="25"/>
@@ -8476,7 +8489,7 @@
     </row>
     <row r="173" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B173" s="19"/>
       <c r="C173" s="22"/>
@@ -8498,7 +8511,7 @@
     </row>
     <row r="174" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B174" s="25"/>
       <c r="C174" s="25"/>
@@ -8622,7 +8635,7 @@
     </row>
     <row r="180" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B180" s="19"/>
       <c r="C180" s="22"/>
@@ -8644,7 +8657,7 @@
     </row>
     <row r="181" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B181" s="25"/>
       <c r="C181" s="25"/>
@@ -8768,7 +8781,7 @@
     </row>
     <row r="187" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B187" s="19"/>
       <c r="C187" s="22"/>
@@ -8790,7 +8803,7 @@
     </row>
     <row r="188" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B188" s="25"/>
       <c r="C188" s="25"/>
@@ -8914,7 +8927,7 @@
     </row>
     <row r="194" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B194" s="19"/>
       <c r="C194" s="22"/>
@@ -8936,7 +8949,7 @@
     </row>
     <row r="195" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B195" s="25"/>
       <c r="C195" s="25"/>
@@ -9060,7 +9073,7 @@
     </row>
     <row r="201" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B201" s="19"/>
       <c r="C201" s="22"/>
@@ -9082,7 +9095,7 @@
     </row>
     <row r="202" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B202" s="25"/>
       <c r="C202" s="25"/>
@@ -9206,7 +9219,7 @@
     </row>
     <row r="208" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B208" s="19"/>
       <c r="C208" s="22"/>
@@ -9228,7 +9241,7 @@
     </row>
     <row r="209" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B209" s="25"/>
       <c r="C209" s="25"/>
@@ -9352,7 +9365,7 @@
     </row>
     <row r="215" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B215" s="19"/>
       <c r="C215" s="22"/>
@@ -9374,7 +9387,7 @@
     </row>
     <row r="216" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B216" s="25"/>
       <c r="C216" s="25"/>
@@ -9497,14 +9510,14 @@
       <c r="R221" s="1"/>
     </row>
     <row r="222" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="51"/>
-      <c r="B222" s="52"/>
-      <c r="C222" s="52"/>
-      <c r="D222" s="52"/>
-      <c r="E222" s="52"/>
-      <c r="F222" s="52"/>
-      <c r="G222" s="52"/>
-      <c r="H222" s="52"/>
+      <c r="A222" s="49"/>
+      <c r="B222" s="50"/>
+      <c r="C222" s="50"/>
+      <c r="D222" s="50"/>
+      <c r="E222" s="50"/>
+      <c r="F222" s="50"/>
+      <c r="G222" s="50"/>
+      <c r="H222" s="50"/>
       <c r="I222" s="7"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
@@ -9517,16 +9530,16 @@
       <c r="R222" s="1"/>
     </row>
     <row r="223" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B223" s="54"/>
-      <c r="C223" s="54"/>
-      <c r="D223" s="54"/>
-      <c r="E223" s="54"/>
-      <c r="F223" s="54"/>
-      <c r="G223" s="55"/>
-      <c r="H223" s="56"/>
+      <c r="A223" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B223" s="52"/>
+      <c r="C223" s="52"/>
+      <c r="D223" s="52"/>
+      <c r="E223" s="52"/>
+      <c r="F223" s="52"/>
+      <c r="G223" s="53"/>
+      <c r="H223" s="54"/>
       <c r="I223" s="7"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
@@ -9539,16 +9552,16 @@
       <c r="R223" s="1"/>
     </row>
     <row r="224" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="57" t="s">
+      <c r="A224" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B224" s="58"/>
-      <c r="C224" s="58"/>
-      <c r="D224" s="58"/>
-      <c r="E224" s="58"/>
-      <c r="F224" s="58"/>
-      <c r="G224" s="59"/>
-      <c r="H224" s="60"/>
+      <c r="B224" s="56"/>
+      <c r="C224" s="56"/>
+      <c r="D224" s="56"/>
+      <c r="E224" s="56"/>
+      <c r="F224" s="56"/>
+      <c r="G224" s="57"/>
+      <c r="H224" s="58"/>
       <c r="I224" s="7"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
@@ -9561,16 +9574,16 @@
       <c r="R224" s="1"/>
     </row>
     <row r="225" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="B225" s="62"/>
-      <c r="C225" s="63"/>
-      <c r="D225" s="63"/>
-      <c r="E225" s="63"/>
-      <c r="F225" s="63"/>
-      <c r="G225" s="64"/>
-      <c r="H225" s="64"/>
+      <c r="A225" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B225" s="60"/>
+      <c r="C225" s="61"/>
+      <c r="D225" s="61"/>
+      <c r="E225" s="61"/>
+      <c r="F225" s="61"/>
+      <c r="G225" s="62"/>
+      <c r="H225" s="62"/>
       <c r="I225" s="7"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
@@ -9583,16 +9596,16 @@
       <c r="R225" s="1"/>
     </row>
     <row r="226" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B226" s="66"/>
-      <c r="C226" s="67"/>
-      <c r="D226" s="67"/>
-      <c r="E226" s="67"/>
-      <c r="F226" s="67"/>
-      <c r="G226" s="68"/>
-      <c r="H226" s="68"/>
+      <c r="A226" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B226" s="64"/>
+      <c r="C226" s="65"/>
+      <c r="D226" s="65"/>
+      <c r="E226" s="65"/>
+      <c r="F226" s="65"/>
+      <c r="G226" s="66"/>
+      <c r="H226" s="66"/>
       <c r="I226" s="7"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
@@ -9727,16 +9740,16 @@
       <c r="R232" s="1"/>
     </row>
     <row r="233" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A233" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="B233" s="70"/>
-      <c r="C233" s="71"/>
-      <c r="D233" s="71"/>
-      <c r="E233" s="71"/>
-      <c r="F233" s="71"/>
-      <c r="G233" s="68"/>
-      <c r="H233" s="68"/>
+      <c r="A233" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B233" s="68"/>
+      <c r="C233" s="69"/>
+      <c r="D233" s="69"/>
+      <c r="E233" s="69"/>
+      <c r="F233" s="69"/>
+      <c r="G233" s="66"/>
+      <c r="H233" s="66"/>
       <c r="I233" s="7"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
@@ -9749,16 +9762,16 @@
       <c r="R233" s="1"/>
     </row>
     <row r="234" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="B234" s="73"/>
-      <c r="C234" s="74"/>
-      <c r="D234" s="74"/>
-      <c r="E234" s="74"/>
-      <c r="F234" s="74"/>
-      <c r="G234" s="68"/>
-      <c r="H234" s="68"/>
+      <c r="A234" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B234" s="71"/>
+      <c r="C234" s="72"/>
+      <c r="D234" s="72"/>
+      <c r="E234" s="72"/>
+      <c r="F234" s="72"/>
+      <c r="G234" s="66"/>
+      <c r="H234" s="66"/>
       <c r="I234" s="7"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
@@ -9893,16 +9906,16 @@
       <c r="R240" s="1"/>
     </row>
     <row r="241" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="B241" s="75"/>
-      <c r="C241" s="76"/>
-      <c r="D241" s="76"/>
-      <c r="E241" s="76"/>
-      <c r="F241" s="76"/>
-      <c r="G241" s="68"/>
-      <c r="H241" s="68"/>
+      <c r="A241" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B241" s="73"/>
+      <c r="C241" s="74"/>
+      <c r="D241" s="74"/>
+      <c r="E241" s="74"/>
+      <c r="F241" s="74"/>
+      <c r="G241" s="66"/>
+      <c r="H241" s="66"/>
       <c r="I241" s="7"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
@@ -10037,16 +10050,16 @@
       <c r="R247" s="1"/>
     </row>
     <row r="248" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="72" t="s">
-        <v>83</v>
-      </c>
-      <c r="B248" s="76"/>
-      <c r="C248" s="76"/>
-      <c r="D248" s="76"/>
-      <c r="E248" s="76"/>
-      <c r="F248" s="76"/>
-      <c r="G248" s="68"/>
-      <c r="H248" s="68"/>
+      <c r="A248" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="B248" s="74"/>
+      <c r="C248" s="74"/>
+      <c r="D248" s="74"/>
+      <c r="E248" s="74"/>
+      <c r="F248" s="74"/>
+      <c r="G248" s="66"/>
+      <c r="H248" s="66"/>
       <c r="I248" s="7"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
@@ -10181,16 +10194,16 @@
       <c r="R254" s="1"/>
     </row>
     <row r="255" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="B255" s="76"/>
-      <c r="C255" s="76"/>
-      <c r="D255" s="76"/>
-      <c r="E255" s="76"/>
-      <c r="F255" s="76"/>
-      <c r="G255" s="68"/>
-      <c r="H255" s="68"/>
+      <c r="A255" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B255" s="74"/>
+      <c r="C255" s="74"/>
+      <c r="D255" s="74"/>
+      <c r="E255" s="74"/>
+      <c r="F255" s="74"/>
+      <c r="G255" s="66"/>
+      <c r="H255" s="66"/>
       <c r="I255" s="7"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
@@ -10325,16 +10338,16 @@
       <c r="R261" s="1"/>
     </row>
     <row r="262" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="B262" s="76"/>
-      <c r="C262" s="76"/>
-      <c r="D262" s="76"/>
-      <c r="E262" s="76"/>
-      <c r="F262" s="76"/>
-      <c r="G262" s="68"/>
-      <c r="H262" s="68"/>
+      <c r="A262" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B262" s="74"/>
+      <c r="C262" s="74"/>
+      <c r="D262" s="74"/>
+      <c r="E262" s="74"/>
+      <c r="F262" s="74"/>
+      <c r="G262" s="66"/>
+      <c r="H262" s="66"/>
       <c r="I262" s="7"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
@@ -10469,16 +10482,16 @@
       <c r="R268" s="1"/>
     </row>
     <row r="269" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="B269" s="76"/>
-      <c r="C269" s="76"/>
-      <c r="D269" s="76"/>
-      <c r="E269" s="76"/>
-      <c r="F269" s="76"/>
-      <c r="G269" s="68"/>
-      <c r="H269" s="68"/>
+      <c r="A269" s="70" t="s">
+        <v>85</v>
+      </c>
+      <c r="B269" s="74"/>
+      <c r="C269" s="74"/>
+      <c r="D269" s="74"/>
+      <c r="E269" s="74"/>
+      <c r="F269" s="74"/>
+      <c r="G269" s="66"/>
+      <c r="H269" s="66"/>
       <c r="I269" s="7"/>
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
@@ -10613,16 +10626,16 @@
       <c r="R275" s="1"/>
     </row>
     <row r="276" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="72" t="s">
-        <v>87</v>
-      </c>
-      <c r="B276" s="76"/>
-      <c r="C276" s="76"/>
-      <c r="D276" s="76"/>
-      <c r="E276" s="76"/>
-      <c r="F276" s="76"/>
-      <c r="G276" s="68"/>
-      <c r="H276" s="68"/>
+      <c r="A276" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B276" s="74"/>
+      <c r="C276" s="74"/>
+      <c r="D276" s="74"/>
+      <c r="E276" s="74"/>
+      <c r="F276" s="74"/>
+      <c r="G276" s="66"/>
+      <c r="H276" s="66"/>
       <c r="I276" s="7"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
@@ -10757,16 +10770,16 @@
       <c r="R282" s="1"/>
     </row>
     <row r="283" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="B283" s="76"/>
-      <c r="C283" s="76"/>
-      <c r="D283" s="76"/>
-      <c r="E283" s="76"/>
-      <c r="F283" s="76"/>
-      <c r="G283" s="68"/>
-      <c r="H283" s="68"/>
+      <c r="A283" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="B283" s="74"/>
+      <c r="C283" s="74"/>
+      <c r="D283" s="74"/>
+      <c r="E283" s="74"/>
+      <c r="F283" s="74"/>
+      <c r="G283" s="66"/>
+      <c r="H283" s="66"/>
       <c r="I283" s="7"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
@@ -10901,16 +10914,16 @@
       <c r="R289" s="1"/>
     </row>
     <row r="290" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="72" t="s">
-        <v>89</v>
-      </c>
-      <c r="B290" s="76"/>
-      <c r="C290" s="76"/>
-      <c r="D290" s="76"/>
-      <c r="E290" s="76"/>
-      <c r="F290" s="76"/>
-      <c r="G290" s="68"/>
-      <c r="H290" s="68"/>
+      <c r="A290" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B290" s="74"/>
+      <c r="C290" s="74"/>
+      <c r="D290" s="74"/>
+      <c r="E290" s="74"/>
+      <c r="F290" s="74"/>
+      <c r="G290" s="66"/>
+      <c r="H290" s="66"/>
       <c r="I290" s="7"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
@@ -11045,16 +11058,16 @@
       <c r="R296" s="1"/>
     </row>
     <row r="297" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="72" t="s">
-        <v>90</v>
-      </c>
-      <c r="B297" s="76"/>
-      <c r="C297" s="76"/>
-      <c r="D297" s="76"/>
-      <c r="E297" s="76"/>
-      <c r="F297" s="76"/>
-      <c r="G297" s="68"/>
-      <c r="H297" s="68"/>
+      <c r="A297" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B297" s="74"/>
+      <c r="C297" s="74"/>
+      <c r="D297" s="74"/>
+      <c r="E297" s="74"/>
+      <c r="F297" s="74"/>
+      <c r="G297" s="66"/>
+      <c r="H297" s="66"/>
       <c r="I297" s="7"/>
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
@@ -11189,16 +11202,16 @@
       <c r="R303" s="1"/>
     </row>
     <row r="304" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="B304" s="76"/>
-      <c r="C304" s="76"/>
-      <c r="D304" s="76"/>
-      <c r="E304" s="76"/>
-      <c r="F304" s="76"/>
-      <c r="G304" s="68"/>
-      <c r="H304" s="68"/>
+      <c r="A304" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B304" s="74"/>
+      <c r="C304" s="74"/>
+      <c r="D304" s="74"/>
+      <c r="E304" s="74"/>
+      <c r="F304" s="74"/>
+      <c r="G304" s="66"/>
+      <c r="H304" s="66"/>
       <c r="I304" s="7"/>
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
@@ -11333,16 +11346,16 @@
       <c r="R310" s="1"/>
     </row>
     <row r="311" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="B311" s="76"/>
-      <c r="C311" s="76"/>
-      <c r="D311" s="76"/>
-      <c r="E311" s="76"/>
-      <c r="F311" s="76"/>
-      <c r="G311" s="68"/>
-      <c r="H311" s="68"/>
+      <c r="A311" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="B311" s="74"/>
+      <c r="C311" s="74"/>
+      <c r="D311" s="74"/>
+      <c r="E311" s="74"/>
+      <c r="F311" s="74"/>
+      <c r="G311" s="66"/>
+      <c r="H311" s="66"/>
       <c r="I311" s="7"/>
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
@@ -11477,16 +11490,16 @@
       <c r="R317" s="1"/>
     </row>
     <row r="318" spans="1:18" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="72" t="s">
-        <v>93</v>
-      </c>
-      <c r="B318" s="76"/>
-      <c r="C318" s="76"/>
-      <c r="D318" s="76"/>
-      <c r="E318" s="76"/>
-      <c r="F318" s="76"/>
-      <c r="G318" s="68"/>
-      <c r="H318" s="68"/>
+      <c r="A318" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B318" s="74"/>
+      <c r="C318" s="74"/>
+      <c r="D318" s="74"/>
+      <c r="E318" s="74"/>
+      <c r="F318" s="74"/>
+      <c r="G318" s="66"/>
+      <c r="H318" s="66"/>
       <c r="I318" s="7"/>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>

--- a/PLA-Planilha de Avaliação .xlsx
+++ b/PLA-Planilha de Avaliação .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17235" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17235" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instruções para preenchimento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="121">
   <si>
     <t>INSTRUÇÕES</t>
   </si>
@@ -120,9 +120,6 @@
 As evidências apresentadas para este resultado permitem assegurar que  foram realizadas estimativas de custo e esforço para tarefas e produtos de trabalho com base em dados históricos ou métodos de estimativas e que foram documentadas as suas justificativas?</t>
   </si>
   <si>
-    <t>Planilha de Acompanhamento</t>
-  </si>
-  <si>
     <t>GRE 1. O entendimento dos requisitos é obtido junto aos fornecedores de requisitos.
 As evidências apresentadas para este resultado permitem assegurar: (ii) que as pessoas autorizadas a definir e a alterar requisitos foram identificadas? (ii) que existe um documento de requisitos que represente seu entendimento? (iii) que os requisitos foram aceitos pelo cliente ou um representante?</t>
   </si>
@@ -155,9 +152,6 @@
 As evidências apresentadas para este resultado permitem assegurar que: (i) a equipe do projeto foi selecionada a partir das competências requeridas para realizar as atividades do projeto e considerando o perfil dos candidatos?; (ii) foi planejado treinamento, quando necessário?</t>
   </si>
   <si>
-    <t>Plano de Projeto Seção 3</t>
-  </si>
-  <si>
     <t>GPR 8. (Até o Nível F) Os recursos e o ambiente de trabalho necessários para executar o projeto são planejados.
 As evidências apresentadas para este resultado permitem assegurar que foram planejados os recursos e o ambiente de trabalho necessários? (obs: aqui trata-se de outros recursos que não recursos humanos).</t>
   </si>
@@ -180,9 +174,6 @@
     <t>Template Solicitação de Mudança</t>
   </si>
   <si>
-    <t>Plano de Projeto Seção 8</t>
-  </si>
-  <si>
     <t>GRE 3. A rastreabilidade bidirecional entre os requisitos e os produtos de trabalho é estabelecida e mantida.                                
 As evidências apresentadas para este resultado permitem assegurar que foi criada e mantida, ao longo do projeto, a rastreabilidade bidirecional entre os requisitos e demais produtos de trabalho, incluindo os planos do projeto e as unidades de código?</t>
   </si>
@@ -220,9 +211,6 @@
     <t>Solicitaçao Mudança</t>
   </si>
   <si>
-    <t>Planilha Acompanhamento</t>
-  </si>
-  <si>
     <t>GPR 14. Os recursos materiais e humanos bem como os dados relevantes do projeto são monitorados em relação ao planejado.
 As evidências apresentadas para este resultado permitem assegurar que o projeto foi monitorado ao longo de seu ciclo de vida, comparando o planejado e o realizado em relação ao escopo aos recursos materiais, humanos e em relação aos dados relevantes do projeto?</t>
   </si>
@@ -375,12 +363,6 @@
     <t>CheckList Planos</t>
   </si>
   <si>
-    <t>Plano de Projeto Seção 5</t>
-  </si>
-  <si>
-    <t>Plano de Projeto Seção 7</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -390,14 +372,74 @@
     <t>obs: não foram efetuadas mudanças nos requisitos</t>
   </si>
   <si>
-    <t>Plano de Projeto Seção 10</t>
+    <t>Plano de Projeto - Seção 5</t>
+  </si>
+  <si>
+    <t>Plano de Projeto - Seção 10</t>
+  </si>
+  <si>
+    <t>Plano de Projeto - Seção 7</t>
+  </si>
+  <si>
+    <t>Plano de Custos</t>
+  </si>
+  <si>
+    <t>Custo</t>
+  </si>
+  <si>
+    <t>Documento de Competencias</t>
+  </si>
+  <si>
+    <t>Competencias</t>
+  </si>
+  <si>
+    <t>Plano de Projeto - Seção 11</t>
+  </si>
+  <si>
+    <t>Recursos Materiais</t>
+  </si>
+  <si>
+    <t>Plano Gerencia de Configuração</t>
+  </si>
+  <si>
+    <t>Configuração</t>
+  </si>
+  <si>
+    <t>Estudo de Viabilidade</t>
+  </si>
+  <si>
+    <t>Viabilidade</t>
+  </si>
+  <si>
+    <t>Comprometiento Equipe</t>
+  </si>
+  <si>
+    <t>Relatorios Semanais</t>
+  </si>
+  <si>
+    <t>Relatorio</t>
+  </si>
+  <si>
+    <t>Relatorio Marcos</t>
+  </si>
+  <si>
+    <t>Relatorios</t>
+  </si>
+  <si>
+    <t>Plano Evolvidos</t>
+  </si>
+  <si>
+    <t>Plano</t>
+  </si>
+  <si>
+    <t>Relatorio Problemas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -431,12 +473,6 @@
       <b/>
       <i/>
       <sz val="16"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -492,13 +528,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -511,7 +540,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,20 +567,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFCF305"/>
         <bgColor rgb="FFFCF305"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -944,9 +961,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1019,32 +1036,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1052,10 +1063,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1067,25 +1075,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1097,61 +1105,61 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1163,35 +1171,38 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1549,7 +1560,7 @@
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="10"/>
@@ -1565,7 +1576,7 @@
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="32" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="10"/>
@@ -1581,7 +1592,7 @@
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="10"/>
@@ -1597,7 +1608,7 @@
     </row>
     <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="10"/>
@@ -1613,7 +1624,7 @@
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="10"/>
@@ -1629,7 +1640,7 @@
     </row>
     <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="10"/>
@@ -1645,7 +1656,7 @@
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="10"/>
@@ -1661,7 +1672,7 @@
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="33" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="10"/>
@@ -1691,7 +1702,7 @@
     </row>
     <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="36"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1705,7 +1716,7 @@
     </row>
     <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="36"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1719,7 +1730,7 @@
     </row>
     <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="36"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1733,7 +1744,7 @@
     </row>
     <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="36"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1747,7 +1758,7 @@
     </row>
     <row r="18" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="36"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1761,7 +1772,7 @@
     </row>
     <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="36"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1796,7 +1807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -1894,13 +1905,13 @@
       <c r="A4" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
       <c r="I4" s="7"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1914,15 +1925,15 @@
     </row>
     <row r="5" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+        <v>31</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="7"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1936,16 +1947,16 @@
     </row>
     <row r="6" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="75"/>
+        <v>89</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="72"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -1961,15 +1972,15 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="86" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="79" t="s">
-        <v>103</v>
+      <c r="A7" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="73"/>
+      <c r="D7" s="76" t="s">
+        <v>97</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
@@ -1987,7 +1998,7 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -2007,7 +2018,7 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -2027,7 +2038,7 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -2047,16 +2058,16 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="7"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2070,15 +2081,15 @@
     </row>
     <row r="12" spans="1:18" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
+        <v>43</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
       <c r="I12" s="7"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2091,17 +2102,17 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="85" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="75"/>
+      <c r="A13" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="73"/>
+      <c r="D13" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="72"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -2117,15 +2128,15 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="86" t="s">
+      <c r="A14" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="73"/>
+      <c r="D14" s="75" t="s">
         <v>97</v>
-      </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="78" t="s">
-        <v>103</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
@@ -2143,7 +2154,7 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -2163,7 +2174,7 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -2183,7 +2194,7 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -2203,16 +2214,16 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="7"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2226,15 +2237,15 @@
     </row>
     <row r="19" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
+        <v>46</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="7"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2248,16 +2259,16 @@
     </row>
     <row r="20" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="75"/>
+        <v>47</v>
+      </c>
+      <c r="B20" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="73"/>
+      <c r="D20" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="72"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
@@ -2275,8 +2286,8 @@
     <row r="21" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="81"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
@@ -2293,7 +2304,7 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -2313,7 +2324,7 @@
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -2333,7 +2344,7 @@
       <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -2353,16 +2364,16 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
       <c r="I25" s="7"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2376,15 +2387,15 @@
     </row>
     <row r="26" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
+        <v>52</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
       <c r="I26" s="7"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2398,16 +2409,16 @@
     </row>
     <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="75"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -2423,8 +2434,8 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="87" t="s">
-        <v>104</v>
+      <c r="A28" s="83" t="s">
+        <v>98</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -2445,7 +2456,7 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -2465,7 +2476,7 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -2485,7 +2496,7 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -2505,16 +2516,16 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29" t="s">
+      <c r="A32" s="27"/>
+      <c r="B32" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="32"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="31"/>
       <c r="I32" s="7"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2528,15 +2539,15 @@
     </row>
     <row r="33" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
+        <v>54</v>
+      </c>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
       <c r="I33" s="7"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2550,16 +2561,16 @@
     </row>
     <row r="34" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="85" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+      <c r="B34" s="81" t="s">
+        <v>55</v>
       </c>
       <c r="C34" s="25"/>
-      <c r="D34" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="83"/>
+      <c r="D34" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="80"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
@@ -2575,10 +2586,10 @@
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="42"/>
+      <c r="A35" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="39"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
       <c r="E35" s="25"/>
@@ -2597,7 +2608,7 @@
       <c r="R35" s="1"/>
     </row>
     <row r="36" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -2617,7 +2628,7 @@
       <c r="R36" s="1"/>
     </row>
     <row r="37" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -2637,7 +2648,7 @@
       <c r="R37" s="1"/>
     </row>
     <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="27"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -2657,16 +2668,16 @@
       <c r="R38" s="1"/>
     </row>
     <row r="39" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="44"/>
-      <c r="B39" s="45" t="s">
+      <c r="A39" s="41"/>
+      <c r="B39" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="45"/>
       <c r="I39" s="7"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2679,14 +2690,14 @@
       <c r="R39" s="1"/>
     </row>
     <row r="40" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="49"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
       <c r="I40" s="7"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2699,16 +2710,16 @@
       <c r="R40" s="1"/>
     </row>
     <row r="41" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53"/>
-      <c r="H41" s="54"/>
+      <c r="A41" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="51"/>
       <c r="I41" s="7"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2721,16 +2732,16 @@
       <c r="R41" s="1"/>
     </row>
     <row r="42" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="58"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="55"/>
       <c r="I42" s="7"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2743,16 +2754,16 @@
       <c r="R42" s="1"/>
     </row>
     <row r="43" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="60"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
+      <c r="A43" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="57"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
       <c r="I43" s="7"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2765,16 +2776,16 @@
       <c r="R43" s="1"/>
     </row>
     <row r="44" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="64"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
+      <c r="A44" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="61"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
       <c r="I44" s="7"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -2787,7 +2798,7 @@
       <c r="R44" s="1"/>
     </row>
     <row r="45" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -2807,7 +2818,7 @@
       <c r="R45" s="1"/>
     </row>
     <row r="46" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="25"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -2827,7 +2838,7 @@
       <c r="R46" s="1"/>
     </row>
     <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="25"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -2847,7 +2858,7 @@
       <c r="R47" s="1"/>
     </row>
     <row r="48" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="27"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -2867,7 +2878,7 @@
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -2887,16 +2898,16 @@
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
-      <c r="B50" s="29" t="s">
+      <c r="A50" s="26"/>
+      <c r="B50" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="32"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="31"/>
       <c r="I50" s="7"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -2909,16 +2920,16 @@
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="68"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66"/>
+      <c r="A51" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="65"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
       <c r="I51" s="7"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -2931,16 +2942,16 @@
       <c r="R51" s="1"/>
     </row>
     <row r="52" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
+      <c r="A52" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="68"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="69"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
       <c r="I52" s="7"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -2953,7 +2964,7 @@
       <c r="R52" s="1"/>
     </row>
     <row r="53" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="27"/>
+      <c r="A53" s="26"/>
       <c r="B53" s="25"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -2973,7 +2984,7 @@
       <c r="R53" s="1"/>
     </row>
     <row r="54" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
+      <c r="A54" s="26"/>
       <c r="B54" s="25"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -2993,7 +3004,7 @@
       <c r="R54" s="1"/>
     </row>
     <row r="55" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="27"/>
+      <c r="A55" s="26"/>
       <c r="B55" s="25"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -3013,7 +3024,7 @@
       <c r="R55" s="1"/>
     </row>
     <row r="56" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="27"/>
+      <c r="A56" s="26"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -3033,7 +3044,7 @@
       <c r="R56" s="1"/>
     </row>
     <row r="57" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="27"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -3053,16 +3064,16 @@
       <c r="R57" s="1"/>
     </row>
     <row r="58" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="27"/>
-      <c r="B58" s="29" t="s">
+      <c r="A58" s="26"/>
+      <c r="B58" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="32"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="31"/>
       <c r="I58" s="7"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3075,16 +3086,16 @@
       <c r="R58" s="1"/>
     </row>
     <row r="59" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="B59" s="73"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
+      <c r="A59" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="70"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
       <c r="I59" s="7"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -3097,7 +3108,7 @@
       <c r="R59" s="1"/>
     </row>
     <row r="60" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="27"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="25"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -3117,7 +3128,7 @@
       <c r="R60" s="1"/>
     </row>
     <row r="61" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="25"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -3137,7 +3148,7 @@
       <c r="R61" s="1"/>
     </row>
     <row r="62" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="27"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="25"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -3157,7 +3168,7 @@
       <c r="R62" s="1"/>
     </row>
     <row r="63" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="27"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -3177,7 +3188,7 @@
       <c r="R63" s="1"/>
     </row>
     <row r="64" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="27"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -3197,16 +3208,16 @@
       <c r="R64" s="1"/>
     </row>
     <row r="65" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="27"/>
-      <c r="B65" s="29" t="s">
+      <c r="A65" s="26"/>
+      <c r="B65" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="32"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="31"/>
       <c r="I65" s="7"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -3219,16 +3230,16 @@
       <c r="R65" s="1"/>
     </row>
     <row r="66" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="B66" s="74"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="66"/>
+      <c r="A66" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="71"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
       <c r="I66" s="7"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3241,7 +3252,7 @@
       <c r="R66" s="1"/>
     </row>
     <row r="67" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="27"/>
+      <c r="A67" s="26"/>
       <c r="B67" s="25"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -3261,7 +3272,7 @@
       <c r="R67" s="1"/>
     </row>
     <row r="68" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="27"/>
+      <c r="A68" s="26"/>
       <c r="B68" s="25"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -3281,7 +3292,7 @@
       <c r="R68" s="1"/>
     </row>
     <row r="69" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="27"/>
+      <c r="A69" s="26"/>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -3301,7 +3312,7 @@
       <c r="R69" s="1"/>
     </row>
     <row r="70" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="27"/>
+      <c r="A70" s="26"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -3321,7 +3332,7 @@
       <c r="R70" s="1"/>
     </row>
     <row r="71" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="27"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -3341,16 +3352,16 @@
       <c r="R71" s="1"/>
     </row>
     <row r="72" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="27"/>
-      <c r="B72" s="29" t="s">
+      <c r="A72" s="26"/>
+      <c r="B72" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="32"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="31"/>
       <c r="I72" s="7"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
@@ -3363,16 +3374,16 @@
       <c r="R72" s="1"/>
     </row>
     <row r="73" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="B73" s="74"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
+      <c r="A73" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="71"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
       <c r="I73" s="7"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
@@ -3385,7 +3396,7 @@
       <c r="R73" s="1"/>
     </row>
     <row r="74" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="27"/>
+      <c r="A74" s="26"/>
       <c r="B74" s="25"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -3405,7 +3416,7 @@
       <c r="R74" s="1"/>
     </row>
     <row r="75" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="27"/>
+      <c r="A75" s="26"/>
       <c r="B75" s="25"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -3425,7 +3436,7 @@
       <c r="R75" s="1"/>
     </row>
     <row r="76" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="27"/>
+      <c r="A76" s="26"/>
       <c r="B76" s="25"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -3445,7 +3456,7 @@
       <c r="R76" s="1"/>
     </row>
     <row r="77" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="27"/>
+      <c r="A77" s="26"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -3465,7 +3476,7 @@
       <c r="R77" s="1"/>
     </row>
     <row r="78" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="27"/>
+      <c r="A78" s="26"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -3485,16 +3496,16 @@
       <c r="R78" s="1"/>
     </row>
     <row r="79" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="27"/>
-      <c r="B79" s="29" t="s">
+      <c r="A79" s="26"/>
+      <c r="B79" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="32"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="31"/>
       <c r="I79" s="7"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
@@ -3507,16 +3518,16 @@
       <c r="R79" s="1"/>
     </row>
     <row r="80" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="B80" s="74"/>
-      <c r="C80" s="74"/>
-      <c r="D80" s="74"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="74"/>
-      <c r="G80" s="66"/>
-      <c r="H80" s="66"/>
+      <c r="A80" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="71"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
       <c r="I80" s="7"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -3529,7 +3540,7 @@
       <c r="R80" s="1"/>
     </row>
     <row r="81" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="27"/>
+      <c r="A81" s="26"/>
       <c r="B81" s="25"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -3549,7 +3560,7 @@
       <c r="R81" s="1"/>
     </row>
     <row r="82" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="27"/>
+      <c r="A82" s="26"/>
       <c r="B82" s="25"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -3569,7 +3580,7 @@
       <c r="R82" s="1"/>
     </row>
     <row r="83" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="27"/>
+      <c r="A83" s="26"/>
       <c r="B83" s="25"/>
       <c r="C83" s="25"/>
       <c r="D83" s="25"/>
@@ -3589,7 +3600,7 @@
       <c r="R83" s="1"/>
     </row>
     <row r="84" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="27"/>
+      <c r="A84" s="26"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
       <c r="D84" s="25"/>
@@ -3609,7 +3620,7 @@
       <c r="R84" s="1"/>
     </row>
     <row r="85" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="27"/>
+      <c r="A85" s="26"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
       <c r="D85" s="25"/>
@@ -3629,16 +3640,16 @@
       <c r="R85" s="1"/>
     </row>
     <row r="86" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="27"/>
-      <c r="B86" s="29" t="s">
+      <c r="A86" s="26"/>
+      <c r="B86" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="32"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="31"/>
       <c r="I86" s="7"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -3651,16 +3662,16 @@
       <c r="R86" s="1"/>
     </row>
     <row r="87" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87" s="74"/>
-      <c r="C87" s="74"/>
-      <c r="D87" s="74"/>
-      <c r="E87" s="74"/>
-      <c r="F87" s="74"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="66"/>
+      <c r="A87" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" s="71"/>
+      <c r="C87" s="71"/>
+      <c r="D87" s="71"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="63"/>
+      <c r="H87" s="63"/>
       <c r="I87" s="7"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
@@ -3673,7 +3684,7 @@
       <c r="R87" s="1"/>
     </row>
     <row r="88" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="27"/>
+      <c r="A88" s="26"/>
       <c r="B88" s="25"/>
       <c r="C88" s="25"/>
       <c r="D88" s="25"/>
@@ -3693,7 +3704,7 @@
       <c r="R88" s="1"/>
     </row>
     <row r="89" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="27"/>
+      <c r="A89" s="26"/>
       <c r="B89" s="25"/>
       <c r="C89" s="25"/>
       <c r="D89" s="25"/>
@@ -3713,7 +3724,7 @@
       <c r="R89" s="1"/>
     </row>
     <row r="90" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="27"/>
+      <c r="A90" s="26"/>
       <c r="B90" s="25"/>
       <c r="C90" s="25"/>
       <c r="D90" s="25"/>
@@ -3733,7 +3744,7 @@
       <c r="R90" s="1"/>
     </row>
     <row r="91" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="27"/>
+      <c r="A91" s="26"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
       <c r="D91" s="25"/>
@@ -3753,7 +3764,7 @@
       <c r="R91" s="1"/>
     </row>
     <row r="92" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="27"/>
+      <c r="A92" s="26"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
       <c r="D92" s="25"/>
@@ -3773,16 +3784,16 @@
       <c r="R92" s="1"/>
     </row>
     <row r="93" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="27"/>
-      <c r="B93" s="29" t="s">
+      <c r="A93" s="26"/>
+      <c r="B93" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="30"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="32"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="31"/>
       <c r="I93" s="7"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -3795,16 +3806,16 @@
       <c r="R93" s="1"/>
     </row>
     <row r="94" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="B94" s="74"/>
-      <c r="C94" s="74"/>
-      <c r="D94" s="74"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="74"/>
-      <c r="G94" s="66"/>
-      <c r="H94" s="66"/>
+      <c r="A94" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" s="71"/>
+      <c r="C94" s="71"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="63"/>
+      <c r="H94" s="63"/>
       <c r="I94" s="7"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
@@ -3817,7 +3828,7 @@
       <c r="R94" s="1"/>
     </row>
     <row r="95" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="27"/>
+      <c r="A95" s="26"/>
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
       <c r="D95" s="25"/>
@@ -3837,7 +3848,7 @@
       <c r="R95" s="1"/>
     </row>
     <row r="96" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="27"/>
+      <c r="A96" s="26"/>
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
       <c r="D96" s="25"/>
@@ -3857,7 +3868,7 @@
       <c r="R96" s="1"/>
     </row>
     <row r="97" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="27"/>
+      <c r="A97" s="26"/>
       <c r="B97" s="25"/>
       <c r="C97" s="25"/>
       <c r="D97" s="25"/>
@@ -3877,7 +3888,7 @@
       <c r="R97" s="1"/>
     </row>
     <row r="98" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="27"/>
+      <c r="A98" s="26"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
       <c r="D98" s="25"/>
@@ -3897,7 +3908,7 @@
       <c r="R98" s="1"/>
     </row>
     <row r="99" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="27"/>
+      <c r="A99" s="26"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
       <c r="D99" s="25"/>
@@ -3917,16 +3928,16 @@
       <c r="R99" s="1"/>
     </row>
     <row r="100" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="27"/>
-      <c r="B100" s="29" t="s">
+      <c r="A100" s="26"/>
+      <c r="B100" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="30"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="32"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="31"/>
       <c r="I100" s="7"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
@@ -3939,16 +3950,16 @@
       <c r="R100" s="1"/>
     </row>
     <row r="101" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="B101" s="74"/>
-      <c r="C101" s="74"/>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
+      <c r="A101" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" s="71"/>
+      <c r="C101" s="71"/>
+      <c r="D101" s="71"/>
+      <c r="E101" s="71"/>
+      <c r="F101" s="71"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="63"/>
       <c r="I101" s="7"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
@@ -3961,7 +3972,7 @@
       <c r="R101" s="1"/>
     </row>
     <row r="102" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="27"/>
+      <c r="A102" s="26"/>
       <c r="B102" s="25"/>
       <c r="C102" s="25"/>
       <c r="D102" s="25"/>
@@ -3981,7 +3992,7 @@
       <c r="R102" s="1"/>
     </row>
     <row r="103" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="27"/>
+      <c r="A103" s="26"/>
       <c r="B103" s="25"/>
       <c r="C103" s="25"/>
       <c r="D103" s="25"/>
@@ -4001,7 +4012,7 @@
       <c r="R103" s="1"/>
     </row>
     <row r="104" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="27"/>
+      <c r="A104" s="26"/>
       <c r="B104" s="25"/>
       <c r="C104" s="25"/>
       <c r="D104" s="25"/>
@@ -4021,7 +4032,7 @@
       <c r="R104" s="1"/>
     </row>
     <row r="105" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="27"/>
+      <c r="A105" s="26"/>
       <c r="B105" s="25"/>
       <c r="C105" s="25"/>
       <c r="D105" s="25"/>
@@ -4041,7 +4052,7 @@
       <c r="R105" s="1"/>
     </row>
     <row r="106" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="27"/>
+      <c r="A106" s="26"/>
       <c r="B106" s="25"/>
       <c r="C106" s="25"/>
       <c r="D106" s="25"/>
@@ -4061,16 +4072,16 @@
       <c r="R106" s="1"/>
     </row>
     <row r="107" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="27"/>
-      <c r="B107" s="29" t="s">
+      <c r="A107" s="26"/>
+      <c r="B107" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C107" s="30"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="30"/>
-      <c r="G107" s="31"/>
-      <c r="H107" s="32"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="31"/>
       <c r="I107" s="7"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -4083,16 +4094,16 @@
       <c r="R107" s="1"/>
     </row>
     <row r="108" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="B108" s="74"/>
-      <c r="C108" s="74"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="66"/>
-      <c r="H108" s="66"/>
+      <c r="A108" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B108" s="71"/>
+      <c r="C108" s="71"/>
+      <c r="D108" s="71"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="63"/>
+      <c r="H108" s="63"/>
       <c r="I108" s="7"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
@@ -4105,7 +4116,7 @@
       <c r="R108" s="1"/>
     </row>
     <row r="109" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="27"/>
+      <c r="A109" s="26"/>
       <c r="B109" s="25"/>
       <c r="C109" s="25"/>
       <c r="D109" s="25"/>
@@ -4125,7 +4136,7 @@
       <c r="R109" s="1"/>
     </row>
     <row r="110" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="27"/>
+      <c r="A110" s="26"/>
       <c r="B110" s="25"/>
       <c r="C110" s="25"/>
       <c r="D110" s="25"/>
@@ -4145,7 +4156,7 @@
       <c r="R110" s="1"/>
     </row>
     <row r="111" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="27"/>
+      <c r="A111" s="26"/>
       <c r="B111" s="25"/>
       <c r="C111" s="25"/>
       <c r="D111" s="25"/>
@@ -4165,7 +4176,7 @@
       <c r="R111" s="1"/>
     </row>
     <row r="112" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="27"/>
+      <c r="A112" s="26"/>
       <c r="B112" s="25"/>
       <c r="C112" s="25"/>
       <c r="D112" s="25"/>
@@ -4185,7 +4196,7 @@
       <c r="R112" s="1"/>
     </row>
     <row r="113" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="27"/>
+      <c r="A113" s="26"/>
       <c r="B113" s="25"/>
       <c r="C113" s="25"/>
       <c r="D113" s="25"/>
@@ -4205,16 +4216,16 @@
       <c r="R113" s="1"/>
     </row>
     <row r="114" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="27"/>
-      <c r="B114" s="29" t="s">
+      <c r="A114" s="26"/>
+      <c r="B114" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="31"/>
-      <c r="H114" s="32"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="31"/>
       <c r="I114" s="7"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
@@ -4227,16 +4238,16 @@
       <c r="R114" s="1"/>
     </row>
     <row r="115" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="B115" s="74"/>
-      <c r="C115" s="74"/>
-      <c r="D115" s="74"/>
-      <c r="E115" s="74"/>
-      <c r="F115" s="74"/>
-      <c r="G115" s="66"/>
-      <c r="H115" s="66"/>
+      <c r="A115" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B115" s="71"/>
+      <c r="C115" s="71"/>
+      <c r="D115" s="71"/>
+      <c r="E115" s="71"/>
+      <c r="F115" s="71"/>
+      <c r="G115" s="63"/>
+      <c r="H115" s="63"/>
       <c r="I115" s="7"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
@@ -4249,7 +4260,7 @@
       <c r="R115" s="1"/>
     </row>
     <row r="116" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="27"/>
+      <c r="A116" s="26"/>
       <c r="B116" s="25"/>
       <c r="C116" s="25"/>
       <c r="D116" s="25"/>
@@ -4269,7 +4280,7 @@
       <c r="R116" s="1"/>
     </row>
     <row r="117" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="27"/>
+      <c r="A117" s="26"/>
       <c r="B117" s="25"/>
       <c r="C117" s="25"/>
       <c r="D117" s="25"/>
@@ -4289,7 +4300,7 @@
       <c r="R117" s="1"/>
     </row>
     <row r="118" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="27"/>
+      <c r="A118" s="26"/>
       <c r="B118" s="25"/>
       <c r="C118" s="25"/>
       <c r="D118" s="25"/>
@@ -4309,7 +4320,7 @@
       <c r="R118" s="1"/>
     </row>
     <row r="119" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="27"/>
+      <c r="A119" s="26"/>
       <c r="B119" s="25"/>
       <c r="C119" s="25"/>
       <c r="D119" s="25"/>
@@ -4329,7 +4340,7 @@
       <c r="R119" s="1"/>
     </row>
     <row r="120" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="27"/>
+      <c r="A120" s="26"/>
       <c r="B120" s="25"/>
       <c r="C120" s="25"/>
       <c r="D120" s="25"/>
@@ -4349,16 +4360,16 @@
       <c r="R120" s="1"/>
     </row>
     <row r="121" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="27"/>
-      <c r="B121" s="29" t="s">
+      <c r="A121" s="26"/>
+      <c r="B121" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C121" s="30"/>
-      <c r="D121" s="30"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="30"/>
-      <c r="G121" s="31"/>
-      <c r="H121" s="32"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="31"/>
       <c r="I121" s="7"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
@@ -4371,16 +4382,16 @@
       <c r="R121" s="1"/>
     </row>
     <row r="122" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="B122" s="74"/>
-      <c r="C122" s="74"/>
-      <c r="D122" s="74"/>
-      <c r="E122" s="74"/>
-      <c r="F122" s="74"/>
-      <c r="G122" s="66"/>
-      <c r="H122" s="66"/>
+      <c r="A122" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B122" s="71"/>
+      <c r="C122" s="71"/>
+      <c r="D122" s="71"/>
+      <c r="E122" s="71"/>
+      <c r="F122" s="71"/>
+      <c r="G122" s="63"/>
+      <c r="H122" s="63"/>
       <c r="I122" s="7"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
@@ -4393,7 +4404,7 @@
       <c r="R122" s="1"/>
     </row>
     <row r="123" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="27"/>
+      <c r="A123" s="26"/>
       <c r="B123" s="25"/>
       <c r="C123" s="25"/>
       <c r="D123" s="25"/>
@@ -4413,7 +4424,7 @@
       <c r="R123" s="1"/>
     </row>
     <row r="124" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="27"/>
+      <c r="A124" s="26"/>
       <c r="B124" s="25"/>
       <c r="C124" s="25"/>
       <c r="D124" s="25"/>
@@ -4433,7 +4444,7 @@
       <c r="R124" s="1"/>
     </row>
     <row r="125" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="27"/>
+      <c r="A125" s="26"/>
       <c r="B125" s="25"/>
       <c r="C125" s="25"/>
       <c r="D125" s="25"/>
@@ -4453,7 +4464,7 @@
       <c r="R125" s="1"/>
     </row>
     <row r="126" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="27"/>
+      <c r="A126" s="26"/>
       <c r="B126" s="25"/>
       <c r="C126" s="25"/>
       <c r="D126" s="25"/>
@@ -4473,7 +4484,7 @@
       <c r="R126" s="1"/>
     </row>
     <row r="127" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="27"/>
+      <c r="A127" s="26"/>
       <c r="B127" s="25"/>
       <c r="C127" s="25"/>
       <c r="D127" s="25"/>
@@ -4493,16 +4504,16 @@
       <c r="R127" s="1"/>
     </row>
     <row r="128" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="27"/>
-      <c r="B128" s="29" t="s">
+      <c r="A128" s="26"/>
+      <c r="B128" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C128" s="30"/>
-      <c r="D128" s="30"/>
-      <c r="E128" s="30"/>
-      <c r="F128" s="30"/>
-      <c r="G128" s="31"/>
-      <c r="H128" s="32"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="31"/>
       <c r="I128" s="7"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
@@ -4515,16 +4526,16 @@
       <c r="R128" s="1"/>
     </row>
     <row r="129" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="B129" s="74"/>
-      <c r="C129" s="74"/>
-      <c r="D129" s="74"/>
-      <c r="E129" s="74"/>
-      <c r="F129" s="74"/>
-      <c r="G129" s="66"/>
-      <c r="H129" s="66"/>
+      <c r="A129" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="B129" s="71"/>
+      <c r="C129" s="71"/>
+      <c r="D129" s="71"/>
+      <c r="E129" s="71"/>
+      <c r="F129" s="71"/>
+      <c r="G129" s="63"/>
+      <c r="H129" s="63"/>
       <c r="I129" s="7"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
@@ -4537,7 +4548,7 @@
       <c r="R129" s="1"/>
     </row>
     <row r="130" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="27"/>
+      <c r="A130" s="26"/>
       <c r="B130" s="25"/>
       <c r="C130" s="25"/>
       <c r="D130" s="25"/>
@@ -4557,7 +4568,7 @@
       <c r="R130" s="1"/>
     </row>
     <row r="131" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="27"/>
+      <c r="A131" s="26"/>
       <c r="B131" s="25"/>
       <c r="C131" s="25"/>
       <c r="D131" s="25"/>
@@ -4577,7 +4588,7 @@
       <c r="R131" s="1"/>
     </row>
     <row r="132" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="27"/>
+      <c r="A132" s="26"/>
       <c r="B132" s="25"/>
       <c r="C132" s="25"/>
       <c r="D132" s="25"/>
@@ -4597,7 +4608,7 @@
       <c r="R132" s="1"/>
     </row>
     <row r="133" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="27"/>
+      <c r="A133" s="26"/>
       <c r="B133" s="25"/>
       <c r="C133" s="25"/>
       <c r="D133" s="25"/>
@@ -4617,7 +4628,7 @@
       <c r="R133" s="1"/>
     </row>
     <row r="134" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="27"/>
+      <c r="A134" s="26"/>
       <c r="B134" s="25"/>
       <c r="C134" s="25"/>
       <c r="D134" s="25"/>
@@ -4637,16 +4648,16 @@
       <c r="R134" s="1"/>
     </row>
     <row r="135" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="27"/>
-      <c r="B135" s="29" t="s">
+      <c r="A135" s="26"/>
+      <c r="B135" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C135" s="30"/>
-      <c r="D135" s="30"/>
-      <c r="E135" s="30"/>
-      <c r="F135" s="30"/>
-      <c r="G135" s="31"/>
-      <c r="H135" s="32"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="31"/>
       <c r="I135" s="7"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -4659,16 +4670,16 @@
       <c r="R135" s="1"/>
     </row>
     <row r="136" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B136" s="74"/>
-      <c r="C136" s="74"/>
-      <c r="D136" s="74"/>
-      <c r="E136" s="74"/>
-      <c r="F136" s="74"/>
-      <c r="G136" s="66"/>
-      <c r="H136" s="66"/>
+      <c r="A136" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B136" s="71"/>
+      <c r="C136" s="71"/>
+      <c r="D136" s="71"/>
+      <c r="E136" s="71"/>
+      <c r="F136" s="71"/>
+      <c r="G136" s="63"/>
+      <c r="H136" s="63"/>
       <c r="I136" s="7"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -4681,7 +4692,7 @@
       <c r="R136" s="1"/>
     </row>
     <row r="137" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="27"/>
+      <c r="A137" s="26"/>
       <c r="B137" s="25"/>
       <c r="C137" s="25"/>
       <c r="D137" s="25"/>
@@ -4701,7 +4712,7 @@
       <c r="R137" s="1"/>
     </row>
     <row r="138" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="27"/>
+      <c r="A138" s="26"/>
       <c r="B138" s="25"/>
       <c r="C138" s="25"/>
       <c r="D138" s="25"/>
@@ -4721,7 +4732,7 @@
       <c r="R138" s="1"/>
     </row>
     <row r="139" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="27"/>
+      <c r="A139" s="26"/>
       <c r="B139" s="25"/>
       <c r="C139" s="25"/>
       <c r="D139" s="25"/>
@@ -4741,7 +4752,7 @@
       <c r="R139" s="1"/>
     </row>
     <row r="140" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="27"/>
+      <c r="A140" s="26"/>
       <c r="B140" s="25"/>
       <c r="C140" s="25"/>
       <c r="D140" s="25"/>
@@ -4761,7 +4772,7 @@
       <c r="R140" s="1"/>
     </row>
     <row r="141" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="27"/>
+      <c r="A141" s="26"/>
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
       <c r="D141" s="25"/>
@@ -4781,16 +4792,16 @@
       <c r="R141" s="1"/>
     </row>
     <row r="142" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="27"/>
-      <c r="B142" s="29" t="s">
+      <c r="A142" s="26"/>
+      <c r="B142" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C142" s="30"/>
-      <c r="D142" s="30"/>
-      <c r="E142" s="30"/>
-      <c r="F142" s="30"/>
-      <c r="G142" s="31"/>
-      <c r="H142" s="32"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="29"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="30"/>
+      <c r="H142" s="31"/>
       <c r="I142" s="7"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
@@ -4821,8 +4832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R324"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A132" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4961,16 +4972,16 @@
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="75"/>
+      <c r="D6" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="72"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
@@ -4986,7 +4997,7 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -5006,7 +5017,7 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
@@ -5026,7 +5037,7 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -5046,7 +5057,7 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
@@ -5066,16 +5077,16 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="7"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -5110,17 +5121,17 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="80" t="s">
-        <v>106</v>
+      <c r="A13" s="77" t="s">
+        <v>101</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="75"/>
+      <c r="D13" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="72"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -5136,7 +5147,7 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
@@ -5156,7 +5167,7 @@
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -5176,7 +5187,7 @@
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -5196,7 +5207,7 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -5216,16 +5227,16 @@
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="7"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -5260,17 +5271,17 @@
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="25"/>
-      <c r="D20" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="75"/>
+      <c r="D20" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="72"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
@@ -5286,7 +5297,7 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -5306,7 +5317,7 @@
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -5326,7 +5337,7 @@
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -5346,7 +5357,7 @@
       <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -5366,16 +5377,16 @@
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
       <c r="I25" s="7"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -5411,16 +5422,16 @@
     </row>
     <row r="27" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>31</v>
+        <v>103</v>
+      </c>
+      <c r="B27" s="84" t="s">
+        <v>104</v>
       </c>
       <c r="C27" s="25"/>
-      <c r="D27" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="37"/>
+      <c r="D27" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="72"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -5436,7 +5447,7 @@
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -5456,7 +5467,7 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="25"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -5476,7 +5487,7 @@
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -5496,7 +5507,7 @@
       <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="25"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -5516,16 +5527,16 @@
       <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29" t="s">
+      <c r="A32" s="27"/>
+      <c r="B32" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="32"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="31"/>
       <c r="I32" s="7"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -5539,7 +5550,7 @@
     </row>
     <row r="33" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="22"/>
@@ -5582,7 +5593,7 @@
       <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="25"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -5602,7 +5613,7 @@
       <c r="R35" s="1"/>
     </row>
     <row r="36" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="25"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -5622,7 +5633,7 @@
       <c r="R36" s="1"/>
     </row>
     <row r="37" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="25"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -5642,7 +5653,7 @@
       <c r="R37" s="1"/>
     </row>
     <row r="38" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="27"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -5662,16 +5673,16 @@
       <c r="R38" s="1"/>
     </row>
     <row r="39" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="29" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="32"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
       <c r="I39" s="7"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -5683,9 +5694,9 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
     </row>
-    <row r="40" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
@@ -5707,17 +5718,16 @@
     </row>
     <row r="41" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="25"/>
-      <c r="D41" s="26" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1dSfe8U3m82sh8eTreXsch_e-gteedhMAUBDve1W4JEI&amp;authuser=1","x")</f>
-        <v>x</v>
-      </c>
-      <c r="E41" s="37"/>
+      <c r="D41" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="72"/>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
@@ -5733,7 +5743,7 @@
       <c r="R41" s="1"/>
     </row>
     <row r="42" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -5753,7 +5763,7 @@
       <c r="R42" s="1"/>
     </row>
     <row r="43" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="25"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -5773,7 +5783,7 @@
       <c r="R43" s="1"/>
     </row>
     <row r="44" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="27"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="25"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -5793,7 +5803,7 @@
       <c r="R44" s="1"/>
     </row>
     <row r="45" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="25"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -5813,16 +5823,16 @@
       <c r="R45" s="1"/>
     </row>
     <row r="46" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
-      <c r="B46" s="29" t="s">
+      <c r="A46" s="27"/>
+      <c r="B46" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="32"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="31"/>
       <c r="I46" s="7"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -5834,9 +5844,9 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -5858,17 +5868,16 @@
     </row>
     <row r="48" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="24" t="s">
-        <v>39</v>
-      </c>
       <c r="C48" s="25"/>
-      <c r="D48" s="26" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1GynjhG2dFBfIGeXDx5XA0vWmVijelrFqO8jUd4g_pU0&amp;authuser=1","x")</f>
-        <v>x</v>
-      </c>
-      <c r="E48" s="34"/>
+      <c r="D48" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" s="72"/>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
@@ -5884,7 +5893,7 @@
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -5904,7 +5913,7 @@
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -5924,7 +5933,7 @@
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="27"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="25"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -5944,7 +5953,7 @@
       <c r="R51" s="1"/>
     </row>
     <row r="52" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="27"/>
+      <c r="A52" s="26"/>
       <c r="B52" s="25"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -5964,16 +5973,16 @@
       <c r="R52" s="1"/>
     </row>
     <row r="53" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="28"/>
-      <c r="B53" s="29" t="s">
+      <c r="A53" s="27"/>
+      <c r="B53" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="32"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="31"/>
       <c r="I53" s="7"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -5985,9 +5994,9 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
     </row>
-    <row r="54" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B54" s="22"/>
       <c r="C54" s="22"/>
@@ -6008,18 +6017,17 @@
       <c r="R54" s="1"/>
     </row>
     <row r="55" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>17</v>
+      <c r="A55" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="82" t="s">
+        <v>106</v>
       </c>
       <c r="C55" s="25"/>
-      <c r="D55" s="26" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1/#heading=h.lz5z2m18x9hc","x")</f>
-        <v>x</v>
-      </c>
-      <c r="E55" s="37"/>
+      <c r="D55" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="72"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
@@ -6035,7 +6043,7 @@
       <c r="R55" s="1"/>
     </row>
     <row r="56" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="27"/>
+      <c r="A56" s="26"/>
       <c r="B56" s="25"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -6055,7 +6063,7 @@
       <c r="R56" s="1"/>
     </row>
     <row r="57" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="27"/>
+      <c r="A57" s="26"/>
       <c r="B57" s="25"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -6075,7 +6083,7 @@
       <c r="R57" s="1"/>
     </row>
     <row r="58" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="27"/>
+      <c r="A58" s="26"/>
       <c r="B58" s="25"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -6095,7 +6103,7 @@
       <c r="R58" s="1"/>
     </row>
     <row r="59" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="27"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="25"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -6115,16 +6123,16 @@
       <c r="R59" s="1"/>
     </row>
     <row r="60" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
-      <c r="B60" s="29" t="s">
+      <c r="A60" s="27"/>
+      <c r="B60" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="32"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="31"/>
       <c r="I60" s="7"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -6136,9 +6144,9 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
     </row>
-    <row r="61" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="22"/>
@@ -6159,13 +6167,17 @@
       <c r="R61" s="1"/>
     </row>
     <row r="62" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B62" s="25"/>
+      <c r="A62" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="82" t="s">
+        <v>108</v>
+      </c>
       <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="37"/>
+      <c r="D62" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" s="72"/>
       <c r="F62" s="25"/>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
@@ -6181,7 +6193,7 @@
       <c r="R62" s="1"/>
     </row>
     <row r="63" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="27"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="25"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -6201,7 +6213,7 @@
       <c r="R63" s="1"/>
     </row>
     <row r="64" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="27"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -6221,7 +6233,7 @@
       <c r="R64" s="1"/>
     </row>
     <row r="65" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="27"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="25"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -6241,7 +6253,7 @@
       <c r="R65" s="1"/>
     </row>
     <row r="66" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="27"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="25"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -6261,16 +6273,16 @@
       <c r="R66" s="1"/>
     </row>
     <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="28"/>
-      <c r="B67" s="29" t="s">
+      <c r="A67" s="27"/>
+      <c r="B67" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="32"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="31"/>
       <c r="I67" s="7"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -6282,9 +6294,9 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
     </row>
-    <row r="68" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="22"/>
@@ -6306,12 +6318,12 @@
     </row>
     <row r="69" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B69" s="25"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
-      <c r="E69" s="37"/>
+      <c r="E69" s="72"/>
       <c r="F69" s="25"/>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
@@ -6327,7 +6339,7 @@
       <c r="R69" s="1"/>
     </row>
     <row r="70" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="27"/>
+      <c r="A70" s="26"/>
       <c r="B70" s="25"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -6347,7 +6359,7 @@
       <c r="R70" s="1"/>
     </row>
     <row r="71" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="27"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="25"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -6367,7 +6379,7 @@
       <c r="R71" s="1"/>
     </row>
     <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="27"/>
+      <c r="A72" s="26"/>
       <c r="B72" s="25"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -6387,7 +6399,7 @@
       <c r="R72" s="1"/>
     </row>
     <row r="73" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="27"/>
+      <c r="A73" s="26"/>
       <c r="B73" s="25"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -6407,16 +6419,16 @@
       <c r="R73" s="1"/>
     </row>
     <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="28"/>
-      <c r="B74" s="29" t="s">
+      <c r="A74" s="27"/>
+      <c r="B74" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="32"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="31"/>
       <c r="I74" s="7"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -6428,9 +6440,9 @@
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
     </row>
-    <row r="75" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -6451,18 +6463,17 @@
       <c r="R75" s="1"/>
     </row>
     <row r="76" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>17</v>
+      <c r="A76" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" s="82" t="s">
+        <v>110</v>
       </c>
       <c r="C76" s="25"/>
-      <c r="D76" s="26" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1/#heading=h.tnnwjg1707az","x")</f>
-        <v>x</v>
-      </c>
-      <c r="E76" s="37"/>
+      <c r="D76" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="72"/>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
@@ -6478,7 +6489,7 @@
       <c r="R76" s="1"/>
     </row>
     <row r="77" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="27"/>
+      <c r="A77" s="26"/>
       <c r="B77" s="25"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -6498,7 +6509,7 @@
       <c r="R77" s="1"/>
     </row>
     <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="27"/>
+      <c r="A78" s="26"/>
       <c r="B78" s="25"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -6518,7 +6529,7 @@
       <c r="R78" s="1"/>
     </row>
     <row r="79" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="27"/>
+      <c r="A79" s="26"/>
       <c r="B79" s="25"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -6538,7 +6549,7 @@
       <c r="R79" s="1"/>
     </row>
     <row r="80" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="27"/>
+      <c r="A80" s="26"/>
       <c r="B80" s="25"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -6558,16 +6569,16 @@
       <c r="R80" s="1"/>
     </row>
     <row r="81" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="28"/>
-      <c r="B81" s="29" t="s">
+      <c r="A81" s="27"/>
+      <c r="B81" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="32"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="31"/>
       <c r="I81" s="7"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
@@ -6579,9 +6590,9 @@
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
     </row>
-    <row r="82" spans="1:18" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -6609,11 +6620,10 @@
         <v>17</v>
       </c>
       <c r="C83" s="25"/>
-      <c r="D83" s="26" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1","x")</f>
-        <v>x</v>
-      </c>
-      <c r="E83" s="37"/>
+      <c r="D83" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83" s="72"/>
       <c r="F83" s="25"/>
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
@@ -6629,7 +6639,7 @@
       <c r="R83" s="1"/>
     </row>
     <row r="84" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="27"/>
+      <c r="A84" s="26"/>
       <c r="B84" s="25"/>
       <c r="C84" s="25"/>
       <c r="D84" s="25"/>
@@ -6649,7 +6659,7 @@
       <c r="R84" s="1"/>
     </row>
     <row r="85" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="27"/>
+      <c r="A85" s="26"/>
       <c r="B85" s="25"/>
       <c r="C85" s="25"/>
       <c r="D85" s="25"/>
@@ -6669,7 +6679,7 @@
       <c r="R85" s="1"/>
     </row>
     <row r="86" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="27"/>
+      <c r="A86" s="26"/>
       <c r="B86" s="25"/>
       <c r="C86" s="25"/>
       <c r="D86" s="25"/>
@@ -6689,7 +6699,7 @@
       <c r="R86" s="1"/>
     </row>
     <row r="87" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="27"/>
+      <c r="A87" s="26"/>
       <c r="B87" s="25"/>
       <c r="C87" s="25"/>
       <c r="D87" s="25"/>
@@ -6709,16 +6719,16 @@
       <c r="R87" s="1"/>
     </row>
     <row r="88" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="28"/>
-      <c r="B88" s="29" t="s">
+      <c r="A88" s="27"/>
+      <c r="B88" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="32"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="31"/>
       <c r="I88" s="7"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -6730,9 +6740,9 @@
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
     </row>
-    <row r="89" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="22"/>
@@ -6753,13 +6763,17 @@
       <c r="R89" s="1"/>
     </row>
     <row r="90" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B90" s="25"/>
+      <c r="A90" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" s="82" t="s">
+        <v>112</v>
+      </c>
       <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="37"/>
+      <c r="D90" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E90" s="72"/>
       <c r="F90" s="25"/>
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
@@ -6775,7 +6789,7 @@
       <c r="R90" s="1"/>
     </row>
     <row r="91" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="27"/>
+      <c r="A91" s="26"/>
       <c r="B91" s="25"/>
       <c r="C91" s="25"/>
       <c r="D91" s="25"/>
@@ -6795,7 +6809,7 @@
       <c r="R91" s="1"/>
     </row>
     <row r="92" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="27"/>
+      <c r="A92" s="26"/>
       <c r="B92" s="25"/>
       <c r="C92" s="25"/>
       <c r="D92" s="25"/>
@@ -6815,7 +6829,7 @@
       <c r="R92" s="1"/>
     </row>
     <row r="93" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="27"/>
+      <c r="A93" s="26"/>
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
       <c r="D93" s="25"/>
@@ -6835,7 +6849,7 @@
       <c r="R93" s="1"/>
     </row>
     <row r="94" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="27"/>
+      <c r="A94" s="26"/>
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
       <c r="D94" s="25"/>
@@ -6855,16 +6869,16 @@
       <c r="R94" s="1"/>
     </row>
     <row r="95" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="28"/>
-      <c r="B95" s="29" t="s">
+      <c r="A95" s="27"/>
+      <c r="B95" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="32"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="31"/>
       <c r="I95" s="7"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -6876,9 +6890,9 @@
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
     </row>
-    <row r="96" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="22"/>
@@ -6899,13 +6913,17 @@
       <c r="R96" s="1"/>
     </row>
     <row r="97" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B97" s="25"/>
+      <c r="A97" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" s="82" t="s">
+        <v>91</v>
+      </c>
       <c r="C97" s="25"/>
-      <c r="D97" s="41"/>
-      <c r="E97" s="37"/>
+      <c r="D97" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E97" s="72"/>
       <c r="F97" s="25"/>
       <c r="G97" s="25"/>
       <c r="H97" s="25"/>
@@ -6921,7 +6939,7 @@
       <c r="R97" s="1"/>
     </row>
     <row r="98" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="27"/>
+      <c r="A98" s="26"/>
       <c r="B98" s="25"/>
       <c r="C98" s="25"/>
       <c r="D98" s="25"/>
@@ -6941,7 +6959,7 @@
       <c r="R98" s="1"/>
     </row>
     <row r="99" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="27"/>
+      <c r="A99" s="26"/>
       <c r="B99" s="25"/>
       <c r="C99" s="25"/>
       <c r="D99" s="25"/>
@@ -6961,7 +6979,7 @@
       <c r="R99" s="1"/>
     </row>
     <row r="100" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="27"/>
+      <c r="A100" s="26"/>
       <c r="B100" s="25"/>
       <c r="C100" s="25"/>
       <c r="D100" s="25"/>
@@ -6981,7 +6999,7 @@
       <c r="R100" s="1"/>
     </row>
     <row r="101" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="27"/>
+      <c r="A101" s="26"/>
       <c r="B101" s="25"/>
       <c r="C101" s="25"/>
       <c r="D101" s="25"/>
@@ -7001,16 +7019,16 @@
       <c r="R101" s="1"/>
     </row>
     <row r="102" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="28"/>
-      <c r="B102" s="29" t="s">
+      <c r="A102" s="27"/>
+      <c r="B102" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="32"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="31"/>
       <c r="I102" s="7"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
@@ -7022,9 +7040,9 @@
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
     </row>
-    <row r="103" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="43" t="s">
-        <v>56</v>
+    <row r="103" spans="1:18" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="B103" s="19"/>
       <c r="C103" s="22"/>
@@ -7046,17 +7064,16 @@
     </row>
     <row r="104" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="C104" s="25"/>
-      <c r="D104" s="26" t="str">
-        <f>HYPERLINK("https://drive.google.com/open?id=1vfETlzbkCwqKra6CKWoT61dP-rYr3j0QCKXAng5ih6A&amp;authuser=1","x")</f>
-        <v>x</v>
-      </c>
-      <c r="E104" s="37"/>
+      <c r="D104" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="E104" s="72"/>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
       <c r="H104" s="25"/>
@@ -7072,7 +7089,7 @@
       <c r="R104" s="1"/>
     </row>
     <row r="105" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="27"/>
+      <c r="A105" s="26"/>
       <c r="B105" s="25"/>
       <c r="C105" s="25"/>
       <c r="D105" s="25"/>
@@ -7092,7 +7109,7 @@
       <c r="R105" s="1"/>
     </row>
     <row r="106" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="27"/>
+      <c r="A106" s="26"/>
       <c r="B106" s="25"/>
       <c r="C106" s="25"/>
       <c r="D106" s="25"/>
@@ -7112,7 +7129,7 @@
       <c r="R106" s="1"/>
     </row>
     <row r="107" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="27"/>
+      <c r="A107" s="26"/>
       <c r="B107" s="25"/>
       <c r="C107" s="25"/>
       <c r="D107" s="25"/>
@@ -7132,7 +7149,7 @@
       <c r="R107" s="1"/>
     </row>
     <row r="108" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="27"/>
+      <c r="A108" s="26"/>
       <c r="B108" s="25"/>
       <c r="C108" s="25"/>
       <c r="D108" s="25"/>
@@ -7152,16 +7169,16 @@
       <c r="R108" s="1"/>
     </row>
     <row r="109" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="28"/>
-      <c r="B109" s="29" t="s">
+      <c r="A109" s="27"/>
+      <c r="B109" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="31"/>
-      <c r="H109" s="32"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="31"/>
       <c r="I109" s="7"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
@@ -7173,9 +7190,9 @@
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
     </row>
-    <row r="110" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="43" t="s">
-        <v>60</v>
+    <row r="110" spans="1:18" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="40" t="s">
+        <v>56</v>
       </c>
       <c r="B110" s="19"/>
       <c r="C110" s="22"/>
@@ -7196,13 +7213,17 @@
       <c r="R110" s="1"/>
     </row>
     <row r="111" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B111" s="25"/>
+      <c r="A111" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" s="38" t="s">
+        <v>115</v>
+      </c>
       <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="37"/>
+      <c r="D111" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E111" s="72"/>
       <c r="F111" s="25"/>
       <c r="G111" s="25"/>
       <c r="H111" s="25"/>
@@ -7218,7 +7239,7 @@
       <c r="R111" s="1"/>
     </row>
     <row r="112" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="27"/>
+      <c r="A112" s="26"/>
       <c r="B112" s="25"/>
       <c r="C112" s="25"/>
       <c r="D112" s="25"/>
@@ -7238,7 +7259,7 @@
       <c r="R112" s="1"/>
     </row>
     <row r="113" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="27"/>
+      <c r="A113" s="26"/>
       <c r="B113" s="25"/>
       <c r="C113" s="25"/>
       <c r="D113" s="25"/>
@@ -7258,7 +7279,7 @@
       <c r="R113" s="1"/>
     </row>
     <row r="114" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="27"/>
+      <c r="A114" s="26"/>
       <c r="B114" s="25"/>
       <c r="C114" s="25"/>
       <c r="D114" s="25"/>
@@ -7278,7 +7299,7 @@
       <c r="R114" s="1"/>
     </row>
     <row r="115" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="27"/>
+      <c r="A115" s="26"/>
       <c r="B115" s="25"/>
       <c r="C115" s="25"/>
       <c r="D115" s="25"/>
@@ -7298,16 +7319,16 @@
       <c r="R115" s="1"/>
     </row>
     <row r="116" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="28"/>
-      <c r="B116" s="29" t="s">
+      <c r="A116" s="27"/>
+      <c r="B116" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C116" s="30"/>
-      <c r="D116" s="30"/>
-      <c r="E116" s="30"/>
-      <c r="F116" s="30"/>
-      <c r="G116" s="31"/>
-      <c r="H116" s="32"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="31"/>
       <c r="I116" s="7"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
@@ -7319,9 +7340,9 @@
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
     </row>
-    <row r="117" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="43" t="s">
-        <v>61</v>
+    <row r="117" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="B117" s="19"/>
       <c r="C117" s="22"/>
@@ -7342,13 +7363,17 @@
       <c r="R117" s="1"/>
     </row>
     <row r="118" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B118" s="25"/>
+      <c r="A118" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B118" s="38" t="s">
+        <v>115</v>
+      </c>
       <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="37"/>
+      <c r="D118" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E118" s="72"/>
       <c r="F118" s="25"/>
       <c r="G118" s="25"/>
       <c r="H118" s="25"/>
@@ -7364,7 +7389,7 @@
       <c r="R118" s="1"/>
     </row>
     <row r="119" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="27"/>
+      <c r="A119" s="26"/>
       <c r="B119" s="25"/>
       <c r="C119" s="25"/>
       <c r="D119" s="25"/>
@@ -7384,7 +7409,7 @@
       <c r="R119" s="1"/>
     </row>
     <row r="120" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="27"/>
+      <c r="A120" s="26"/>
       <c r="B120" s="25"/>
       <c r="C120" s="25"/>
       <c r="D120" s="25"/>
@@ -7404,7 +7429,7 @@
       <c r="R120" s="1"/>
     </row>
     <row r="121" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="27"/>
+      <c r="A121" s="26"/>
       <c r="B121" s="25"/>
       <c r="C121" s="25"/>
       <c r="D121" s="25"/>
@@ -7424,7 +7449,7 @@
       <c r="R121" s="1"/>
     </row>
     <row r="122" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="27"/>
+      <c r="A122" s="26"/>
       <c r="B122" s="25"/>
       <c r="C122" s="25"/>
       <c r="D122" s="25"/>
@@ -7444,16 +7469,16 @@
       <c r="R122" s="1"/>
     </row>
     <row r="123" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="28"/>
-      <c r="B123" s="29" t="s">
+      <c r="A123" s="27"/>
+      <c r="B123" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="30"/>
-      <c r="G123" s="31"/>
-      <c r="H123" s="32"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="31"/>
       <c r="I123" s="7"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
@@ -7465,9 +7490,9 @@
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
     </row>
-    <row r="124" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="43" t="s">
-        <v>62</v>
+    <row r="124" spans="1:18" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="40" t="s">
+        <v>58</v>
       </c>
       <c r="B124" s="19"/>
       <c r="C124" s="22"/>
@@ -7489,12 +7514,16 @@
     </row>
     <row r="125" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B125" s="25"/>
+        <v>118</v>
+      </c>
+      <c r="B125" s="25" t="s">
+        <v>119</v>
+      </c>
       <c r="C125" s="25"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="37"/>
+      <c r="D125" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E125" s="72"/>
       <c r="F125" s="25"/>
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
@@ -7510,7 +7539,7 @@
       <c r="R125" s="1"/>
     </row>
     <row r="126" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="27"/>
+      <c r="A126" s="26"/>
       <c r="B126" s="25"/>
       <c r="C126" s="25"/>
       <c r="D126" s="25"/>
@@ -7530,7 +7559,7 @@
       <c r="R126" s="1"/>
     </row>
     <row r="127" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="27"/>
+      <c r="A127" s="26"/>
       <c r="B127" s="25"/>
       <c r="C127" s="25"/>
       <c r="D127" s="25"/>
@@ -7550,7 +7579,7 @@
       <c r="R127" s="1"/>
     </row>
     <row r="128" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="27"/>
+      <c r="A128" s="26"/>
       <c r="B128" s="25"/>
       <c r="C128" s="25"/>
       <c r="D128" s="25"/>
@@ -7570,7 +7599,7 @@
       <c r="R128" s="1"/>
     </row>
     <row r="129" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="27"/>
+      <c r="A129" s="26"/>
       <c r="B129" s="25"/>
       <c r="C129" s="25"/>
       <c r="D129" s="25"/>
@@ -7590,16 +7619,16 @@
       <c r="R129" s="1"/>
     </row>
     <row r="130" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="28"/>
-      <c r="B130" s="29" t="s">
+      <c r="A130" s="27"/>
+      <c r="B130" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C130" s="30"/>
-      <c r="D130" s="30"/>
-      <c r="E130" s="30"/>
-      <c r="F130" s="30"/>
-      <c r="G130" s="31"/>
-      <c r="H130" s="32"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="31"/>
       <c r="I130" s="7"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
@@ -7611,9 +7640,9 @@
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
     </row>
-    <row r="131" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="43" t="s">
-        <v>63</v>
+    <row r="131" spans="1:18" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="40" t="s">
+        <v>59</v>
       </c>
       <c r="B131" s="19"/>
       <c r="C131" s="22"/>
@@ -7635,12 +7664,16 @@
     </row>
     <row r="132" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B132" s="25"/>
+        <v>116</v>
+      </c>
+      <c r="B132" s="25" t="s">
+        <v>117</v>
+      </c>
       <c r="C132" s="25"/>
-      <c r="D132" s="25"/>
-      <c r="E132" s="37"/>
+      <c r="D132" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E132" s="72"/>
       <c r="F132" s="25"/>
       <c r="G132" s="25"/>
       <c r="H132" s="25"/>
@@ -7656,7 +7689,7 @@
       <c r="R132" s="1"/>
     </row>
     <row r="133" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="27"/>
+      <c r="A133" s="26"/>
       <c r="B133" s="25"/>
       <c r="C133" s="25"/>
       <c r="D133" s="25"/>
@@ -7676,7 +7709,7 @@
       <c r="R133" s="1"/>
     </row>
     <row r="134" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="27"/>
+      <c r="A134" s="26"/>
       <c r="B134" s="25"/>
       <c r="C134" s="25"/>
       <c r="D134" s="25"/>
@@ -7696,7 +7729,7 @@
       <c r="R134" s="1"/>
     </row>
     <row r="135" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="27"/>
+      <c r="A135" s="26"/>
       <c r="B135" s="25"/>
       <c r="C135" s="25"/>
       <c r="D135" s="25"/>
@@ -7716,7 +7749,7 @@
       <c r="R135" s="1"/>
     </row>
     <row r="136" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="27"/>
+      <c r="A136" s="26"/>
       <c r="B136" s="25"/>
       <c r="C136" s="25"/>
       <c r="D136" s="25"/>
@@ -7736,16 +7769,16 @@
       <c r="R136" s="1"/>
     </row>
     <row r="137" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="28"/>
-      <c r="B137" s="29" t="s">
+      <c r="A137" s="27"/>
+      <c r="B137" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="30"/>
-      <c r="G137" s="31"/>
-      <c r="H137" s="32"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="31"/>
       <c r="I137" s="7"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
@@ -7757,9 +7790,9 @@
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
     </row>
-    <row r="138" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:18" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B138" s="19"/>
       <c r="C138" s="22"/>
@@ -7781,12 +7814,16 @@
     </row>
     <row r="139" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B139" s="25"/>
+        <v>120</v>
+      </c>
+      <c r="B139" s="25" t="s">
+        <v>115</v>
+      </c>
       <c r="C139" s="25"/>
-      <c r="D139" s="25"/>
-      <c r="E139" s="37"/>
+      <c r="D139" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E139" s="72"/>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
       <c r="H139" s="25"/>
@@ -7802,7 +7839,7 @@
       <c r="R139" s="1"/>
     </row>
     <row r="140" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="27"/>
+      <c r="A140" s="26"/>
       <c r="B140" s="25"/>
       <c r="C140" s="25"/>
       <c r="D140" s="25"/>
@@ -7822,7 +7859,7 @@
       <c r="R140" s="1"/>
     </row>
     <row r="141" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="27"/>
+      <c r="A141" s="26"/>
       <c r="B141" s="25"/>
       <c r="C141" s="25"/>
       <c r="D141" s="25"/>
@@ -7842,7 +7879,7 @@
       <c r="R141" s="1"/>
     </row>
     <row r="142" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="27"/>
+      <c r="A142" s="26"/>
       <c r="B142" s="25"/>
       <c r="C142" s="25"/>
       <c r="D142" s="25"/>
@@ -7862,7 +7899,7 @@
       <c r="R142" s="1"/>
     </row>
     <row r="143" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="27"/>
+      <c r="A143" s="26"/>
       <c r="B143" s="25"/>
       <c r="C143" s="25"/>
       <c r="D143" s="25"/>
@@ -7882,16 +7919,16 @@
       <c r="R143" s="1"/>
     </row>
     <row r="144" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="28"/>
-      <c r="B144" s="29" t="s">
+      <c r="A144" s="27"/>
+      <c r="B144" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C144" s="30"/>
-      <c r="D144" s="30"/>
-      <c r="E144" s="30"/>
-      <c r="F144" s="30"/>
-      <c r="G144" s="31"/>
-      <c r="H144" s="32"/>
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="29"/>
+      <c r="F144" s="29"/>
+      <c r="G144" s="30"/>
+      <c r="H144" s="31"/>
       <c r="I144" s="7"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
@@ -7903,9 +7940,9 @@
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
     </row>
-    <row r="145" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:18" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B145" s="19"/>
       <c r="C145" s="22"/>
@@ -7926,13 +7963,17 @@
       <c r="R145" s="1"/>
     </row>
     <row r="146" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B146" s="25"/>
+      <c r="A146" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B146" s="38" t="s">
+        <v>115</v>
+      </c>
       <c r="C146" s="25"/>
-      <c r="D146" s="25"/>
-      <c r="E146" s="37"/>
+      <c r="D146" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E146" s="72"/>
       <c r="F146" s="25"/>
       <c r="G146" s="25"/>
       <c r="H146" s="25"/>
@@ -7948,7 +7989,7 @@
       <c r="R146" s="1"/>
     </row>
     <row r="147" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="27"/>
+      <c r="A147" s="26"/>
       <c r="B147" s="25"/>
       <c r="C147" s="25"/>
       <c r="D147" s="25"/>
@@ -7968,7 +8009,7 @@
       <c r="R147" s="1"/>
     </row>
     <row r="148" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="27"/>
+      <c r="A148" s="26"/>
       <c r="B148" s="25"/>
       <c r="C148" s="25"/>
       <c r="D148" s="25"/>
@@ -7988,7 +8029,7 @@
       <c r="R148" s="1"/>
     </row>
     <row r="149" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="27"/>
+      <c r="A149" s="26"/>
       <c r="B149" s="25"/>
       <c r="C149" s="25"/>
       <c r="D149" s="25"/>
@@ -8008,7 +8049,7 @@
       <c r="R149" s="1"/>
     </row>
     <row r="150" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="27"/>
+      <c r="A150" s="26"/>
       <c r="B150" s="25"/>
       <c r="C150" s="25"/>
       <c r="D150" s="25"/>
@@ -8028,16 +8069,16 @@
       <c r="R150" s="1"/>
     </row>
     <row r="151" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="28"/>
-      <c r="B151" s="29" t="s">
+      <c r="A151" s="27"/>
+      <c r="B151" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C151" s="30"/>
-      <c r="D151" s="30"/>
-      <c r="E151" s="30"/>
-      <c r="F151" s="30"/>
-      <c r="G151" s="31"/>
-      <c r="H151" s="32"/>
+      <c r="C151" s="29"/>
+      <c r="D151" s="29"/>
+      <c r="E151" s="29"/>
+      <c r="F151" s="29"/>
+      <c r="G151" s="30"/>
+      <c r="H151" s="31"/>
       <c r="I151" s="7"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
@@ -8051,7 +8092,7 @@
     </row>
     <row r="152" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B152" s="19"/>
       <c r="C152" s="22"/>
@@ -8094,7 +8135,7 @@
       <c r="R153" s="1"/>
     </row>
     <row r="154" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="27"/>
+      <c r="A154" s="26"/>
       <c r="B154" s="25"/>
       <c r="C154" s="25"/>
       <c r="D154" s="25"/>
@@ -8114,7 +8155,7 @@
       <c r="R154" s="1"/>
     </row>
     <row r="155" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="27"/>
+      <c r="A155" s="26"/>
       <c r="B155" s="25"/>
       <c r="C155" s="25"/>
       <c r="D155" s="25"/>
@@ -8134,7 +8175,7 @@
       <c r="R155" s="1"/>
     </row>
     <row r="156" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="27"/>
+      <c r="A156" s="26"/>
       <c r="B156" s="25"/>
       <c r="C156" s="25"/>
       <c r="D156" s="25"/>
@@ -8154,7 +8195,7 @@
       <c r="R156" s="1"/>
     </row>
     <row r="157" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="27"/>
+      <c r="A157" s="26"/>
       <c r="B157" s="25"/>
       <c r="C157" s="25"/>
       <c r="D157" s="25"/>
@@ -8174,16 +8215,16 @@
       <c r="R157" s="1"/>
     </row>
     <row r="158" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="28"/>
-      <c r="B158" s="29" t="s">
+      <c r="A158" s="27"/>
+      <c r="B158" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C158" s="30"/>
-      <c r="D158" s="30"/>
-      <c r="E158" s="30"/>
-      <c r="F158" s="30"/>
-      <c r="G158" s="31"/>
-      <c r="H158" s="32"/>
+      <c r="C158" s="29"/>
+      <c r="D158" s="29"/>
+      <c r="E158" s="29"/>
+      <c r="F158" s="29"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="31"/>
       <c r="I158" s="7"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
@@ -8197,7 +8238,7 @@
     </row>
     <row r="159" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B159" s="19"/>
       <c r="C159" s="22"/>
@@ -8240,7 +8281,7 @@
       <c r="R160" s="1"/>
     </row>
     <row r="161" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="27"/>
+      <c r="A161" s="26"/>
       <c r="B161" s="25"/>
       <c r="C161" s="25"/>
       <c r="D161" s="25"/>
@@ -8260,7 +8301,7 @@
       <c r="R161" s="1"/>
     </row>
     <row r="162" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="27"/>
+      <c r="A162" s="26"/>
       <c r="B162" s="25"/>
       <c r="C162" s="25"/>
       <c r="D162" s="25"/>
@@ -8280,7 +8321,7 @@
       <c r="R162" s="1"/>
     </row>
     <row r="163" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="27"/>
+      <c r="A163" s="26"/>
       <c r="B163" s="25"/>
       <c r="C163" s="25"/>
       <c r="D163" s="25"/>
@@ -8300,7 +8341,7 @@
       <c r="R163" s="1"/>
     </row>
     <row r="164" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="27"/>
+      <c r="A164" s="26"/>
       <c r="B164" s="25"/>
       <c r="C164" s="25"/>
       <c r="D164" s="25"/>
@@ -8320,16 +8361,16 @@
       <c r="R164" s="1"/>
     </row>
     <row r="165" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="28"/>
-      <c r="B165" s="29" t="s">
+      <c r="A165" s="27"/>
+      <c r="B165" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C165" s="30"/>
-      <c r="D165" s="30"/>
-      <c r="E165" s="30"/>
-      <c r="F165" s="30"/>
-      <c r="G165" s="31"/>
-      <c r="H165" s="32"/>
+      <c r="C165" s="29"/>
+      <c r="D165" s="29"/>
+      <c r="E165" s="29"/>
+      <c r="F165" s="29"/>
+      <c r="G165" s="30"/>
+      <c r="H165" s="31"/>
       <c r="I165" s="7"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
@@ -8343,7 +8384,7 @@
     </row>
     <row r="166" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B166" s="19"/>
       <c r="C166" s="22"/>
@@ -8386,7 +8427,7 @@
       <c r="R167" s="1"/>
     </row>
     <row r="168" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="27"/>
+      <c r="A168" s="26"/>
       <c r="B168" s="25"/>
       <c r="C168" s="25"/>
       <c r="D168" s="25"/>
@@ -8406,7 +8447,7 @@
       <c r="R168" s="1"/>
     </row>
     <row r="169" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="27"/>
+      <c r="A169" s="26"/>
       <c r="B169" s="25"/>
       <c r="C169" s="25"/>
       <c r="D169" s="25"/>
@@ -8426,7 +8467,7 @@
       <c r="R169" s="1"/>
     </row>
     <row r="170" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="27"/>
+      <c r="A170" s="26"/>
       <c r="B170" s="25"/>
       <c r="C170" s="25"/>
       <c r="D170" s="25"/>
@@ -8446,7 +8487,7 @@
       <c r="R170" s="1"/>
     </row>
     <row r="171" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="27"/>
+      <c r="A171" s="26"/>
       <c r="B171" s="25"/>
       <c r="C171" s="25"/>
       <c r="D171" s="25"/>
@@ -8466,16 +8507,16 @@
       <c r="R171" s="1"/>
     </row>
     <row r="172" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="28"/>
-      <c r="B172" s="29" t="s">
+      <c r="A172" s="27"/>
+      <c r="B172" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C172" s="30"/>
-      <c r="D172" s="30"/>
-      <c r="E172" s="30"/>
-      <c r="F172" s="30"/>
-      <c r="G172" s="31"/>
-      <c r="H172" s="32"/>
+      <c r="C172" s="29"/>
+      <c r="D172" s="29"/>
+      <c r="E172" s="29"/>
+      <c r="F172" s="29"/>
+      <c r="G172" s="30"/>
+      <c r="H172" s="31"/>
       <c r="I172" s="7"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
@@ -8489,7 +8530,7 @@
     </row>
     <row r="173" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B173" s="19"/>
       <c r="C173" s="22"/>
@@ -8532,7 +8573,7 @@
       <c r="R174" s="1"/>
     </row>
     <row r="175" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="27"/>
+      <c r="A175" s="26"/>
       <c r="B175" s="25"/>
       <c r="C175" s="25"/>
       <c r="D175" s="25"/>
@@ -8552,7 +8593,7 @@
       <c r="R175" s="1"/>
     </row>
     <row r="176" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="27"/>
+      <c r="A176" s="26"/>
       <c r="B176" s="25"/>
       <c r="C176" s="25"/>
       <c r="D176" s="25"/>
@@ -8572,7 +8613,7 @@
       <c r="R176" s="1"/>
     </row>
     <row r="177" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="27"/>
+      <c r="A177" s="26"/>
       <c r="B177" s="25"/>
       <c r="C177" s="25"/>
       <c r="D177" s="25"/>
@@ -8592,7 +8633,7 @@
       <c r="R177" s="1"/>
     </row>
     <row r="178" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="27"/>
+      <c r="A178" s="26"/>
       <c r="B178" s="25"/>
       <c r="C178" s="25"/>
       <c r="D178" s="25"/>
@@ -8612,16 +8653,16 @@
       <c r="R178" s="1"/>
     </row>
     <row r="179" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="28"/>
-      <c r="B179" s="29" t="s">
+      <c r="A179" s="27"/>
+      <c r="B179" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C179" s="30"/>
-      <c r="D179" s="30"/>
-      <c r="E179" s="30"/>
-      <c r="F179" s="30"/>
-      <c r="G179" s="31"/>
-      <c r="H179" s="32"/>
+      <c r="C179" s="29"/>
+      <c r="D179" s="29"/>
+      <c r="E179" s="29"/>
+      <c r="F179" s="29"/>
+      <c r="G179" s="30"/>
+      <c r="H179" s="31"/>
       <c r="I179" s="7"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
@@ -8635,7 +8676,7 @@
     </row>
     <row r="180" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B180" s="19"/>
       <c r="C180" s="22"/>
@@ -8678,7 +8719,7 @@
       <c r="R181" s="1"/>
     </row>
     <row r="182" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="27"/>
+      <c r="A182" s="26"/>
       <c r="B182" s="25"/>
       <c r="C182" s="25"/>
       <c r="D182" s="25"/>
@@ -8698,7 +8739,7 @@
       <c r="R182" s="1"/>
     </row>
     <row r="183" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="27"/>
+      <c r="A183" s="26"/>
       <c r="B183" s="25"/>
       <c r="C183" s="25"/>
       <c r="D183" s="25"/>
@@ -8718,7 +8759,7 @@
       <c r="R183" s="1"/>
     </row>
     <row r="184" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="27"/>
+      <c r="A184" s="26"/>
       <c r="B184" s="25"/>
       <c r="C184" s="25"/>
       <c r="D184" s="25"/>
@@ -8738,7 +8779,7 @@
       <c r="R184" s="1"/>
     </row>
     <row r="185" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="27"/>
+      <c r="A185" s="26"/>
       <c r="B185" s="25"/>
       <c r="C185" s="25"/>
       <c r="D185" s="25"/>
@@ -8758,16 +8799,16 @@
       <c r="R185" s="1"/>
     </row>
     <row r="186" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="28"/>
-      <c r="B186" s="29" t="s">
+      <c r="A186" s="27"/>
+      <c r="B186" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C186" s="30"/>
-      <c r="D186" s="30"/>
-      <c r="E186" s="30"/>
-      <c r="F186" s="30"/>
-      <c r="G186" s="31"/>
-      <c r="H186" s="32"/>
+      <c r="C186" s="29"/>
+      <c r="D186" s="29"/>
+      <c r="E186" s="29"/>
+      <c r="F186" s="29"/>
+      <c r="G186" s="30"/>
+      <c r="H186" s="31"/>
       <c r="I186" s="7"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
@@ -8781,7 +8822,7 @@
     </row>
     <row r="187" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B187" s="19"/>
       <c r="C187" s="22"/>
@@ -8824,7 +8865,7 @@
       <c r="R188" s="1"/>
     </row>
     <row r="189" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="27"/>
+      <c r="A189" s="26"/>
       <c r="B189" s="25"/>
       <c r="C189" s="25"/>
       <c r="D189" s="25"/>
@@ -8844,7 +8885,7 @@
       <c r="R189" s="1"/>
     </row>
     <row r="190" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="27"/>
+      <c r="A190" s="26"/>
       <c r="B190" s="25"/>
       <c r="C190" s="25"/>
       <c r="D190" s="25"/>
@@ -8864,7 +8905,7 @@
       <c r="R190" s="1"/>
     </row>
     <row r="191" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="27"/>
+      <c r="A191" s="26"/>
       <c r="B191" s="25"/>
       <c r="C191" s="25"/>
       <c r="D191" s="25"/>
@@ -8884,7 +8925,7 @@
       <c r="R191" s="1"/>
     </row>
     <row r="192" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="27"/>
+      <c r="A192" s="26"/>
       <c r="B192" s="25"/>
       <c r="C192" s="25"/>
       <c r="D192" s="25"/>
@@ -8904,16 +8945,16 @@
       <c r="R192" s="1"/>
     </row>
     <row r="193" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="28"/>
-      <c r="B193" s="29" t="s">
+      <c r="A193" s="27"/>
+      <c r="B193" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C193" s="30"/>
-      <c r="D193" s="30"/>
-      <c r="E193" s="30"/>
-      <c r="F193" s="30"/>
-      <c r="G193" s="31"/>
-      <c r="H193" s="32"/>
+      <c r="C193" s="29"/>
+      <c r="D193" s="29"/>
+      <c r="E193" s="29"/>
+      <c r="F193" s="29"/>
+      <c r="G193" s="30"/>
+      <c r="H193" s="31"/>
       <c r="I193" s="7"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
@@ -8927,7 +8968,7 @@
     </row>
     <row r="194" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B194" s="19"/>
       <c r="C194" s="22"/>
@@ -8970,7 +9011,7 @@
       <c r="R195" s="1"/>
     </row>
     <row r="196" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="27"/>
+      <c r="A196" s="26"/>
       <c r="B196" s="25"/>
       <c r="C196" s="25"/>
       <c r="D196" s="25"/>
@@ -8990,7 +9031,7 @@
       <c r="R196" s="1"/>
     </row>
     <row r="197" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="27"/>
+      <c r="A197" s="26"/>
       <c r="B197" s="25"/>
       <c r="C197" s="25"/>
       <c r="D197" s="25"/>
@@ -9010,7 +9051,7 @@
       <c r="R197" s="1"/>
     </row>
     <row r="198" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="27"/>
+      <c r="A198" s="26"/>
       <c r="B198" s="25"/>
       <c r="C198" s="25"/>
       <c r="D198" s="25"/>
@@ -9030,7 +9071,7 @@
       <c r="R198" s="1"/>
     </row>
     <row r="199" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="27"/>
+      <c r="A199" s="26"/>
       <c r="B199" s="25"/>
       <c r="C199" s="25"/>
       <c r="D199" s="25"/>
@@ -9050,16 +9091,16 @@
       <c r="R199" s="1"/>
     </row>
     <row r="200" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="28"/>
-      <c r="B200" s="29" t="s">
+      <c r="A200" s="27"/>
+      <c r="B200" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C200" s="30"/>
-      <c r="D200" s="30"/>
-      <c r="E200" s="30"/>
-      <c r="F200" s="30"/>
-      <c r="G200" s="31"/>
-      <c r="H200" s="32"/>
+      <c r="C200" s="29"/>
+      <c r="D200" s="29"/>
+      <c r="E200" s="29"/>
+      <c r="F200" s="29"/>
+      <c r="G200" s="30"/>
+      <c r="H200" s="31"/>
       <c r="I200" s="7"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
@@ -9073,7 +9114,7 @@
     </row>
     <row r="201" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B201" s="19"/>
       <c r="C201" s="22"/>
@@ -9116,7 +9157,7 @@
       <c r="R202" s="1"/>
     </row>
     <row r="203" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="27"/>
+      <c r="A203" s="26"/>
       <c r="B203" s="25"/>
       <c r="C203" s="25"/>
       <c r="D203" s="25"/>
@@ -9136,7 +9177,7 @@
       <c r="R203" s="1"/>
     </row>
     <row r="204" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="27"/>
+      <c r="A204" s="26"/>
       <c r="B204" s="25"/>
       <c r="C204" s="25"/>
       <c r="D204" s="25"/>
@@ -9156,7 +9197,7 @@
       <c r="R204" s="1"/>
     </row>
     <row r="205" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="27"/>
+      <c r="A205" s="26"/>
       <c r="B205" s="25"/>
       <c r="C205" s="25"/>
       <c r="D205" s="25"/>
@@ -9176,7 +9217,7 @@
       <c r="R205" s="1"/>
     </row>
     <row r="206" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="27"/>
+      <c r="A206" s="26"/>
       <c r="B206" s="25"/>
       <c r="C206" s="25"/>
       <c r="D206" s="25"/>
@@ -9196,16 +9237,16 @@
       <c r="R206" s="1"/>
     </row>
     <row r="207" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="28"/>
-      <c r="B207" s="29" t="s">
+      <c r="A207" s="27"/>
+      <c r="B207" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C207" s="30"/>
-      <c r="D207" s="30"/>
-      <c r="E207" s="30"/>
-      <c r="F207" s="30"/>
-      <c r="G207" s="31"/>
-      <c r="H207" s="32"/>
+      <c r="C207" s="29"/>
+      <c r="D207" s="29"/>
+      <c r="E207" s="29"/>
+      <c r="F207" s="29"/>
+      <c r="G207" s="30"/>
+      <c r="H207" s="31"/>
       <c r="I207" s="7"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
@@ -9219,7 +9260,7 @@
     </row>
     <row r="208" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="21" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B208" s="19"/>
       <c r="C208" s="22"/>
@@ -9262,7 +9303,7 @@
       <c r="R209" s="1"/>
     </row>
     <row r="210" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="27"/>
+      <c r="A210" s="26"/>
       <c r="B210" s="25"/>
       <c r="C210" s="25"/>
       <c r="D210" s="25"/>
@@ -9282,7 +9323,7 @@
       <c r="R210" s="1"/>
     </row>
     <row r="211" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="27"/>
+      <c r="A211" s="26"/>
       <c r="B211" s="25"/>
       <c r="C211" s="25"/>
       <c r="D211" s="25"/>
@@ -9302,7 +9343,7 @@
       <c r="R211" s="1"/>
     </row>
     <row r="212" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="27"/>
+      <c r="A212" s="26"/>
       <c r="B212" s="25"/>
       <c r="C212" s="25"/>
       <c r="D212" s="25"/>
@@ -9322,7 +9363,7 @@
       <c r="R212" s="1"/>
     </row>
     <row r="213" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="27"/>
+      <c r="A213" s="26"/>
       <c r="B213" s="25"/>
       <c r="C213" s="25"/>
       <c r="D213" s="25"/>
@@ -9342,16 +9383,16 @@
       <c r="R213" s="1"/>
     </row>
     <row r="214" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="28"/>
-      <c r="B214" s="29" t="s">
+      <c r="A214" s="27"/>
+      <c r="B214" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C214" s="30"/>
-      <c r="D214" s="30"/>
-      <c r="E214" s="30"/>
-      <c r="F214" s="30"/>
-      <c r="G214" s="31"/>
-      <c r="H214" s="32"/>
+      <c r="C214" s="29"/>
+      <c r="D214" s="29"/>
+      <c r="E214" s="29"/>
+      <c r="F214" s="29"/>
+      <c r="G214" s="30"/>
+      <c r="H214" s="31"/>
       <c r="I214" s="7"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
@@ -9365,7 +9406,7 @@
     </row>
     <row r="215" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B215" s="19"/>
       <c r="C215" s="22"/>
@@ -9408,7 +9449,7 @@
       <c r="R216" s="1"/>
     </row>
     <row r="217" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="27"/>
+      <c r="A217" s="26"/>
       <c r="B217" s="25"/>
       <c r="C217" s="25"/>
       <c r="D217" s="25"/>
@@ -9428,7 +9469,7 @@
       <c r="R217" s="1"/>
     </row>
     <row r="218" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="27"/>
+      <c r="A218" s="26"/>
       <c r="B218" s="25"/>
       <c r="C218" s="25"/>
       <c r="D218" s="25"/>
@@ -9448,7 +9489,7 @@
       <c r="R218" s="1"/>
     </row>
     <row r="219" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="27"/>
+      <c r="A219" s="26"/>
       <c r="B219" s="25"/>
       <c r="C219" s="25"/>
       <c r="D219" s="25"/>
@@ -9468,7 +9509,7 @@
       <c r="R219" s="1"/>
     </row>
     <row r="220" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="27"/>
+      <c r="A220" s="26"/>
       <c r="B220" s="25"/>
       <c r="C220" s="25"/>
       <c r="D220" s="25"/>
@@ -9488,16 +9529,16 @@
       <c r="R220" s="1"/>
     </row>
     <row r="221" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="28"/>
-      <c r="B221" s="29" t="s">
+      <c r="A221" s="27"/>
+      <c r="B221" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C221" s="30"/>
-      <c r="D221" s="30"/>
-      <c r="E221" s="30"/>
-      <c r="F221" s="30"/>
-      <c r="G221" s="31"/>
-      <c r="H221" s="32"/>
+      <c r="C221" s="29"/>
+      <c r="D221" s="29"/>
+      <c r="E221" s="29"/>
+      <c r="F221" s="29"/>
+      <c r="G221" s="30"/>
+      <c r="H221" s="31"/>
       <c r="I221" s="7"/>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
@@ -9510,14 +9551,14 @@
       <c r="R221" s="1"/>
     </row>
     <row r="222" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="49"/>
-      <c r="B222" s="50"/>
-      <c r="C222" s="50"/>
-      <c r="D222" s="50"/>
-      <c r="E222" s="50"/>
-      <c r="F222" s="50"/>
-      <c r="G222" s="50"/>
-      <c r="H222" s="50"/>
+      <c r="A222" s="46"/>
+      <c r="B222" s="47"/>
+      <c r="C222" s="47"/>
+      <c r="D222" s="47"/>
+      <c r="E222" s="47"/>
+      <c r="F222" s="47"/>
+      <c r="G222" s="47"/>
+      <c r="H222" s="47"/>
       <c r="I222" s="7"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
@@ -9530,16 +9571,16 @@
       <c r="R222" s="1"/>
     </row>
     <row r="223" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="B223" s="52"/>
-      <c r="C223" s="52"/>
-      <c r="D223" s="52"/>
-      <c r="E223" s="52"/>
-      <c r="F223" s="52"/>
-      <c r="G223" s="53"/>
-      <c r="H223" s="54"/>
+      <c r="A223" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B223" s="49"/>
+      <c r="C223" s="49"/>
+      <c r="D223" s="49"/>
+      <c r="E223" s="49"/>
+      <c r="F223" s="49"/>
+      <c r="G223" s="50"/>
+      <c r="H223" s="51"/>
       <c r="I223" s="7"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
@@ -9552,16 +9593,16 @@
       <c r="R223" s="1"/>
     </row>
     <row r="224" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="55" t="s">
+      <c r="A224" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B224" s="56"/>
-      <c r="C224" s="56"/>
-      <c r="D224" s="56"/>
-      <c r="E224" s="56"/>
-      <c r="F224" s="56"/>
-      <c r="G224" s="57"/>
-      <c r="H224" s="58"/>
+      <c r="B224" s="53"/>
+      <c r="C224" s="53"/>
+      <c r="D224" s="53"/>
+      <c r="E224" s="53"/>
+      <c r="F224" s="53"/>
+      <c r="G224" s="54"/>
+      <c r="H224" s="55"/>
       <c r="I224" s="7"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
@@ -9574,16 +9615,16 @@
       <c r="R224" s="1"/>
     </row>
     <row r="225" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B225" s="60"/>
-      <c r="C225" s="61"/>
-      <c r="D225" s="61"/>
-      <c r="E225" s="61"/>
-      <c r="F225" s="61"/>
-      <c r="G225" s="62"/>
-      <c r="H225" s="62"/>
+      <c r="A225" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B225" s="57"/>
+      <c r="C225" s="58"/>
+      <c r="D225" s="58"/>
+      <c r="E225" s="58"/>
+      <c r="F225" s="58"/>
+      <c r="G225" s="59"/>
+      <c r="H225" s="59"/>
       <c r="I225" s="7"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
@@ -9596,16 +9637,16 @@
       <c r="R225" s="1"/>
     </row>
     <row r="226" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B226" s="64"/>
-      <c r="C226" s="65"/>
-      <c r="D226" s="65"/>
-      <c r="E226" s="65"/>
-      <c r="F226" s="65"/>
-      <c r="G226" s="66"/>
-      <c r="H226" s="66"/>
+      <c r="A226" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B226" s="61"/>
+      <c r="C226" s="62"/>
+      <c r="D226" s="62"/>
+      <c r="E226" s="62"/>
+      <c r="F226" s="62"/>
+      <c r="G226" s="63"/>
+      <c r="H226" s="63"/>
       <c r="I226" s="7"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
@@ -9618,7 +9659,7 @@
       <c r="R226" s="1"/>
     </row>
     <row r="227" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="27"/>
+      <c r="A227" s="26"/>
       <c r="B227" s="25"/>
       <c r="C227" s="25"/>
       <c r="D227" s="25"/>
@@ -9638,7 +9679,7 @@
       <c r="R227" s="1"/>
     </row>
     <row r="228" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="27"/>
+      <c r="A228" s="26"/>
       <c r="B228" s="25"/>
       <c r="C228" s="25"/>
       <c r="D228" s="25"/>
@@ -9658,7 +9699,7 @@
       <c r="R228" s="1"/>
     </row>
     <row r="229" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="27"/>
+      <c r="A229" s="26"/>
       <c r="B229" s="25"/>
       <c r="C229" s="25"/>
       <c r="D229" s="25"/>
@@ -9678,7 +9719,7 @@
       <c r="R229" s="1"/>
     </row>
     <row r="230" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="27"/>
+      <c r="A230" s="26"/>
       <c r="B230" s="25"/>
       <c r="C230" s="25"/>
       <c r="D230" s="25"/>
@@ -9698,7 +9739,7 @@
       <c r="R230" s="1"/>
     </row>
     <row r="231" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="27"/>
+      <c r="A231" s="26"/>
       <c r="B231" s="25"/>
       <c r="C231" s="25"/>
       <c r="D231" s="25"/>
@@ -9718,16 +9759,16 @@
       <c r="R231" s="1"/>
     </row>
     <row r="232" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="27"/>
-      <c r="B232" s="29" t="s">
+      <c r="A232" s="26"/>
+      <c r="B232" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C232" s="30"/>
-      <c r="D232" s="30"/>
-      <c r="E232" s="30"/>
-      <c r="F232" s="30"/>
-      <c r="G232" s="31"/>
-      <c r="H232" s="32"/>
+      <c r="C232" s="29"/>
+      <c r="D232" s="29"/>
+      <c r="E232" s="29"/>
+      <c r="F232" s="29"/>
+      <c r="G232" s="30"/>
+      <c r="H232" s="31"/>
       <c r="I232" s="7"/>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
@@ -9740,16 +9781,16 @@
       <c r="R232" s="1"/>
     </row>
     <row r="233" spans="1:18" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A233" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="B233" s="68"/>
-      <c r="C233" s="69"/>
-      <c r="D233" s="69"/>
-      <c r="E233" s="69"/>
-      <c r="F233" s="69"/>
-      <c r="G233" s="66"/>
-      <c r="H233" s="66"/>
+      <c r="A233" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B233" s="65"/>
+      <c r="C233" s="66"/>
+      <c r="D233" s="66"/>
+      <c r="E233" s="66"/>
+      <c r="F233" s="66"/>
+      <c r="G233" s="63"/>
+      <c r="H233" s="63"/>
       <c r="I233" s="7"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
@@ -9762,16 +9803,16 @@
       <c r="R233" s="1"/>
     </row>
     <row r="234" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B234" s="71"/>
-      <c r="C234" s="72"/>
-      <c r="D234" s="72"/>
-      <c r="E234" s="72"/>
-      <c r="F234" s="72"/>
-      <c r="G234" s="66"/>
-      <c r="H234" s="66"/>
+      <c r="A234" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B234" s="68"/>
+      <c r="C234" s="69"/>
+      <c r="D234" s="69"/>
+      <c r="E234" s="69"/>
+      <c r="F234" s="69"/>
+      <c r="G234" s="63"/>
+      <c r="H234" s="63"/>
       <c r="I234" s="7"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
@@ -9784,7 +9825,7 @@
       <c r="R234" s="1"/>
     </row>
     <row r="235" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="27"/>
+      <c r="A235" s="26"/>
       <c r="B235" s="25"/>
       <c r="C235" s="25"/>
       <c r="D235" s="25"/>
@@ -9804,7 +9845,7 @@
       <c r="R235" s="1"/>
     </row>
     <row r="236" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="27"/>
+      <c r="A236" s="26"/>
       <c r="B236" s="25"/>
       <c r="C236" s="25"/>
       <c r="D236" s="25"/>
@@ -9824,7 +9865,7 @@
       <c r="R236" s="1"/>
     </row>
     <row r="237" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="27"/>
+      <c r="A237" s="26"/>
       <c r="B237" s="25"/>
       <c r="C237" s="25"/>
       <c r="D237" s="25"/>
@@ -9844,7 +9885,7 @@
       <c r="R237" s="1"/>
     </row>
     <row r="238" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="27"/>
+      <c r="A238" s="26"/>
       <c r="B238" s="25"/>
       <c r="C238" s="25"/>
       <c r="D238" s="25"/>
@@ -9864,7 +9905,7 @@
       <c r="R238" s="1"/>
     </row>
     <row r="239" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="27"/>
+      <c r="A239" s="26"/>
       <c r="B239" s="25"/>
       <c r="C239" s="25"/>
       <c r="D239" s="25"/>
@@ -9884,16 +9925,16 @@
       <c r="R239" s="1"/>
     </row>
     <row r="240" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="27"/>
-      <c r="B240" s="29" t="s">
+      <c r="A240" s="26"/>
+      <c r="B240" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="30"/>
-      <c r="D240" s="30"/>
-      <c r="E240" s="30"/>
-      <c r="F240" s="30"/>
-      <c r="G240" s="31"/>
-      <c r="H240" s="32"/>
+      <c r="C240" s="29"/>
+      <c r="D240" s="29"/>
+      <c r="E240" s="29"/>
+      <c r="F240" s="29"/>
+      <c r="G240" s="30"/>
+      <c r="H240" s="31"/>
       <c r="I240" s="7"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
@@ -9906,16 +9947,16 @@
       <c r="R240" s="1"/>
     </row>
     <row r="241" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="B241" s="73"/>
-      <c r="C241" s="74"/>
-      <c r="D241" s="74"/>
-      <c r="E241" s="74"/>
-      <c r="F241" s="74"/>
-      <c r="G241" s="66"/>
-      <c r="H241" s="66"/>
+      <c r="A241" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B241" s="70"/>
+      <c r="C241" s="71"/>
+      <c r="D241" s="71"/>
+      <c r="E241" s="71"/>
+      <c r="F241" s="71"/>
+      <c r="G241" s="63"/>
+      <c r="H241" s="63"/>
       <c r="I241" s="7"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
@@ -9928,7 +9969,7 @@
       <c r="R241" s="1"/>
     </row>
     <row r="242" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="27"/>
+      <c r="A242" s="26"/>
       <c r="B242" s="25"/>
       <c r="C242" s="25"/>
       <c r="D242" s="25"/>
@@ -9948,7 +9989,7 @@
       <c r="R242" s="1"/>
     </row>
     <row r="243" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="27"/>
+      <c r="A243" s="26"/>
       <c r="B243" s="25"/>
       <c r="C243" s="25"/>
       <c r="D243" s="25"/>
@@ -9968,7 +10009,7 @@
       <c r="R243" s="1"/>
     </row>
     <row r="244" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="27"/>
+      <c r="A244" s="26"/>
       <c r="B244" s="25"/>
       <c r="C244" s="25"/>
       <c r="D244" s="25"/>
@@ -9988,7 +10029,7 @@
       <c r="R244" s="1"/>
     </row>
     <row r="245" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="27"/>
+      <c r="A245" s="26"/>
       <c r="B245" s="25"/>
       <c r="C245" s="25"/>
       <c r="D245" s="25"/>
@@ -10008,7 +10049,7 @@
       <c r="R245" s="1"/>
     </row>
     <row r="246" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="27"/>
+      <c r="A246" s="26"/>
       <c r="B246" s="25"/>
       <c r="C246" s="25"/>
       <c r="D246" s="25"/>
@@ -10028,16 +10069,16 @@
       <c r="R246" s="1"/>
     </row>
     <row r="247" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="27"/>
-      <c r="B247" s="29" t="s">
+      <c r="A247" s="26"/>
+      <c r="B247" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C247" s="30"/>
-      <c r="D247" s="30"/>
-      <c r="E247" s="30"/>
-      <c r="F247" s="30"/>
-      <c r="G247" s="31"/>
-      <c r="H247" s="32"/>
+      <c r="C247" s="29"/>
+      <c r="D247" s="29"/>
+      <c r="E247" s="29"/>
+      <c r="F247" s="29"/>
+      <c r="G247" s="30"/>
+      <c r="H247" s="31"/>
       <c r="I247" s="7"/>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
@@ -10050,16 +10091,16 @@
       <c r="R247" s="1"/>
     </row>
     <row r="248" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="B248" s="74"/>
-      <c r="C248" s="74"/>
-      <c r="D248" s="74"/>
-      <c r="E248" s="74"/>
-      <c r="F248" s="74"/>
-      <c r="G248" s="66"/>
-      <c r="H248" s="66"/>
+      <c r="A248" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B248" s="71"/>
+      <c r="C248" s="71"/>
+      <c r="D248" s="71"/>
+      <c r="E248" s="71"/>
+      <c r="F248" s="71"/>
+      <c r="G248" s="63"/>
+      <c r="H248" s="63"/>
       <c r="I248" s="7"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
@@ -10072,7 +10113,7 @@
       <c r="R248" s="1"/>
     </row>
     <row r="249" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="27"/>
+      <c r="A249" s="26"/>
       <c r="B249" s="25"/>
       <c r="C249" s="25"/>
       <c r="D249" s="25"/>
@@ -10092,7 +10133,7 @@
       <c r="R249" s="1"/>
     </row>
     <row r="250" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="27"/>
+      <c r="A250" s="26"/>
       <c r="B250" s="25"/>
       <c r="C250" s="25"/>
       <c r="D250" s="25"/>
@@ -10112,7 +10153,7 @@
       <c r="R250" s="1"/>
     </row>
     <row r="251" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="27"/>
+      <c r="A251" s="26"/>
       <c r="B251" s="25"/>
       <c r="C251" s="25"/>
       <c r="D251" s="25"/>
@@ -10132,7 +10173,7 @@
       <c r="R251" s="1"/>
     </row>
     <row r="252" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="27"/>
+      <c r="A252" s="26"/>
       <c r="B252" s="25"/>
       <c r="C252" s="25"/>
       <c r="D252" s="25"/>
@@ -10152,7 +10193,7 @@
       <c r="R252" s="1"/>
     </row>
     <row r="253" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="27"/>
+      <c r="A253" s="26"/>
       <c r="B253" s="25"/>
       <c r="C253" s="25"/>
       <c r="D253" s="25"/>
@@ -10172,16 +10213,16 @@
       <c r="R253" s="1"/>
     </row>
     <row r="254" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="27"/>
-      <c r="B254" s="29" t="s">
+      <c r="A254" s="26"/>
+      <c r="B254" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C254" s="30"/>
-      <c r="D254" s="30"/>
-      <c r="E254" s="30"/>
-      <c r="F254" s="30"/>
-      <c r="G254" s="31"/>
-      <c r="H254" s="32"/>
+      <c r="C254" s="29"/>
+      <c r="D254" s="29"/>
+      <c r="E254" s="29"/>
+      <c r="F254" s="29"/>
+      <c r="G254" s="30"/>
+      <c r="H254" s="31"/>
       <c r="I254" s="7"/>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
@@ -10194,16 +10235,16 @@
       <c r="R254" s="1"/>
     </row>
     <row r="255" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="B255" s="74"/>
-      <c r="C255" s="74"/>
-      <c r="D255" s="74"/>
-      <c r="E255" s="74"/>
-      <c r="F255" s="74"/>
-      <c r="G255" s="66"/>
-      <c r="H255" s="66"/>
+      <c r="A255" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B255" s="71"/>
+      <c r="C255" s="71"/>
+      <c r="D255" s="71"/>
+      <c r="E255" s="71"/>
+      <c r="F255" s="71"/>
+      <c r="G255" s="63"/>
+      <c r="H255" s="63"/>
       <c r="I255" s="7"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
@@ -10216,7 +10257,7 @@
       <c r="R255" s="1"/>
     </row>
     <row r="256" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="27"/>
+      <c r="A256" s="26"/>
       <c r="B256" s="25"/>
       <c r="C256" s="25"/>
       <c r="D256" s="25"/>
@@ -10236,7 +10277,7 @@
       <c r="R256" s="1"/>
     </row>
     <row r="257" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="27"/>
+      <c r="A257" s="26"/>
       <c r="B257" s="25"/>
       <c r="C257" s="25"/>
       <c r="D257" s="25"/>
@@ -10256,7 +10297,7 @@
       <c r="R257" s="1"/>
     </row>
     <row r="258" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="27"/>
+      <c r="A258" s="26"/>
       <c r="B258" s="25"/>
       <c r="C258" s="25"/>
       <c r="D258" s="25"/>
@@ -10276,7 +10317,7 @@
       <c r="R258" s="1"/>
     </row>
     <row r="259" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="27"/>
+      <c r="A259" s="26"/>
       <c r="B259" s="25"/>
       <c r="C259" s="25"/>
       <c r="D259" s="25"/>
@@ -10296,7 +10337,7 @@
       <c r="R259" s="1"/>
     </row>
     <row r="260" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="27"/>
+      <c r="A260" s="26"/>
       <c r="B260" s="25"/>
       <c r="C260" s="25"/>
       <c r="D260" s="25"/>
@@ -10316,16 +10357,16 @@
       <c r="R260" s="1"/>
     </row>
     <row r="261" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="27"/>
-      <c r="B261" s="29" t="s">
+      <c r="A261" s="26"/>
+      <c r="B261" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C261" s="30"/>
-      <c r="D261" s="30"/>
-      <c r="E261" s="30"/>
-      <c r="F261" s="30"/>
-      <c r="G261" s="31"/>
-      <c r="H261" s="32"/>
+      <c r="C261" s="29"/>
+      <c r="D261" s="29"/>
+      <c r="E261" s="29"/>
+      <c r="F261" s="29"/>
+      <c r="G261" s="30"/>
+      <c r="H261" s="31"/>
       <c r="I261" s="7"/>
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
@@ -10338,16 +10379,16 @@
       <c r="R261" s="1"/>
     </row>
     <row r="262" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="B262" s="74"/>
-      <c r="C262" s="74"/>
-      <c r="D262" s="74"/>
-      <c r="E262" s="74"/>
-      <c r="F262" s="74"/>
-      <c r="G262" s="66"/>
-      <c r="H262" s="66"/>
+      <c r="A262" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B262" s="71"/>
+      <c r="C262" s="71"/>
+      <c r="D262" s="71"/>
+      <c r="E262" s="71"/>
+      <c r="F262" s="71"/>
+      <c r="G262" s="63"/>
+      <c r="H262" s="63"/>
       <c r="I262" s="7"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
@@ -10360,7 +10401,7 @@
       <c r="R262" s="1"/>
     </row>
     <row r="263" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="27"/>
+      <c r="A263" s="26"/>
       <c r="B263" s="25"/>
       <c r="C263" s="25"/>
       <c r="D263" s="25"/>
@@ -10380,7 +10421,7 @@
       <c r="R263" s="1"/>
     </row>
     <row r="264" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="27"/>
+      <c r="A264" s="26"/>
       <c r="B264" s="25"/>
       <c r="C264" s="25"/>
       <c r="D264" s="25"/>
@@ -10400,7 +10441,7 @@
       <c r="R264" s="1"/>
     </row>
     <row r="265" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="27"/>
+      <c r="A265" s="26"/>
       <c r="B265" s="25"/>
       <c r="C265" s="25"/>
       <c r="D265" s="25"/>
@@ -10420,7 +10461,7 @@
       <c r="R265" s="1"/>
     </row>
     <row r="266" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="27"/>
+      <c r="A266" s="26"/>
       <c r="B266" s="25"/>
       <c r="C266" s="25"/>
       <c r="D266" s="25"/>
@@ -10440,7 +10481,7 @@
       <c r="R266" s="1"/>
     </row>
     <row r="267" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="27"/>
+      <c r="A267" s="26"/>
       <c r="B267" s="25"/>
       <c r="C267" s="25"/>
       <c r="D267" s="25"/>
@@ -10460,16 +10501,16 @@
       <c r="R267" s="1"/>
     </row>
     <row r="268" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="27"/>
-      <c r="B268" s="29" t="s">
+      <c r="A268" s="26"/>
+      <c r="B268" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C268" s="30"/>
-      <c r="D268" s="30"/>
-      <c r="E268" s="30"/>
-      <c r="F268" s="30"/>
-      <c r="G268" s="31"/>
-      <c r="H268" s="32"/>
+      <c r="C268" s="29"/>
+      <c r="D268" s="29"/>
+      <c r="E268" s="29"/>
+      <c r="F268" s="29"/>
+      <c r="G268" s="30"/>
+      <c r="H268" s="31"/>
       <c r="I268" s="7"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
@@ -10482,16 +10523,16 @@
       <c r="R268" s="1"/>
     </row>
     <row r="269" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="70" t="s">
-        <v>85</v>
-      </c>
-      <c r="B269" s="74"/>
-      <c r="C269" s="74"/>
-      <c r="D269" s="74"/>
-      <c r="E269" s="74"/>
-      <c r="F269" s="74"/>
-      <c r="G269" s="66"/>
-      <c r="H269" s="66"/>
+      <c r="A269" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B269" s="71"/>
+      <c r="C269" s="71"/>
+      <c r="D269" s="71"/>
+      <c r="E269" s="71"/>
+      <c r="F269" s="71"/>
+      <c r="G269" s="63"/>
+      <c r="H269" s="63"/>
       <c r="I269" s="7"/>
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
@@ -10504,7 +10545,7 @@
       <c r="R269" s="1"/>
     </row>
     <row r="270" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="27"/>
+      <c r="A270" s="26"/>
       <c r="B270" s="25"/>
       <c r="C270" s="25"/>
       <c r="D270" s="25"/>
@@ -10524,7 +10565,7 @@
       <c r="R270" s="1"/>
     </row>
     <row r="271" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="27"/>
+      <c r="A271" s="26"/>
       <c r="B271" s="25"/>
       <c r="C271" s="25"/>
       <c r="D271" s="25"/>
@@ -10544,7 +10585,7 @@
       <c r="R271" s="1"/>
     </row>
     <row r="272" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="27"/>
+      <c r="A272" s="26"/>
       <c r="B272" s="25"/>
       <c r="C272" s="25"/>
       <c r="D272" s="25"/>
@@ -10564,7 +10605,7 @@
       <c r="R272" s="1"/>
     </row>
     <row r="273" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="27"/>
+      <c r="A273" s="26"/>
       <c r="B273" s="25"/>
       <c r="C273" s="25"/>
       <c r="D273" s="25"/>
@@ -10584,7 +10625,7 @@
       <c r="R273" s="1"/>
     </row>
     <row r="274" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="27"/>
+      <c r="A274" s="26"/>
       <c r="B274" s="25"/>
       <c r="C274" s="25"/>
       <c r="D274" s="25"/>
@@ -10604,16 +10645,16 @@
       <c r="R274" s="1"/>
     </row>
     <row r="275" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="27"/>
-      <c r="B275" s="29" t="s">
+      <c r="A275" s="26"/>
+      <c r="B275" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C275" s="30"/>
-      <c r="D275" s="30"/>
-      <c r="E275" s="30"/>
-      <c r="F275" s="30"/>
-      <c r="G275" s="31"/>
-      <c r="H275" s="32"/>
+      <c r="C275" s="29"/>
+      <c r="D275" s="29"/>
+      <c r="E275" s="29"/>
+      <c r="F275" s="29"/>
+      <c r="G275" s="30"/>
+      <c r="H275" s="31"/>
       <c r="I275" s="7"/>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
@@ -10626,16 +10667,16 @@
       <c r="R275" s="1"/>
     </row>
     <row r="276" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="70" t="s">
-        <v>86</v>
-      </c>
-      <c r="B276" s="74"/>
-      <c r="C276" s="74"/>
-      <c r="D276" s="74"/>
-      <c r="E276" s="74"/>
-      <c r="F276" s="74"/>
-      <c r="G276" s="66"/>
-      <c r="H276" s="66"/>
+      <c r="A276" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="B276" s="71"/>
+      <c r="C276" s="71"/>
+      <c r="D276" s="71"/>
+      <c r="E276" s="71"/>
+      <c r="F276" s="71"/>
+      <c r="G276" s="63"/>
+      <c r="H276" s="63"/>
       <c r="I276" s="7"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
@@ -10648,7 +10689,7 @@
       <c r="R276" s="1"/>
     </row>
     <row r="277" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="27"/>
+      <c r="A277" s="26"/>
       <c r="B277" s="25"/>
       <c r="C277" s="25"/>
       <c r="D277" s="25"/>
@@ -10668,7 +10709,7 @@
       <c r="R277" s="1"/>
     </row>
     <row r="278" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="27"/>
+      <c r="A278" s="26"/>
       <c r="B278" s="25"/>
       <c r="C278" s="25"/>
       <c r="D278" s="25"/>
@@ -10688,7 +10729,7 @@
       <c r="R278" s="1"/>
     </row>
     <row r="279" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="27"/>
+      <c r="A279" s="26"/>
       <c r="B279" s="25"/>
       <c r="C279" s="25"/>
       <c r="D279" s="25"/>
@@ -10708,7 +10749,7 @@
       <c r="R279" s="1"/>
     </row>
     <row r="280" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="27"/>
+      <c r="A280" s="26"/>
       <c r="B280" s="25"/>
       <c r="C280" s="25"/>
       <c r="D280" s="25"/>
@@ -10728,7 +10769,7 @@
       <c r="R280" s="1"/>
     </row>
     <row r="281" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="27"/>
+      <c r="A281" s="26"/>
       <c r="B281" s="25"/>
       <c r="C281" s="25"/>
       <c r="D281" s="25"/>
@@ -10748,16 +10789,16 @@
       <c r="R281" s="1"/>
     </row>
     <row r="282" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="27"/>
-      <c r="B282" s="29" t="s">
+      <c r="A282" s="26"/>
+      <c r="B282" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C282" s="30"/>
-      <c r="D282" s="30"/>
-      <c r="E282" s="30"/>
-      <c r="F282" s="30"/>
-      <c r="G282" s="31"/>
-      <c r="H282" s="32"/>
+      <c r="C282" s="29"/>
+      <c r="D282" s="29"/>
+      <c r="E282" s="29"/>
+      <c r="F282" s="29"/>
+      <c r="G282" s="30"/>
+      <c r="H282" s="31"/>
       <c r="I282" s="7"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
@@ -10770,16 +10811,16 @@
       <c r="R282" s="1"/>
     </row>
     <row r="283" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="B283" s="74"/>
-      <c r="C283" s="74"/>
-      <c r="D283" s="74"/>
-      <c r="E283" s="74"/>
-      <c r="F283" s="74"/>
-      <c r="G283" s="66"/>
-      <c r="H283" s="66"/>
+      <c r="A283" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B283" s="71"/>
+      <c r="C283" s="71"/>
+      <c r="D283" s="71"/>
+      <c r="E283" s="71"/>
+      <c r="F283" s="71"/>
+      <c r="G283" s="63"/>
+      <c r="H283" s="63"/>
       <c r="I283" s="7"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
@@ -10792,7 +10833,7 @@
       <c r="R283" s="1"/>
     </row>
     <row r="284" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="27"/>
+      <c r="A284" s="26"/>
       <c r="B284" s="25"/>
       <c r="C284" s="25"/>
       <c r="D284" s="25"/>
@@ -10812,7 +10853,7 @@
       <c r="R284" s="1"/>
     </row>
     <row r="285" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="27"/>
+      <c r="A285" s="26"/>
       <c r="B285" s="25"/>
       <c r="C285" s="25"/>
       <c r="D285" s="25"/>
@@ -10832,7 +10873,7 @@
       <c r="R285" s="1"/>
     </row>
     <row r="286" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="27"/>
+      <c r="A286" s="26"/>
       <c r="B286" s="25"/>
       <c r="C286" s="25"/>
       <c r="D286" s="25"/>
@@ -10852,7 +10893,7 @@
       <c r="R286" s="1"/>
     </row>
     <row r="287" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="27"/>
+      <c r="A287" s="26"/>
       <c r="B287" s="25"/>
       <c r="C287" s="25"/>
       <c r="D287" s="25"/>
@@ -10872,7 +10913,7 @@
       <c r="R287" s="1"/>
     </row>
     <row r="288" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="27"/>
+      <c r="A288" s="26"/>
       <c r="B288" s="25"/>
       <c r="C288" s="25"/>
       <c r="D288" s="25"/>
@@ -10892,16 +10933,16 @@
       <c r="R288" s="1"/>
     </row>
     <row r="289" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="27"/>
-      <c r="B289" s="29" t="s">
+      <c r="A289" s="26"/>
+      <c r="B289" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C289" s="30"/>
-      <c r="D289" s="30"/>
-      <c r="E289" s="30"/>
-      <c r="F289" s="30"/>
-      <c r="G289" s="31"/>
-      <c r="H289" s="32"/>
+      <c r="C289" s="29"/>
+      <c r="D289" s="29"/>
+      <c r="E289" s="29"/>
+      <c r="F289" s="29"/>
+      <c r="G289" s="30"/>
+      <c r="H289" s="31"/>
       <c r="I289" s="7"/>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
@@ -10914,16 +10955,16 @@
       <c r="R289" s="1"/>
     </row>
     <row r="290" spans="1:18" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="B290" s="74"/>
-      <c r="C290" s="74"/>
-      <c r="D290" s="74"/>
-      <c r="E290" s="74"/>
-      <c r="F290" s="74"/>
-      <c r="G290" s="66"/>
-      <c r="H290" s="66"/>
+      <c r="A290" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B290" s="71"/>
+      <c r="C290" s="71"/>
+      <c r="D290" s="71"/>
+      <c r="E290" s="71"/>
+      <c r="F290" s="71"/>
+      <c r="G290" s="63"/>
+      <c r="H290" s="63"/>
       <c r="I290" s="7"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
@@ -10936,7 +10977,7 @@
       <c r="R290" s="1"/>
     </row>
     <row r="291" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="27"/>
+      <c r="A291" s="26"/>
       <c r="B291" s="25"/>
       <c r="C291" s="25"/>
       <c r="D291" s="25"/>
@@ -10956,7 +10997,7 @@
       <c r="R291" s="1"/>
     </row>
     <row r="292" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="27"/>
+      <c r="A292" s="26"/>
       <c r="B292" s="25"/>
       <c r="C292" s="25"/>
       <c r="D292" s="25"/>
@@ -10976,7 +11017,7 @@
       <c r="R292" s="1"/>
     </row>
     <row r="293" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="27"/>
+      <c r="A293" s="26"/>
       <c r="B293" s="25"/>
       <c r="C293" s="25"/>
       <c r="D293" s="25"/>
@@ -10996,7 +11037,7 @@
       <c r="R293" s="1"/>
     </row>
     <row r="294" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="27"/>
+      <c r="A294" s="26"/>
       <c r="B294" s="25"/>
       <c r="C294" s="25"/>
       <c r="D294" s="25"/>
@@ -11016,7 +11057,7 @@
       <c r="R294" s="1"/>
     </row>
     <row r="295" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="27"/>
+      <c r="A295" s="26"/>
       <c r="B295" s="25"/>
       <c r="C295" s="25"/>
       <c r="D295" s="25"/>
@@ -11036,16 +11077,16 @@
       <c r="R295" s="1"/>
     </row>
     <row r="296" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="27"/>
-      <c r="B296" s="29" t="s">
+      <c r="A296" s="26"/>
+      <c r="B296" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C296" s="30"/>
-      <c r="D296" s="30"/>
-      <c r="E296" s="30"/>
-      <c r="F296" s="30"/>
-      <c r="G296" s="31"/>
-      <c r="H296" s="32"/>
+      <c r="C296" s="29"/>
+      <c r="D296" s="29"/>
+      <c r="E296" s="29"/>
+      <c r="F296" s="29"/>
+      <c r="G296" s="30"/>
+      <c r="H296" s="31"/>
       <c r="I296" s="7"/>
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
@@ -11058,16 +11099,16 @@
       <c r="R296" s="1"/>
     </row>
     <row r="297" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="B297" s="74"/>
-      <c r="C297" s="74"/>
-      <c r="D297" s="74"/>
-      <c r="E297" s="74"/>
-      <c r="F297" s="74"/>
-      <c r="G297" s="66"/>
-      <c r="H297" s="66"/>
+      <c r="A297" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="B297" s="71"/>
+      <c r="C297" s="71"/>
+      <c r="D297" s="71"/>
+      <c r="E297" s="71"/>
+      <c r="F297" s="71"/>
+      <c r="G297" s="63"/>
+      <c r="H297" s="63"/>
       <c r="I297" s="7"/>
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
@@ -11080,7 +11121,7 @@
       <c r="R297" s="1"/>
     </row>
     <row r="298" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="27"/>
+      <c r="A298" s="26"/>
       <c r="B298" s="25"/>
       <c r="C298" s="25"/>
       <c r="D298" s="25"/>
@@ -11100,7 +11141,7 @@
       <c r="R298" s="1"/>
     </row>
     <row r="299" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="27"/>
+      <c r="A299" s="26"/>
       <c r="B299" s="25"/>
       <c r="C299" s="25"/>
       <c r="D299" s="25"/>
@@ -11120,7 +11161,7 @@
       <c r="R299" s="1"/>
     </row>
     <row r="300" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="27"/>
+      <c r="A300" s="26"/>
       <c r="B300" s="25"/>
       <c r="C300" s="25"/>
       <c r="D300" s="25"/>
@@ -11140,7 +11181,7 @@
       <c r="R300" s="1"/>
     </row>
     <row r="301" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="27"/>
+      <c r="A301" s="26"/>
       <c r="B301" s="25"/>
       <c r="C301" s="25"/>
       <c r="D301" s="25"/>
@@ -11160,7 +11201,7 @@
       <c r="R301" s="1"/>
     </row>
     <row r="302" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="27"/>
+      <c r="A302" s="26"/>
       <c r="B302" s="25"/>
       <c r="C302" s="25"/>
       <c r="D302" s="25"/>
@@ -11180,16 +11221,16 @@
       <c r="R302" s="1"/>
     </row>
     <row r="303" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="27"/>
-      <c r="B303" s="29" t="s">
+      <c r="A303" s="26"/>
+      <c r="B303" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C303" s="30"/>
-      <c r="D303" s="30"/>
-      <c r="E303" s="30"/>
-      <c r="F303" s="30"/>
-      <c r="G303" s="31"/>
-      <c r="H303" s="32"/>
+      <c r="C303" s="29"/>
+      <c r="D303" s="29"/>
+      <c r="E303" s="29"/>
+      <c r="F303" s="29"/>
+      <c r="G303" s="30"/>
+      <c r="H303" s="31"/>
       <c r="I303" s="7"/>
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
@@ -11202,16 +11243,16 @@
       <c r="R303" s="1"/>
     </row>
     <row r="304" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="B304" s="74"/>
-      <c r="C304" s="74"/>
-      <c r="D304" s="74"/>
-      <c r="E304" s="74"/>
-      <c r="F304" s="74"/>
-      <c r="G304" s="66"/>
-      <c r="H304" s="66"/>
+      <c r="A304" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="B304" s="71"/>
+      <c r="C304" s="71"/>
+      <c r="D304" s="71"/>
+      <c r="E304" s="71"/>
+      <c r="F304" s="71"/>
+      <c r="G304" s="63"/>
+      <c r="H304" s="63"/>
       <c r="I304" s="7"/>
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
@@ -11224,7 +11265,7 @@
       <c r="R304" s="1"/>
     </row>
     <row r="305" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="27"/>
+      <c r="A305" s="26"/>
       <c r="B305" s="25"/>
       <c r="C305" s="25"/>
       <c r="D305" s="25"/>
@@ -11244,7 +11285,7 @@
       <c r="R305" s="1"/>
     </row>
     <row r="306" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="27"/>
+      <c r="A306" s="26"/>
       <c r="B306" s="25"/>
       <c r="C306" s="25"/>
       <c r="D306" s="25"/>
@@ -11264,7 +11305,7 @@
       <c r="R306" s="1"/>
     </row>
     <row r="307" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="27"/>
+      <c r="A307" s="26"/>
       <c r="B307" s="25"/>
       <c r="C307" s="25"/>
       <c r="D307" s="25"/>
@@ -11284,7 +11325,7 @@
       <c r="R307" s="1"/>
     </row>
     <row r="308" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="27"/>
+      <c r="A308" s="26"/>
       <c r="B308" s="25"/>
       <c r="C308" s="25"/>
       <c r="D308" s="25"/>
@@ -11304,7 +11345,7 @@
       <c r="R308" s="1"/>
     </row>
     <row r="309" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="27"/>
+      <c r="A309" s="26"/>
       <c r="B309" s="25"/>
       <c r="C309" s="25"/>
       <c r="D309" s="25"/>
@@ -11324,16 +11365,16 @@
       <c r="R309" s="1"/>
     </row>
     <row r="310" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="27"/>
-      <c r="B310" s="29" t="s">
+      <c r="A310" s="26"/>
+      <c r="B310" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C310" s="30"/>
-      <c r="D310" s="30"/>
-      <c r="E310" s="30"/>
-      <c r="F310" s="30"/>
-      <c r="G310" s="31"/>
-      <c r="H310" s="32"/>
+      <c r="C310" s="29"/>
+      <c r="D310" s="29"/>
+      <c r="E310" s="29"/>
+      <c r="F310" s="29"/>
+      <c r="G310" s="30"/>
+      <c r="H310" s="31"/>
       <c r="I310" s="7"/>
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
@@ -11346,16 +11387,16 @@
       <c r="R310" s="1"/>
     </row>
     <row r="311" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="B311" s="74"/>
-      <c r="C311" s="74"/>
-      <c r="D311" s="74"/>
-      <c r="E311" s="74"/>
-      <c r="F311" s="74"/>
-      <c r="G311" s="66"/>
-      <c r="H311" s="66"/>
+      <c r="A311" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="B311" s="71"/>
+      <c r="C311" s="71"/>
+      <c r="D311" s="71"/>
+      <c r="E311" s="71"/>
+      <c r="F311" s="71"/>
+      <c r="G311" s="63"/>
+      <c r="H311" s="63"/>
       <c r="I311" s="7"/>
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
@@ -11368,7 +11409,7 @@
       <c r="R311" s="1"/>
     </row>
     <row r="312" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="27"/>
+      <c r="A312" s="26"/>
       <c r="B312" s="25"/>
       <c r="C312" s="25"/>
       <c r="D312" s="25"/>
@@ -11388,7 +11429,7 @@
       <c r="R312" s="1"/>
     </row>
     <row r="313" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="27"/>
+      <c r="A313" s="26"/>
       <c r="B313" s="25"/>
       <c r="C313" s="25"/>
       <c r="D313" s="25"/>
@@ -11408,7 +11449,7 @@
       <c r="R313" s="1"/>
     </row>
     <row r="314" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="27"/>
+      <c r="A314" s="26"/>
       <c r="B314" s="25"/>
       <c r="C314" s="25"/>
       <c r="D314" s="25"/>
@@ -11428,7 +11469,7 @@
       <c r="R314" s="1"/>
     </row>
     <row r="315" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="27"/>
+      <c r="A315" s="26"/>
       <c r="B315" s="25"/>
       <c r="C315" s="25"/>
       <c r="D315" s="25"/>
@@ -11448,7 +11489,7 @@
       <c r="R315" s="1"/>
     </row>
     <row r="316" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="27"/>
+      <c r="A316" s="26"/>
       <c r="B316" s="25"/>
       <c r="C316" s="25"/>
       <c r="D316" s="25"/>
@@ -11468,16 +11509,16 @@
       <c r="R316" s="1"/>
     </row>
     <row r="317" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="27"/>
-      <c r="B317" s="29" t="s">
+      <c r="A317" s="26"/>
+      <c r="B317" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C317" s="30"/>
-      <c r="D317" s="30"/>
-      <c r="E317" s="30"/>
-      <c r="F317" s="30"/>
-      <c r="G317" s="31"/>
-      <c r="H317" s="32"/>
+      <c r="C317" s="29"/>
+      <c r="D317" s="29"/>
+      <c r="E317" s="29"/>
+      <c r="F317" s="29"/>
+      <c r="G317" s="30"/>
+      <c r="H317" s="31"/>
       <c r="I317" s="7"/>
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
@@ -11490,16 +11531,16 @@
       <c r="R317" s="1"/>
     </row>
     <row r="318" spans="1:18" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B318" s="74"/>
-      <c r="C318" s="74"/>
-      <c r="D318" s="74"/>
-      <c r="E318" s="74"/>
-      <c r="F318" s="74"/>
-      <c r="G318" s="66"/>
-      <c r="H318" s="66"/>
+      <c r="A318" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B318" s="71"/>
+      <c r="C318" s="71"/>
+      <c r="D318" s="71"/>
+      <c r="E318" s="71"/>
+      <c r="F318" s="71"/>
+      <c r="G318" s="63"/>
+      <c r="H318" s="63"/>
       <c r="I318" s="7"/>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
@@ -11512,7 +11553,7 @@
       <c r="R318" s="1"/>
     </row>
     <row r="319" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="27"/>
+      <c r="A319" s="26"/>
       <c r="B319" s="25"/>
       <c r="C319" s="25"/>
       <c r="D319" s="25"/>
@@ -11532,7 +11573,7 @@
       <c r="R319" s="1"/>
     </row>
     <row r="320" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="27"/>
+      <c r="A320" s="26"/>
       <c r="B320" s="25"/>
       <c r="C320" s="25"/>
       <c r="D320" s="25"/>
@@ -11552,7 +11593,7 @@
       <c r="R320" s="1"/>
     </row>
     <row r="321" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="27"/>
+      <c r="A321" s="26"/>
       <c r="B321" s="25"/>
       <c r="C321" s="25"/>
       <c r="D321" s="25"/>
@@ -11572,7 +11613,7 @@
       <c r="R321" s="1"/>
     </row>
     <row r="322" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="27"/>
+      <c r="A322" s="26"/>
       <c r="B322" s="25"/>
       <c r="C322" s="25"/>
       <c r="D322" s="25"/>
@@ -11592,7 +11633,7 @@
       <c r="R322" s="1"/>
     </row>
     <row r="323" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="27"/>
+      <c r="A323" s="26"/>
       <c r="B323" s="25"/>
       <c r="C323" s="25"/>
       <c r="D323" s="25"/>
@@ -11612,16 +11653,16 @@
       <c r="R323" s="1"/>
     </row>
     <row r="324" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="27"/>
-      <c r="B324" s="29" t="s">
+      <c r="A324" s="26"/>
+      <c r="B324" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C324" s="30"/>
-      <c r="D324" s="30"/>
-      <c r="E324" s="30"/>
-      <c r="F324" s="30"/>
-      <c r="G324" s="31"/>
-      <c r="H324" s="32"/>
+      <c r="C324" s="29"/>
+      <c r="D324" s="29"/>
+      <c r="E324" s="29"/>
+      <c r="F324" s="29"/>
+      <c r="G324" s="30"/>
+      <c r="H324" s="31"/>
       <c r="I324" s="7"/>
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
@@ -11635,17 +11676,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D41" r:id="rId1" display="https://drive.google.com/open?id=1dSfe8U3m82sh8eTreXsch_e-gteedhMAUBDve1W4JEI&amp;authuser=1"/>
-    <hyperlink ref="D48" r:id="rId2" display="https://drive.google.com/open?id=1GynjhG2dFBfIGeXDx5XA0vWmVijelrFqO8jUd4g_pU0&amp;authuser=1"/>
-    <hyperlink ref="D55" r:id="rId3" location="heading=h.lz5z2m18x9hc" display="https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1/ - heading=h.lz5z2m18x9hc"/>
-    <hyperlink ref="D76" r:id="rId4" location="heading=h.tnnwjg1707az" display="https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1/ - heading=h.tnnwjg1707az"/>
-    <hyperlink ref="D83" r:id="rId5" display="https://drive.google.com/open?id=1Jc8RVsl93uGNh79_DfdDMdwnOj6MAN2E5oZGC2DsZBk&amp;authuser=1"/>
-    <hyperlink ref="D104" r:id="rId6" display="https://drive.google.com/open?id=1vfETlzbkCwqKra6CKWoT61dP-rYr3j0QCKXAng5ih6A&amp;authuser=1"/>
-    <hyperlink ref="D6" r:id="rId7"/>
-    <hyperlink ref="D13" r:id="rId8"/>
-    <hyperlink ref="D20" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId1"/>
+    <hyperlink ref="D13" r:id="rId2"/>
+    <hyperlink ref="D20" r:id="rId3"/>
+    <hyperlink ref="D27" r:id="rId4"/>
+    <hyperlink ref="D41" r:id="rId5"/>
+    <hyperlink ref="D48" r:id="rId6"/>
+    <hyperlink ref="D55" r:id="rId7"/>
+    <hyperlink ref="D62" r:id="rId8"/>
+    <hyperlink ref="D76" r:id="rId9"/>
+    <hyperlink ref="D83" r:id="rId10"/>
+    <hyperlink ref="D90" r:id="rId11"/>
+    <hyperlink ref="D97" r:id="rId12"/>
+    <hyperlink ref="D104" r:id="rId13"/>
+    <hyperlink ref="D111" r:id="rId14"/>
+    <hyperlink ref="D118" r:id="rId15"/>
+    <hyperlink ref="D132" r:id="rId16"/>
+    <hyperlink ref="D125" r:id="rId17"/>
+    <hyperlink ref="D139" r:id="rId18"/>
+    <hyperlink ref="D146" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId20"/>
 </worksheet>
 </file>